--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_8_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_8_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>239390.7788366853</v>
+        <v>271007.1763900022</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1753597.487436277</v>
+        <v>1781239.998976292</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24017544.08774247</v>
+        <v>24017305.13912855</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5146482.819228008</v>
+        <v>5141003.289675864</v>
       </c>
     </row>
     <row r="11">
@@ -7985,10 +7987,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M2" t="n">
-        <v>89.35872216232903</v>
+        <v>94.50134181136147</v>
       </c>
       <c r="N2" t="n">
-        <v>83.98878642167108</v>
+        <v>89.2146190330682</v>
       </c>
       <c r="O2" t="n">
         <v>99.00804712831379</v>
@@ -8061,19 +8063,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L3" t="n">
-        <v>38.8718120156598</v>
+        <v>42.27423123832551</v>
       </c>
       <c r="M3" t="n">
-        <v>16.76619772104769</v>
+        <v>20.73666047215158</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>29.09636626239171</v>
+        <v>32.82469745261383</v>
       </c>
       <c r="P3" t="n">
-        <v>51.91261060228356</v>
+        <v>54.90492507792075</v>
       </c>
       <c r="Q3" t="n">
         <v>54.62009481132077</v>
@@ -8222,13 +8224,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M5" t="n">
-        <v>74.04503350661622</v>
+        <v>89.35872216232903</v>
       </c>
       <c r="N5" t="n">
-        <v>68.42730627354024</v>
+        <v>83.98878642167108</v>
       </c>
       <c r="O5" t="n">
-        <v>84.31378269605858</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P5" t="n">
         <v>83.66766412458549</v>
@@ -8298,19 +8300,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L6" t="n">
-        <v>28.74009079028824</v>
+        <v>38.8718120156598</v>
       </c>
       <c r="M6" t="n">
-        <v>4.94295693345623</v>
+        <v>16.76619772104769</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>17.99414464209616</v>
+        <v>29.09636626239171</v>
       </c>
       <c r="P6" t="n">
-        <v>43.00209896284861</v>
+        <v>51.91261060228356</v>
       </c>
       <c r="Q6" t="n">
         <v>54.62009481132077</v>
@@ -8456,16 +8458,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L8" t="n">
-        <v>102.8381142892153</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M8" t="n">
-        <v>67.64282070579191</v>
+        <v>75.14322041372878</v>
       </c>
       <c r="N8" t="n">
-        <v>61.92149897629116</v>
+        <v>69.54326299292899</v>
       </c>
       <c r="O8" t="n">
-        <v>78.17053334824146</v>
+        <v>85.36754898137042</v>
       </c>
       <c r="P8" t="n">
         <v>83.66766412458549</v>
@@ -8535,19 +8537,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L9" t="n">
-        <v>24.50430953720272</v>
+        <v>29.46666450132338</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>5.790834183966268</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>13.35262508576585</v>
+        <v>18.79031561679614</v>
       </c>
       <c r="P9" t="n">
-        <v>39.27687031530112</v>
+        <v>43.64109636171835</v>
       </c>
       <c r="Q9" t="n">
         <v>54.62009481132077</v>
@@ -8690,22 +8692,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L11" t="n">
-        <v>51.55479777999602</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M11" t="n">
-        <v>10.58024985206538</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N11" t="n">
-        <v>3.935596069070243</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>23.41608951957227</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P11" t="n">
-        <v>70.95247828712439</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q11" t="n">
         <v>55.20189757157522</v>
@@ -8769,7 +8771,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>41.03903769782019</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>6.074112103383982</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q12" t="n">
         <v>54.62009481132077</v>
@@ -8927,22 +8929,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L14" t="n">
-        <v>51.55479777999602</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M14" t="n">
-        <v>10.58024985206538</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N14" t="n">
-        <v>3.935596069070243</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>23.41608951957227</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P14" t="n">
-        <v>70.95247828712439</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q14" t="n">
         <v>55.20189757157522</v>
@@ -9006,7 +9008,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>41.03903769782019</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>6.074112103383982</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q15" t="n">
         <v>54.62009481132077</v>
@@ -9164,22 +9166,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L17" t="n">
-        <v>51.55479777999602</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M17" t="n">
-        <v>10.58024985206538</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N17" t="n">
-        <v>3.935596069070243</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>23.41608951957227</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P17" t="n">
-        <v>70.95247828712439</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q17" t="n">
         <v>55.20189757157522</v>
@@ -9243,7 +9245,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>41.03903769782019</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>6.074112103383982</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9401,22 +9403,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L20" t="n">
-        <v>51.55479777999602</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M20" t="n">
-        <v>10.58024985206538</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N20" t="n">
-        <v>3.935596069070243</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>23.41608951957227</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P20" t="n">
-        <v>70.95247828712439</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q20" t="n">
         <v>55.20189757157522</v>
@@ -9480,7 +9482,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>41.03903769782019</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>6.074112103383982</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9638,22 +9640,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L23" t="n">
-        <v>51.55479777999602</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M23" t="n">
-        <v>10.58024985206538</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N23" t="n">
-        <v>3.935596069070243</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>23.41608951957227</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P23" t="n">
-        <v>70.95247828712439</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q23" t="n">
         <v>55.20189757157522</v>
@@ -9717,7 +9719,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>41.03903769782019</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>6.074112103383982</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9875,22 +9877,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L26" t="n">
-        <v>51.55479777999602</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M26" t="n">
-        <v>10.58024985206538</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N26" t="n">
-        <v>3.935596069070243</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>23.41608951957227</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P26" t="n">
-        <v>70.95247828712439</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q26" t="n">
         <v>55.20189757157522</v>
@@ -9954,7 +9956,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>41.03903769782019</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>6.074112103383982</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10112,22 +10114,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L29" t="n">
-        <v>51.55479777999602</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M29" t="n">
-        <v>10.58024985206538</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N29" t="n">
-        <v>3.935596069070243</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>23.41608951957227</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P29" t="n">
-        <v>70.95247828712439</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q29" t="n">
         <v>55.20189757157522</v>
@@ -10191,7 +10193,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>41.03903769782019</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>6.074112103383982</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10349,22 +10351,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L32" t="n">
-        <v>51.55479777999602</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M32" t="n">
-        <v>10.58024985206538</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N32" t="n">
-        <v>3.935596069070243</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>23.41608951957227</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P32" t="n">
-        <v>70.95247828712439</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q32" t="n">
         <v>55.20189757157522</v>
@@ -10428,7 +10430,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>41.03903769782019</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>6.074112103383982</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10586,22 +10588,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L35" t="n">
-        <v>51.55479777999602</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M35" t="n">
-        <v>10.58024985206538</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N35" t="n">
-        <v>3.935596069070243</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>23.41608951957227</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P35" t="n">
-        <v>70.95247828712439</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q35" t="n">
         <v>55.20189757157522</v>
@@ -10665,7 +10667,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>41.03903769782019</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>6.074112103383982</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10823,22 +10825,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L38" t="n">
-        <v>51.55479777999602</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M38" t="n">
-        <v>10.58024985206538</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N38" t="n">
-        <v>3.935596069070243</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>23.41608951957227</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P38" t="n">
-        <v>70.95247828712439</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q38" t="n">
         <v>55.20189757157522</v>
@@ -10902,7 +10904,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>41.03903769782019</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>6.074112103383982</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11060,22 +11062,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L41" t="n">
-        <v>51.55479777999602</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M41" t="n">
-        <v>10.58024985206538</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N41" t="n">
-        <v>3.935596069070243</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>23.41608951957227</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P41" t="n">
-        <v>70.95247828712439</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q41" t="n">
         <v>55.20189757157522</v>
@@ -11139,7 +11141,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>41.03903769782019</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>6.074112103383982</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11297,22 +11299,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L44" t="n">
-        <v>51.55479777999602</v>
+        <v>48.07411698098349</v>
       </c>
       <c r="M44" t="n">
-        <v>10.58024985206538</v>
+        <v>6.707321807773383</v>
       </c>
       <c r="N44" t="n">
-        <v>3.935596069070243</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>23.41608951957227</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P44" t="n">
-        <v>70.95247828712439</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q44" t="n">
         <v>55.20189757157522</v>
@@ -11376,7 +11378,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>41.03903769782019</v>
+        <v>39.13339190934374</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>6.074112103383982</v>
+        <v>3.820587744020429</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -22559,22 +22561,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G2" t="n">
-        <v>422.180569077725</v>
+        <v>422.2098565259836</v>
       </c>
       <c r="H2" t="n">
-        <v>349.6598249464623</v>
+        <v>349.9597650259403</v>
       </c>
       <c r="I2" t="n">
-        <v>253.2845231898766</v>
+        <v>254.413627538865</v>
       </c>
       <c r="J2" t="n">
-        <v>101.17202184758</v>
+        <v>103.6577574092157</v>
       </c>
       <c r="K2" t="n">
-        <v>58.29051612840928</v>
+        <v>62.01598937483024</v>
       </c>
       <c r="L2" t="n">
-        <v>13.76272976322227</v>
+        <v>18.38450875428637</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22583,25 +22585,25 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.934605547775959</v>
       </c>
       <c r="P2" t="n">
-        <v>51.80080109985099</v>
+        <v>56.01237276874352</v>
       </c>
       <c r="Q2" t="n">
-        <v>117.6935628343943</v>
+        <v>120.8562777625268</v>
       </c>
       <c r="R2" t="n">
-        <v>209.6584962505987</v>
+        <v>211.4982239222711</v>
       </c>
       <c r="S2" t="n">
-        <v>235.2672937814706</v>
+        <v>235.9346815086628</v>
       </c>
       <c r="T2" t="n">
-        <v>219.3436445631938</v>
+        <v>219.4718503679457</v>
       </c>
       <c r="U2" t="n">
-        <v>248.788833337017</v>
+        <v>248.7911763328777</v>
       </c>
       <c r="V2" t="n">
         <v>313.3044420010231</v>
@@ -22638,19 +22640,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G3" t="n">
-        <v>161.0149653106349</v>
+        <v>161.0306354769367</v>
       </c>
       <c r="H3" t="n">
-        <v>137.7503459159327</v>
+        <v>137.9016867325838</v>
       </c>
       <c r="I3" t="n">
-        <v>116.9507599882392</v>
+        <v>117.4902810648562</v>
       </c>
       <c r="J3" t="n">
-        <v>81.45811026959613</v>
+        <v>82.93859734111298</v>
       </c>
       <c r="K3" t="n">
-        <v>11.04044456262879</v>
+        <v>13.57083277636241</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22668,19 +22670,19 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.82637802552915</v>
+        <v>55.82666100818672</v>
       </c>
       <c r="R3" t="n">
-        <v>154.3921839405207</v>
+        <v>155.3651088272201</v>
       </c>
       <c r="S3" t="n">
-        <v>208.0224770741423</v>
+        <v>208.3135435403172</v>
       </c>
       <c r="T3" t="n">
-        <v>230.0952907293151</v>
+        <v>230.1584524961191</v>
       </c>
       <c r="U3" t="n">
-        <v>249.6495544029776</v>
+        <v>249.6505853349712</v>
       </c>
       <c r="V3" t="n">
         <v>249.2999251801724</v>
@@ -22717,49 +22719,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G4" t="n">
-        <v>169.2343807020206</v>
+        <v>169.247518043053</v>
       </c>
       <c r="H4" t="n">
-        <v>167.5776180378764</v>
+        <v>167.6944209426916</v>
       </c>
       <c r="I4" t="n">
-        <v>167.7355108777182</v>
+        <v>168.1305865516738</v>
       </c>
       <c r="J4" t="n">
-        <v>132.2802453397308</v>
+        <v>133.20905535072</v>
       </c>
       <c r="K4" t="n">
-        <v>87.46423987719797</v>
+        <v>88.99056004441432</v>
       </c>
       <c r="L4" t="n">
-        <v>61.01644271081538</v>
+        <v>62.96960703121101</v>
       </c>
       <c r="M4" t="n">
-        <v>57.6471651877402</v>
+        <v>59.70650310975206</v>
       </c>
       <c r="N4" t="n">
-        <v>45.30505538511905</v>
+        <v>47.31542685419204</v>
       </c>
       <c r="O4" t="n">
-        <v>70.7260729557852</v>
+        <v>72.58297639552539</v>
       </c>
       <c r="P4" t="n">
-        <v>89.84907843621555</v>
+        <v>91.43798011889523</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.6385858692978</v>
+        <v>152.7386590351999</v>
       </c>
       <c r="R4" t="n">
-        <v>221.05342233419</v>
+        <v>221.644124959155</v>
       </c>
       <c r="S4" t="n">
-        <v>243.6919922925021</v>
+        <v>243.9209403175845</v>
       </c>
       <c r="T4" t="n">
-        <v>218.0866353446397</v>
+        <v>218.1427676199599</v>
       </c>
       <c r="U4" t="n">
-        <v>291.219579948833</v>
+        <v>291.2202965310711</v>
       </c>
       <c r="V4" t="n">
         <v>237.3615500762718</v>
@@ -22796,22 +22798,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G5" t="n">
-        <v>422.0933569378507</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H5" t="n">
-        <v>348.766663618974</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I5" t="n">
-        <v>249.9222771673705</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J5" t="n">
-        <v>93.77000049091893</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K5" t="n">
-        <v>47.19680489086682</v>
+        <v>58.29051612840928</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>13.76272976322227</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22823,22 +22825,22 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>39.2595863707439</v>
+        <v>51.80080109985099</v>
       </c>
       <c r="Q5" t="n">
-        <v>108.2756328645375</v>
+        <v>117.6935628343943</v>
       </c>
       <c r="R5" t="n">
-        <v>204.1801566692163</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S5" t="n">
-        <v>233.2799471440838</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T5" t="n">
-        <v>218.9618734208938</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U5" t="n">
-        <v>248.7818563658271</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V5" t="n">
         <v>313.3044420010231</v>
@@ -22875,19 +22877,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G6" t="n">
-        <v>160.968302702022</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H6" t="n">
-        <v>137.2996833538022</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I6" t="n">
-        <v>115.3441745601174</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J6" t="n">
-        <v>77.04951705849162</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K6" t="n">
-        <v>3.505456574455792</v>
+        <v>11.04044456262879</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22905,19 +22907,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>47.86993696819729</v>
+        <v>53.82637802552915</v>
       </c>
       <c r="R6" t="n">
-        <v>151.4950089952352</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S6" t="n">
-        <v>207.155739585213</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T6" t="n">
-        <v>229.9072076709146</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U6" t="n">
-        <v>249.6464844945162</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V6" t="n">
         <v>249.2999251801724</v>
@@ -22954,49 +22956,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G7" t="n">
-        <v>169.1952603384582</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H7" t="n">
-        <v>167.229802441839</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I7" t="n">
-        <v>166.5590548534935</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J7" t="n">
-        <v>129.5144356358626</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K7" t="n">
-        <v>82.91916491057385</v>
+        <v>87.46423987719797</v>
       </c>
       <c r="L7" t="n">
-        <v>55.200311568079</v>
+        <v>61.01644271081538</v>
       </c>
       <c r="M7" t="n">
-        <v>51.51487037948515</v>
+        <v>57.6471651877402</v>
       </c>
       <c r="N7" t="n">
-        <v>39.31857284105146</v>
+        <v>45.30505538511905</v>
       </c>
       <c r="O7" t="n">
-        <v>65.19658738606127</v>
+        <v>70.7260729557852</v>
       </c>
       <c r="P7" t="n">
-        <v>85.11764828316647</v>
+        <v>89.84907843621555</v>
       </c>
       <c r="Q7" t="n">
-        <v>148.3627888804421</v>
+        <v>151.6385858692978</v>
       </c>
       <c r="R7" t="n">
-        <v>219.2944285325528</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S7" t="n">
-        <v>243.0102310475085</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T7" t="n">
-        <v>217.9194847003273</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U7" t="n">
-        <v>291.2174461108205</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V7" t="n">
         <v>237.3615500762718</v>
@@ -23033,22 +23035,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G8" t="n">
-        <v>422.0568960504157</v>
+        <v>422.099611161265</v>
       </c>
       <c r="H8" t="n">
-        <v>348.3932585555301</v>
+        <v>348.8307146845167</v>
       </c>
       <c r="I8" t="n">
-        <v>248.5166188045319</v>
+        <v>250.1633931155539</v>
       </c>
       <c r="J8" t="n">
-        <v>90.67542824598098</v>
+        <v>94.3008198854363</v>
       </c>
       <c r="K8" t="n">
-        <v>42.5588432808045</v>
+        <v>47.99236556251543</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.9869633614668771</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -23060,22 +23062,22 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>34.01646518147888</v>
+        <v>40.15895151551294</v>
       </c>
       <c r="Q8" t="n">
-        <v>104.3382672065391</v>
+        <v>108.9510186332786</v>
       </c>
       <c r="R8" t="n">
-        <v>201.8898204488763</v>
+        <v>204.5730235307706</v>
       </c>
       <c r="S8" t="n">
-        <v>232.4490946716583</v>
+        <v>233.4224652601393</v>
       </c>
       <c r="T8" t="n">
-        <v>218.802265886147</v>
+        <v>218.9892512838904</v>
       </c>
       <c r="U8" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7823567037002</v>
       </c>
       <c r="V8" t="n">
         <v>313.3044420010231</v>
@@ -23112,19 +23114,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G9" t="n">
-        <v>160.948794407391</v>
+        <v>160.9716490065592</v>
       </c>
       <c r="H9" t="n">
-        <v>137.1112742977616</v>
+        <v>137.3320016107803</v>
       </c>
       <c r="I9" t="n">
-        <v>114.6725073984828</v>
+        <v>115.4593872382636</v>
       </c>
       <c r="J9" t="n">
-        <v>75.2064110293488</v>
+        <v>77.36566945338926</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3552948050415807</v>
+        <v>4.045811373348414</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23142,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>45.37972027109998</v>
+        <v>48.29708980702097</v>
       </c>
       <c r="R9" t="n">
-        <v>150.2837834742034</v>
+        <v>151.7027734120297</v>
       </c>
       <c r="S9" t="n">
-        <v>206.7933815687133</v>
+        <v>207.2178957243147</v>
       </c>
       <c r="T9" t="n">
-        <v>229.8285755535207</v>
+        <v>229.9206956264836</v>
       </c>
       <c r="U9" t="n">
-        <v>249.64520105408</v>
+        <v>249.6467046461305</v>
       </c>
       <c r="V9" t="n">
         <v>249.2999251801724</v>
@@ -23191,49 +23193,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G10" t="n">
-        <v>169.1789052395657</v>
+        <v>169.1980657677725</v>
       </c>
       <c r="H10" t="n">
-        <v>167.0843907444132</v>
+        <v>167.254745258834</v>
       </c>
       <c r="I10" t="n">
-        <v>166.0672124249817</v>
+        <v>166.6434217641473</v>
       </c>
       <c r="J10" t="n">
-        <v>128.3581301441649</v>
+        <v>129.7127794883883</v>
       </c>
       <c r="K10" t="n">
-        <v>81.01899978470318</v>
+        <v>83.24510478909748</v>
       </c>
       <c r="L10" t="n">
-        <v>52.76875441092022</v>
+        <v>55.61740239541668</v>
       </c>
       <c r="M10" t="n">
-        <v>48.95113428673177</v>
+        <v>51.95463417646347</v>
       </c>
       <c r="N10" t="n">
-        <v>36.81579666235183</v>
+        <v>39.74788003785805</v>
       </c>
       <c r="O10" t="n">
-        <v>62.88486849896913</v>
+        <v>65.59312206769549</v>
       </c>
       <c r="P10" t="n">
-        <v>83.13957341348075</v>
+        <v>85.45695220678763</v>
       </c>
       <c r="Q10" t="n">
-        <v>146.9932723722735</v>
+        <v>148.597705329666</v>
       </c>
       <c r="R10" t="n">
-        <v>218.5590438132605</v>
+        <v>219.4205708360879</v>
       </c>
       <c r="S10" t="n">
-        <v>242.7252062786279</v>
+        <v>243.059122029287</v>
       </c>
       <c r="T10" t="n">
-        <v>217.8496038232412</v>
+        <v>217.9314715346705</v>
       </c>
       <c r="U10" t="n">
-        <v>291.2165540145173</v>
+        <v>291.2175991342377</v>
       </c>
       <c r="V10" t="n">
         <v>237.3615500762718</v>
@@ -23270,19 +23272,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>421.7319221644519</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H11" t="n">
-        <v>345.0651197459042</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I11" t="n">
-        <v>235.9880630659157</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J11" t="n">
-        <v>63.09367589216797</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K11" t="n">
-        <v>1.220946334147328</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -23300,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>69.24474347867474</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R11" t="n">
-        <v>181.4761795847079</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S11" t="n">
-        <v>225.0437522452601</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T11" t="n">
-        <v>217.3796927003409</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7529415839552</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23349,16 +23351,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>160.7749180494436</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H12" t="n">
-        <v>135.4319947354794</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I12" t="n">
-        <v>108.6859748989755</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J12" t="n">
-        <v>58.77890828133769</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23379,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>23.18455570222598</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R12" t="n">
-        <v>139.4881969693594</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S12" t="n">
-        <v>203.5637044813994</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T12" t="n">
-        <v>229.1277318124956</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U12" t="n">
-        <v>249.6337618200045</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23428,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.033133141948</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H13" t="n">
-        <v>165.7883442765028</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I13" t="n">
-        <v>161.68344788935</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J13" t="n">
-        <v>118.0520428425906</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K13" t="n">
-        <v>64.08293244329653</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L13" t="n">
-        <v>31.09641909782442</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M13" t="n">
-        <v>26.10069538470714</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N13" t="n">
-        <v>14.50869012417513</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O13" t="n">
-        <v>42.28064510114515</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P13" t="n">
-        <v>65.50910080705869</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q13" t="n">
-        <v>134.7868469981189</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R13" t="n">
-        <v>212.0046002240119</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S13" t="n">
-        <v>240.1847961774168</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T13" t="n">
-        <v>217.2267594061473</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U13" t="n">
-        <v>291.2086028091927</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23507,19 +23509,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>421.7319221644519</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H14" t="n">
-        <v>345.0651197459042</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I14" t="n">
-        <v>235.9880630659157</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J14" t="n">
-        <v>63.09367589216797</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K14" t="n">
-        <v>1.220946334147328</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -23537,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>69.24474347867474</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R14" t="n">
-        <v>181.4761795847079</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S14" t="n">
-        <v>225.0437522452601</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T14" t="n">
-        <v>217.3796927003409</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7529415839552</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23586,16 +23588,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>160.7749180494436</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H15" t="n">
-        <v>135.4319947354794</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I15" t="n">
-        <v>108.6859748989755</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J15" t="n">
-        <v>58.77890828133769</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23616,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>23.18455570222598</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R15" t="n">
-        <v>139.4881969693594</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S15" t="n">
-        <v>203.5637044813994</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T15" t="n">
-        <v>229.1277318124956</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U15" t="n">
-        <v>249.6337618200045</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
@@ -23665,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.033133141948</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H16" t="n">
-        <v>165.7883442765028</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I16" t="n">
-        <v>161.68344788935</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J16" t="n">
-        <v>118.0520428425906</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K16" t="n">
-        <v>64.08293244329653</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L16" t="n">
-        <v>31.09641909782442</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M16" t="n">
-        <v>26.10069538470714</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N16" t="n">
-        <v>14.50869012417513</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O16" t="n">
-        <v>42.28064510114515</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P16" t="n">
-        <v>65.50910080705869</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q16" t="n">
-        <v>134.7868469981189</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R16" t="n">
-        <v>212.0046002240119</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S16" t="n">
-        <v>240.1847961774168</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T16" t="n">
-        <v>217.2267594061473</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U16" t="n">
-        <v>291.2086028091927</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23744,19 +23746,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>421.7319221644519</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H17" t="n">
-        <v>345.0651197459042</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I17" t="n">
-        <v>235.9880630659157</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J17" t="n">
-        <v>63.09367589216797</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K17" t="n">
-        <v>1.220946334147328</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -23774,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>69.24474347867474</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R17" t="n">
-        <v>181.4761795847079</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S17" t="n">
-        <v>225.0437522452601</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T17" t="n">
-        <v>217.3796927003409</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7529415839552</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23823,16 +23825,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>160.7749180494436</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H18" t="n">
-        <v>135.4319947354794</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I18" t="n">
-        <v>108.6859748989755</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J18" t="n">
-        <v>58.77890828133769</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23853,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>23.18455570222598</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R18" t="n">
-        <v>139.4881969693594</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S18" t="n">
-        <v>203.5637044813994</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T18" t="n">
-        <v>229.1277318124956</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U18" t="n">
-        <v>249.6337618200045</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23902,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.033133141948</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H19" t="n">
-        <v>165.7883442765028</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I19" t="n">
-        <v>161.68344788935</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J19" t="n">
-        <v>118.0520428425906</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K19" t="n">
-        <v>64.08293244329653</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L19" t="n">
-        <v>31.09641909782442</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M19" t="n">
-        <v>26.10069538470714</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N19" t="n">
-        <v>14.50869012417513</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O19" t="n">
-        <v>42.28064510114515</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P19" t="n">
-        <v>65.50910080705869</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q19" t="n">
-        <v>134.7868469981189</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R19" t="n">
-        <v>212.0046002240119</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S19" t="n">
-        <v>240.1847961774168</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T19" t="n">
-        <v>217.2267594061473</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U19" t="n">
-        <v>291.2086028091927</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23981,19 +23983,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>421.7319221644519</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H20" t="n">
-        <v>345.0651197459042</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I20" t="n">
-        <v>235.9880630659157</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J20" t="n">
-        <v>63.09367589216797</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K20" t="n">
-        <v>1.220946334147328</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -24011,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>69.24474347867474</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R20" t="n">
-        <v>181.4761795847079</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S20" t="n">
-        <v>225.0437522452601</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T20" t="n">
-        <v>217.3796927003409</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U20" t="n">
-        <v>248.7529415839552</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24060,16 +24062,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>160.7749180494436</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H21" t="n">
-        <v>135.4319947354794</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I21" t="n">
-        <v>108.6859748989755</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J21" t="n">
-        <v>58.77890828133769</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24090,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>23.18455570222598</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R21" t="n">
-        <v>139.4881969693594</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S21" t="n">
-        <v>203.5637044813994</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T21" t="n">
-        <v>229.1277318124956</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U21" t="n">
-        <v>249.6337618200045</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24139,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.033133141948</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H22" t="n">
-        <v>165.7883442765028</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I22" t="n">
-        <v>161.68344788935</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J22" t="n">
-        <v>118.0520428425906</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K22" t="n">
-        <v>64.08293244329653</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L22" t="n">
-        <v>31.09641909782442</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M22" t="n">
-        <v>26.10069538470714</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N22" t="n">
-        <v>14.50869012417513</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O22" t="n">
-        <v>42.28064510114515</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P22" t="n">
-        <v>65.50910080705869</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q22" t="n">
-        <v>134.7868469981189</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R22" t="n">
-        <v>212.0046002240119</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S22" t="n">
-        <v>240.1847961774168</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T22" t="n">
-        <v>217.2267594061473</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U22" t="n">
-        <v>291.2086028091927</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24218,19 +24220,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>421.7319221644519</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H23" t="n">
-        <v>345.0651197459042</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I23" t="n">
-        <v>235.9880630659157</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J23" t="n">
-        <v>63.09367589216797</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K23" t="n">
-        <v>1.220946334147328</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -24248,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>69.24474347867474</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R23" t="n">
-        <v>181.4761795847079</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S23" t="n">
-        <v>225.0437522452601</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T23" t="n">
-        <v>217.3796927003409</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7529415839552</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24297,16 +24299,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>160.7749180494436</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H24" t="n">
-        <v>135.4319947354794</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I24" t="n">
-        <v>108.6859748989755</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J24" t="n">
-        <v>58.77890828133769</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24327,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>23.18455570222598</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R24" t="n">
-        <v>139.4881969693594</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S24" t="n">
-        <v>203.5637044813994</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T24" t="n">
-        <v>229.1277318124956</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6337618200045</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
@@ -24376,49 +24378,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G25" t="n">
-        <v>169.033133141948</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H25" t="n">
-        <v>165.7883442765028</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I25" t="n">
-        <v>161.68344788935</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J25" t="n">
-        <v>118.0520428425906</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K25" t="n">
-        <v>64.08293244329653</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L25" t="n">
-        <v>31.09641909782442</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M25" t="n">
-        <v>26.10069538470714</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N25" t="n">
-        <v>14.50869012417513</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O25" t="n">
-        <v>42.28064510114515</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P25" t="n">
-        <v>65.50910080705869</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q25" t="n">
-        <v>134.7868469981189</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R25" t="n">
-        <v>212.0046002240119</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S25" t="n">
-        <v>240.1847961774168</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T25" t="n">
-        <v>217.2267594061473</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U25" t="n">
-        <v>291.2086028091927</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24455,19 +24457,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>421.7319221644519</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H26" t="n">
-        <v>345.0651197459042</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I26" t="n">
-        <v>235.9880630659157</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J26" t="n">
-        <v>63.09367589216797</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K26" t="n">
-        <v>1.220946334147328</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -24485,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>69.24474347867474</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R26" t="n">
-        <v>181.4761795847079</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S26" t="n">
-        <v>225.0437522452601</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T26" t="n">
-        <v>217.3796927003409</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7529415839552</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24534,16 +24536,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>160.7749180494436</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H27" t="n">
-        <v>135.4319947354794</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I27" t="n">
-        <v>108.6859748989755</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J27" t="n">
-        <v>58.77890828133769</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24564,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>23.18455570222598</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R27" t="n">
-        <v>139.4881969693594</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S27" t="n">
-        <v>203.5637044813994</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T27" t="n">
-        <v>229.1277318124956</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U27" t="n">
-        <v>249.6337618200045</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V27" t="n">
         <v>249.2999251801724</v>
@@ -24613,49 +24615,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>169.033133141948</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H28" t="n">
-        <v>165.7883442765028</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I28" t="n">
-        <v>161.68344788935</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J28" t="n">
-        <v>118.0520428425906</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K28" t="n">
-        <v>64.08293244329653</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L28" t="n">
-        <v>31.09641909782442</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M28" t="n">
-        <v>26.10069538470714</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N28" t="n">
-        <v>14.50869012417513</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O28" t="n">
-        <v>42.28064510114515</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P28" t="n">
-        <v>65.50910080705869</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q28" t="n">
-        <v>134.7868469981189</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R28" t="n">
-        <v>212.0046002240119</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S28" t="n">
-        <v>240.1847961774168</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T28" t="n">
-        <v>217.2267594061473</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U28" t="n">
-        <v>291.2086028091927</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
@@ -24692,19 +24694,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>421.7319221644519</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H29" t="n">
-        <v>345.0651197459042</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I29" t="n">
-        <v>235.9880630659157</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J29" t="n">
-        <v>63.09367589216797</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K29" t="n">
-        <v>1.220946334147328</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -24722,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>69.24474347867474</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R29" t="n">
-        <v>181.4761795847079</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S29" t="n">
-        <v>225.0437522452601</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T29" t="n">
-        <v>217.3796927003409</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7529415839552</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
@@ -24771,16 +24773,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>160.7749180494436</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H30" t="n">
-        <v>135.4319947354794</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I30" t="n">
-        <v>108.6859748989755</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J30" t="n">
-        <v>58.77890828133769</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24801,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>23.18455570222598</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R30" t="n">
-        <v>139.4881969693594</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S30" t="n">
-        <v>203.5637044813994</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T30" t="n">
-        <v>229.1277318124956</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6337618200045</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
@@ -24850,49 +24852,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>169.033133141948</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H31" t="n">
-        <v>165.7883442765028</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I31" t="n">
-        <v>161.68344788935</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J31" t="n">
-        <v>118.0520428425906</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K31" t="n">
-        <v>64.08293244329653</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L31" t="n">
-        <v>31.09641909782442</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M31" t="n">
-        <v>26.10069538470714</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N31" t="n">
-        <v>14.50869012417513</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O31" t="n">
-        <v>42.28064510114515</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P31" t="n">
-        <v>65.50910080705869</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q31" t="n">
-        <v>134.7868469981189</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R31" t="n">
-        <v>212.0046002240119</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S31" t="n">
-        <v>240.1847961774168</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T31" t="n">
-        <v>217.2267594061473</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U31" t="n">
-        <v>291.2086028091927</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24929,19 +24931,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>421.7319221644519</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H32" t="n">
-        <v>345.0651197459042</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I32" t="n">
-        <v>235.9880630659157</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J32" t="n">
-        <v>63.09367589216797</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K32" t="n">
-        <v>1.220946334147328</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -24959,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>69.24474347867474</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R32" t="n">
-        <v>181.4761795847079</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S32" t="n">
-        <v>225.0437522452601</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T32" t="n">
-        <v>217.3796927003409</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7529415839552</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -25008,16 +25010,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>160.7749180494436</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H33" t="n">
-        <v>135.4319947354794</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I33" t="n">
-        <v>108.6859748989755</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J33" t="n">
-        <v>58.77890828133769</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25038,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>23.18455570222598</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R33" t="n">
-        <v>139.4881969693594</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S33" t="n">
-        <v>203.5637044813994</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T33" t="n">
-        <v>229.1277318124956</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6337618200045</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25087,49 +25089,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>169.033133141948</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H34" t="n">
-        <v>165.7883442765028</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I34" t="n">
-        <v>161.68344788935</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J34" t="n">
-        <v>118.0520428425906</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K34" t="n">
-        <v>64.08293244329653</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L34" t="n">
-        <v>31.09641909782442</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M34" t="n">
-        <v>26.10069538470714</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N34" t="n">
-        <v>14.50869012417513</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O34" t="n">
-        <v>42.28064510114515</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P34" t="n">
-        <v>65.50910080705869</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q34" t="n">
-        <v>134.7868469981189</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R34" t="n">
-        <v>212.0046002240119</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S34" t="n">
-        <v>240.1847961774168</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T34" t="n">
-        <v>217.2267594061473</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U34" t="n">
-        <v>291.2086028091927</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25166,19 +25168,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>421.7319221644519</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H35" t="n">
-        <v>345.0651197459042</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I35" t="n">
-        <v>235.9880630659157</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J35" t="n">
-        <v>63.09367589216797</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K35" t="n">
-        <v>1.220946334147328</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -25196,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>69.24474347867474</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R35" t="n">
-        <v>181.4761795847079</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S35" t="n">
-        <v>225.0437522452601</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T35" t="n">
-        <v>217.3796927003409</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7529415839552</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25245,16 +25247,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>160.7749180494436</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H36" t="n">
-        <v>135.4319947354794</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I36" t="n">
-        <v>108.6859748989755</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J36" t="n">
-        <v>58.77890828133769</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25275,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>23.18455570222598</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R36" t="n">
-        <v>139.4881969693594</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S36" t="n">
-        <v>203.5637044813994</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T36" t="n">
-        <v>229.1277318124956</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6337618200045</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
@@ -25324,49 +25326,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>169.033133141948</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H37" t="n">
-        <v>165.7883442765028</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I37" t="n">
-        <v>161.68344788935</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J37" t="n">
-        <v>118.0520428425906</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K37" t="n">
-        <v>64.08293244329653</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L37" t="n">
-        <v>31.09641909782442</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M37" t="n">
-        <v>26.10069538470714</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N37" t="n">
-        <v>14.50869012417513</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O37" t="n">
-        <v>42.28064510114515</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P37" t="n">
-        <v>65.50910080705869</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q37" t="n">
-        <v>134.7868469981189</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R37" t="n">
-        <v>212.0046002240119</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S37" t="n">
-        <v>240.1847961774168</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T37" t="n">
-        <v>217.2267594061473</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U37" t="n">
-        <v>291.2086028091927</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25403,19 +25405,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>421.7319221644519</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H38" t="n">
-        <v>345.0651197459042</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I38" t="n">
-        <v>235.9880630659157</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J38" t="n">
-        <v>63.09367589216797</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K38" t="n">
-        <v>1.220946334147328</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -25433,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>69.24474347867474</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R38" t="n">
-        <v>181.4761795847079</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S38" t="n">
-        <v>225.0437522452601</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T38" t="n">
-        <v>217.3796927003409</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7529415839552</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25482,16 +25484,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>160.7749180494436</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H39" t="n">
-        <v>135.4319947354794</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I39" t="n">
-        <v>108.6859748989755</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J39" t="n">
-        <v>58.77890828133769</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25512,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>23.18455570222598</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R39" t="n">
-        <v>139.4881969693594</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S39" t="n">
-        <v>203.5637044813994</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T39" t="n">
-        <v>229.1277318124956</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6337618200045</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
@@ -25561,49 +25563,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>169.033133141948</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H40" t="n">
-        <v>165.7883442765028</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I40" t="n">
-        <v>161.68344788935</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J40" t="n">
-        <v>118.0520428425906</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K40" t="n">
-        <v>64.08293244329653</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L40" t="n">
-        <v>31.09641909782442</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M40" t="n">
-        <v>26.10069538470714</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N40" t="n">
-        <v>14.50869012417513</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O40" t="n">
-        <v>42.28064510114515</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P40" t="n">
-        <v>65.50910080705869</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q40" t="n">
-        <v>134.7868469981189</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R40" t="n">
-        <v>212.0046002240119</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S40" t="n">
-        <v>240.1847961774168</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T40" t="n">
-        <v>217.2267594061473</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U40" t="n">
-        <v>291.2086028091927</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25640,19 +25642,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>421.7319221644519</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H41" t="n">
-        <v>345.0651197459042</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I41" t="n">
-        <v>235.9880630659157</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J41" t="n">
-        <v>63.09367589216797</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K41" t="n">
-        <v>1.220946334147328</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -25670,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>69.24474347867474</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R41" t="n">
-        <v>181.4761795847079</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S41" t="n">
-        <v>225.0437522452601</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T41" t="n">
-        <v>217.3796927003409</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7529415839552</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25719,16 +25721,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>160.7749180494436</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H42" t="n">
-        <v>135.4319947354794</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I42" t="n">
-        <v>108.6859748989755</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J42" t="n">
-        <v>58.77890828133769</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25749,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>23.18455570222598</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R42" t="n">
-        <v>139.4881969693594</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S42" t="n">
-        <v>203.5637044813994</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T42" t="n">
-        <v>229.1277318124956</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U42" t="n">
-        <v>249.6337618200045</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
@@ -25798,49 +25800,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>169.033133141948</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H43" t="n">
-        <v>165.7883442765028</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I43" t="n">
-        <v>161.68344788935</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J43" t="n">
-        <v>118.0520428425906</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K43" t="n">
-        <v>64.08293244329653</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L43" t="n">
-        <v>31.09641909782442</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M43" t="n">
-        <v>26.10069538470714</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N43" t="n">
-        <v>14.50869012417513</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O43" t="n">
-        <v>42.28064510114515</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P43" t="n">
-        <v>65.50910080705869</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q43" t="n">
-        <v>134.7868469981189</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R43" t="n">
-        <v>212.0046002240119</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S43" t="n">
-        <v>240.1847961774168</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T43" t="n">
-        <v>217.2267594061473</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U43" t="n">
-        <v>291.2086028091927</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25877,19 +25879,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>421.7319221644519</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H44" t="n">
-        <v>345.0651197459042</v>
+        <v>344.8392336363538</v>
       </c>
       <c r="I44" t="n">
-        <v>235.9880630659157</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J44" t="n">
-        <v>63.09367589216797</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K44" t="n">
-        <v>1.220946334147328</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -25907,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>69.24474347867474</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R44" t="n">
-        <v>181.4761795847079</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S44" t="n">
-        <v>225.0437522452601</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T44" t="n">
-        <v>217.3796927003409</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7529415839552</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
@@ -25956,16 +25958,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>160.7749180494436</v>
+        <v>160.7631167826437</v>
       </c>
       <c r="H45" t="n">
-        <v>135.4319947354794</v>
+        <v>135.3180193429644</v>
       </c>
       <c r="I45" t="n">
-        <v>108.6859748989755</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J45" t="n">
-        <v>58.77890828133769</v>
+        <v>57.66394736845585</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25986,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>23.18455570222598</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R45" t="n">
-        <v>139.4881969693594</v>
+        <v>138.7554832289223</v>
       </c>
       <c r="S45" t="n">
-        <v>203.5637044813994</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T45" t="n">
-        <v>229.1277318124956</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6337618200045</v>
+        <v>249.6329854208729</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
@@ -26035,49 +26037,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G46" t="n">
-        <v>169.033133141948</v>
+        <v>169.0232393562931</v>
       </c>
       <c r="H46" t="n">
-        <v>165.7883442765028</v>
+        <v>165.7003795276809</v>
       </c>
       <c r="I46" t="n">
-        <v>161.68344788935</v>
+        <v>161.3859147716582</v>
       </c>
       <c r="J46" t="n">
-        <v>118.0520428425906</v>
+        <v>117.3525521967958</v>
       </c>
       <c r="K46" t="n">
-        <v>64.08293244329653</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L46" t="n">
-        <v>31.09641909782442</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M46" t="n">
-        <v>26.10069538470714</v>
+        <v>24.54979951156312</v>
       </c>
       <c r="N46" t="n">
-        <v>14.50869012417513</v>
+        <v>12.99467108847176</v>
       </c>
       <c r="O46" t="n">
-        <v>42.28064510114515</v>
+        <v>40.88220347059112</v>
       </c>
       <c r="P46" t="n">
-        <v>65.50910080705869</v>
+        <v>64.31249240386273</v>
       </c>
       <c r="Q46" t="n">
-        <v>134.7868469981189</v>
+        <v>133.9583773647877</v>
       </c>
       <c r="R46" t="n">
-        <v>212.0046002240119</v>
+        <v>211.5597396435694</v>
       </c>
       <c r="S46" t="n">
-        <v>240.1847961774168</v>
+        <v>240.0123744765054</v>
       </c>
       <c r="T46" t="n">
-        <v>217.2267594061473</v>
+        <v>217.1844859583495</v>
       </c>
       <c r="U46" t="n">
-        <v>291.2086028091927</v>
+        <v>291.208063148157</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>415406.4713352767</v>
+        <v>411693.3648432757</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>424591.8953433592</v>
+        <v>415406.4713352767</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>427699.2527874153</v>
+        <v>423933.1832192759</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>452618.4303223529</v>
+        <v>453834.0145197529</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>452618.4303223529</v>
+        <v>453834.0145197529</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>452618.4303223529</v>
+        <v>453834.0145197529</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>452618.4303223529</v>
+        <v>453834.0145197529</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>452618.4303223529</v>
+        <v>453834.0145197529</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>452618.4303223529</v>
+        <v>453834.0145197529</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>452618.4303223529</v>
+        <v>453834.0145197529</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>452618.4303223529</v>
+        <v>453834.0145197529</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>452618.4303223529</v>
+        <v>453834.0145197529</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>452618.4303223529</v>
+        <v>453834.0145197529</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>452618.4303223529</v>
+        <v>453834.0145197529</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>452618.4303223529</v>
+        <v>453834.0145197529</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>99236.30995058002</v>
+      </c>
+      <c r="C2" t="n">
         <v>100235.7312921728</v>
       </c>
-      <c r="C2" t="n">
-        <v>102802.4251524512</v>
-      </c>
       <c r="D2" t="n">
-        <v>103715.1851269533</v>
+        <v>102618.3604469909</v>
       </c>
       <c r="E2" t="n">
-        <v>111084.9261895661</v>
+        <v>111476.2922468809</v>
       </c>
       <c r="F2" t="n">
-        <v>111084.9261895661</v>
+        <v>111476.2922468809</v>
       </c>
       <c r="G2" t="n">
-        <v>111084.9261895661</v>
+        <v>111476.2922468809</v>
       </c>
       <c r="H2" t="n">
-        <v>111084.9261895661</v>
+        <v>111476.2922468809</v>
       </c>
       <c r="I2" t="n">
-        <v>111084.9261895661</v>
+        <v>111476.2922468809</v>
       </c>
       <c r="J2" t="n">
-        <v>111084.9261895661</v>
+        <v>111476.2922468809</v>
       </c>
       <c r="K2" t="n">
-        <v>111084.9261895661</v>
+        <v>111476.2922468809</v>
       </c>
       <c r="L2" t="n">
-        <v>111084.9261895661</v>
+        <v>111476.2922468809</v>
       </c>
       <c r="M2" t="n">
-        <v>111084.9261895661</v>
+        <v>111476.2922468809</v>
       </c>
       <c r="N2" t="n">
-        <v>111084.9261895661</v>
+        <v>111476.2922468809</v>
       </c>
       <c r="O2" t="n">
-        <v>111084.9261895661</v>
+        <v>111476.2922468809</v>
       </c>
       <c r="P2" t="n">
-        <v>111084.9261895661</v>
+        <v>111476.2922468809</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>337891.9184474517</v>
+        <v>330871.7541851042</v>
       </c>
       <c r="C3" t="n">
-        <v>19754.6178122245</v>
+        <v>6633.965728588497</v>
       </c>
       <c r="D3" t="n">
-        <v>7767.371594878908</v>
+        <v>17246.70640045144</v>
       </c>
       <c r="E3" t="n">
-        <v>64944.89248259589</v>
+        <v>77889.27155607384</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>14748.12504095569</v>
+      </c>
+      <c r="C4" t="n">
         <v>14463.54616658559</v>
       </c>
-      <c r="C4" t="n">
-        <v>13382.19473355446</v>
-      </c>
       <c r="D4" t="n">
-        <v>12838.51227960221</v>
+        <v>13459.7414313123</v>
       </c>
       <c r="E4" t="n">
-        <v>8278.725564088712</v>
+        <v>7928.845532229341</v>
       </c>
       <c r="F4" t="n">
-        <v>8278.725564088712</v>
+        <v>7928.845532229341</v>
       </c>
       <c r="G4" t="n">
-        <v>8278.725564088712</v>
+        <v>7928.845532229341</v>
       </c>
       <c r="H4" t="n">
-        <v>8278.725564088712</v>
+        <v>7928.845532229341</v>
       </c>
       <c r="I4" t="n">
-        <v>8278.725564088712</v>
+        <v>7928.845532229341</v>
       </c>
       <c r="J4" t="n">
-        <v>8278.725564088712</v>
+        <v>7928.845532229341</v>
       </c>
       <c r="K4" t="n">
-        <v>8278.725564088712</v>
+        <v>7928.845532229341</v>
       </c>
       <c r="L4" t="n">
-        <v>8278.725564088712</v>
+        <v>7928.845532229341</v>
       </c>
       <c r="M4" t="n">
-        <v>8278.725564088712</v>
+        <v>7928.845532229341</v>
       </c>
       <c r="N4" t="n">
-        <v>8278.725564088712</v>
+        <v>7928.845532229341</v>
       </c>
       <c r="O4" t="n">
-        <v>8278.725564088712</v>
+        <v>7928.845532229341</v>
       </c>
       <c r="P4" t="n">
-        <v>8278.725564088712</v>
+        <v>7928.845532229341</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>41112.97456555201</v>
+      </c>
+      <c r="C5" t="n">
         <v>41271.79307559616</v>
       </c>
-      <c r="C5" t="n">
-        <v>41744.72270709982</v>
-      </c>
       <c r="D5" t="n">
-        <v>41942.44098443807</v>
+        <v>41710.80761707942</v>
       </c>
       <c r="E5" t="n">
-        <v>10077.09312454782</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="F5" t="n">
-        <v>10077.09312454782</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="G5" t="n">
-        <v>10077.09312454782</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="H5" t="n">
-        <v>10077.09312454782</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="I5" t="n">
-        <v>10077.09312454782</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="J5" t="n">
-        <v>10077.09312454782</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="K5" t="n">
-        <v>10077.09312454782</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="L5" t="n">
-        <v>10077.09312454782</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="M5" t="n">
-        <v>10077.09312454782</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="N5" t="n">
-        <v>10077.09312454782</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="O5" t="n">
-        <v>10077.09312454782</v>
+        <v>10196.69999876384</v>
       </c>
       <c r="P5" t="n">
-        <v>10077.09312454782</v>
+        <v>10196.69999876384</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-293391.5263974607</v>
+        <v>-287496.5438410318</v>
       </c>
       <c r="C6" t="n">
-        <v>27920.88989957237</v>
+        <v>37866.42632140255</v>
       </c>
       <c r="D6" t="n">
-        <v>41166.86026803408</v>
+        <v>30201.10499814777</v>
       </c>
       <c r="E6" t="n">
-        <v>27784.21501833364</v>
+        <v>15461.47515981388</v>
       </c>
       <c r="F6" t="n">
-        <v>92729.10750092953</v>
+        <v>93350.74671588773</v>
       </c>
       <c r="G6" t="n">
-        <v>92729.10750092953</v>
+        <v>93350.74671588773</v>
       </c>
       <c r="H6" t="n">
-        <v>92729.10750092953</v>
+        <v>93350.74671588773</v>
       </c>
       <c r="I6" t="n">
-        <v>92729.10750092953</v>
+        <v>93350.74671588773</v>
       </c>
       <c r="J6" t="n">
-        <v>92729.10750092953</v>
+        <v>93350.74671588773</v>
       </c>
       <c r="K6" t="n">
-        <v>92729.10750092953</v>
+        <v>93350.74671588773</v>
       </c>
       <c r="L6" t="n">
-        <v>92729.10750092953</v>
+        <v>93350.74671588773</v>
       </c>
       <c r="M6" t="n">
-        <v>92729.10750092953</v>
+        <v>93350.74671588773</v>
       </c>
       <c r="N6" t="n">
-        <v>92729.10750092953</v>
+        <v>93350.74671588773</v>
       </c>
       <c r="O6" t="n">
-        <v>92729.10750092953</v>
+        <v>93350.74671588773</v>
       </c>
       <c r="P6" t="n">
-        <v>92729.10750092953</v>
+        <v>93350.74671588773</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>343.3658057592666</v>
+      </c>
+      <c r="C3" t="n">
         <v>350.6510585135856</v>
       </c>
-      <c r="C3" t="n">
-        <v>372.3450783073314</v>
-      </c>
       <c r="D3" t="n">
-        <v>381.4147240567924</v>
+        <v>370.789340233001</v>
       </c>
       <c r="E3" t="n">
-        <v>462.251978190267</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="F3" t="n">
-        <v>462.251978190267</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="G3" t="n">
-        <v>462.251978190267</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="H3" t="n">
-        <v>462.251978190267</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="I3" t="n">
-        <v>462.251978190267</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="J3" t="n">
-        <v>462.251978190267</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="K3" t="n">
-        <v>462.251978190267</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="L3" t="n">
-        <v>462.251978190267</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="M3" t="n">
-        <v>462.251978190267</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="N3" t="n">
-        <v>462.251978190267</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="O3" t="n">
-        <v>462.251978190267</v>
+        <v>467.7385320533874</v>
       </c>
       <c r="P3" t="n">
-        <v>462.251978190267</v>
+        <v>467.7385320533874</v>
       </c>
     </row>
     <row r="4">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>350.6510585135856</v>
+        <v>343.3658057592666</v>
       </c>
       <c r="C3" t="n">
-        <v>21.69401979374578</v>
+        <v>7.285252754319117</v>
       </c>
       <c r="D3" t="n">
-        <v>9.069645749461017</v>
+        <v>20.13828171941542</v>
       </c>
       <c r="E3" t="n">
-        <v>80.83725413347459</v>
+        <v>96.94919182038633</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.409652496537027</v>
+        <v>1.380365048278458</v>
       </c>
       <c r="H2" t="n">
-        <v>14.43660363015983</v>
+        <v>14.13666355068176</v>
       </c>
       <c r="I2" t="n">
-        <v>54.34562787274376</v>
+        <v>53.21652352375528</v>
       </c>
       <c r="J2" t="n">
-        <v>119.6424935779595</v>
+        <v>117.1567580163238</v>
       </c>
       <c r="K2" t="n">
-        <v>179.3130837563719</v>
+        <v>175.587610509951</v>
       </c>
       <c r="L2" t="n">
-        <v>222.453736347267</v>
+        <v>217.8319573562029</v>
       </c>
       <c r="M2" t="n">
-        <v>247.5226439325573</v>
+        <v>242.3800242835249</v>
       </c>
       <c r="N2" t="n">
-        <v>251.5278190883432</v>
+        <v>246.301986476946</v>
       </c>
       <c r="O2" t="n">
-        <v>237.5105870759031</v>
+        <v>232.5759815281271</v>
       </c>
       <c r="P2" t="n">
-        <v>202.7097910676452</v>
+        <v>198.4982193987527</v>
       </c>
       <c r="Q2" t="n">
-        <v>152.2266110354129</v>
+        <v>149.0638961072804</v>
       </c>
       <c r="R2" t="n">
-        <v>88.54908363559406</v>
+        <v>86.70935596392172</v>
       </c>
       <c r="S2" t="n">
-        <v>32.12245626483752</v>
+        <v>31.45506853764538</v>
       </c>
       <c r="T2" t="n">
-        <v>6.170753803590836</v>
+        <v>6.04254799883895</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1127721997229621</v>
+        <v>0.1104292038622766</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7542305786895992</v>
+        <v>0.7385604123878564</v>
       </c>
       <c r="H3" t="n">
-        <v>7.284279536291656</v>
+        <v>7.132938719640613</v>
       </c>
       <c r="I3" t="n">
-        <v>25.96802650312875</v>
+        <v>25.42850542651172</v>
       </c>
       <c r="J3" t="n">
-        <v>71.25824954189763</v>
+        <v>69.77776247038078</v>
       </c>
       <c r="K3" t="n">
-        <v>121.7916983141008</v>
+        <v>119.2613101003672</v>
       </c>
       <c r="L3" t="n">
-        <v>163.7639684124062</v>
+        <v>160.3615491897405</v>
       </c>
       <c r="M3" t="n">
-        <v>191.1048268899041</v>
+        <v>187.1343641388002</v>
       </c>
       <c r="N3" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O3" t="n">
-        <v>179.4506412376083</v>
+        <v>175.7223100473861</v>
       </c>
       <c r="P3" t="n">
-        <v>144.0249602411744</v>
+        <v>141.0326457655372</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.27687176395656</v>
+        <v>94.276588781299</v>
       </c>
       <c r="R3" t="n">
-        <v>46.82845645583321</v>
+        <v>45.85553156913376</v>
       </c>
       <c r="S3" t="n">
-        <v>14.00950219627391</v>
+        <v>13.71843573009899</v>
       </c>
       <c r="T3" t="n">
-        <v>3.040078516735708</v>
+        <v>2.976916749931753</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04962043280852629</v>
+        <v>0.04858950081499057</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6323215809261379</v>
+        <v>0.6191842398937593</v>
       </c>
       <c r="H4" t="n">
-        <v>5.621913692234211</v>
+        <v>5.505110787419063</v>
       </c>
       <c r="I4" t="n">
-        <v>19.0156344518515</v>
+        <v>18.62055877789597</v>
       </c>
       <c r="J4" t="n">
-        <v>44.70513577147795</v>
+        <v>43.77632576048878</v>
       </c>
       <c r="K4" t="n">
-        <v>73.46427094760037</v>
+        <v>71.93795078038401</v>
       </c>
       <c r="L4" t="n">
-        <v>94.00897394969145</v>
+        <v>92.05580962929582</v>
       </c>
       <c r="M4" t="n">
-        <v>99.11928199917631</v>
+        <v>97.05994407716445</v>
       </c>
       <c r="N4" t="n">
-        <v>96.76244701572442</v>
+        <v>94.75207554665143</v>
       </c>
       <c r="O4" t="n">
-        <v>89.37578127490541</v>
+        <v>87.51887783516521</v>
       </c>
       <c r="P4" t="n">
-        <v>76.47642102401214</v>
+        <v>74.88751934133246</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.94830983555142</v>
+        <v>51.84823666964925</v>
       </c>
       <c r="R4" t="n">
-        <v>28.43147762964252</v>
+        <v>27.84077500467757</v>
       </c>
       <c r="S4" t="n">
-        <v>11.01964064214005</v>
+        <v>10.7906926170576</v>
       </c>
       <c r="T4" t="n">
-        <v>2.701737663957134</v>
+        <v>2.645605388636971</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03449026805051665</v>
+        <v>0.03377368581238691</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.496864636411381</v>
+        <v>1.409652496537027</v>
       </c>
       <c r="H5" t="n">
-        <v>15.32976495764806</v>
+        <v>14.43660363015983</v>
       </c>
       <c r="I5" t="n">
-        <v>57.70787389524983</v>
+        <v>54.34562787274376</v>
       </c>
       <c r="J5" t="n">
-        <v>127.0445149346206</v>
+        <v>119.6424935779595</v>
       </c>
       <c r="K5" t="n">
-        <v>190.4067949939144</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2164661104893</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M5" t="n">
-        <v>262.8363325882701</v>
+        <v>247.5226439325573</v>
       </c>
       <c r="N5" t="n">
-        <v>267.089299236474</v>
+        <v>251.5278190883432</v>
       </c>
       <c r="O5" t="n">
-        <v>252.2048515081583</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P5" t="n">
-        <v>215.2510057967523</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q5" t="n">
-        <v>161.6445410052697</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R5" t="n">
-        <v>94.02742321697652</v>
+        <v>88.54908363559406</v>
       </c>
       <c r="S5" t="n">
-        <v>34.10980290222439</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T5" t="n">
-        <v>6.552524945890824</v>
+        <v>6.170753803590836</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1197491709129105</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8008931873025619</v>
+        <v>0.7542305786895992</v>
       </c>
       <c r="H6" t="n">
-        <v>7.734942098422112</v>
+        <v>7.284279536291656</v>
       </c>
       <c r="I6" t="n">
-        <v>27.57461193125049</v>
+        <v>25.96802650312875</v>
       </c>
       <c r="J6" t="n">
-        <v>75.66684275300214</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K6" t="n">
-        <v>129.3266863022738</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L6" t="n">
-        <v>173.8956896377778</v>
+        <v>163.7639684124062</v>
       </c>
       <c r="M6" t="n">
-        <v>202.9280676774956</v>
+        <v>191.1048268899041</v>
       </c>
       <c r="N6" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O6" t="n">
-        <v>190.5528628579038</v>
+        <v>179.4506412376083</v>
       </c>
       <c r="P6" t="n">
-        <v>152.9354718806094</v>
+        <v>144.0249602411744</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.2333128212884</v>
+        <v>96.27687176395656</v>
       </c>
       <c r="R6" t="n">
-        <v>49.72563140111873</v>
+        <v>46.82845645583321</v>
       </c>
       <c r="S6" t="n">
-        <v>14.87623968520328</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T6" t="n">
-        <v>3.228161575136202</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05269034126990541</v>
+        <v>0.04962043280852629</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6714419444886303</v>
+        <v>0.6323215809261379</v>
       </c>
       <c r="H7" t="n">
-        <v>5.969729288271644</v>
+        <v>5.621913692234211</v>
       </c>
       <c r="I7" t="n">
-        <v>20.19209047607627</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J7" t="n">
-        <v>47.47094547534616</v>
+        <v>44.70513577147795</v>
       </c>
       <c r="K7" t="n">
-        <v>78.00934591422448</v>
+        <v>73.46427094760037</v>
       </c>
       <c r="L7" t="n">
-        <v>99.82510509242783</v>
+        <v>94.00897394969145</v>
       </c>
       <c r="M7" t="n">
-        <v>105.2515768074314</v>
+        <v>99.11928199917631</v>
       </c>
       <c r="N7" t="n">
-        <v>102.748929559792</v>
+        <v>96.76244701572442</v>
       </c>
       <c r="O7" t="n">
-        <v>94.90526684462934</v>
+        <v>89.37578127490541</v>
       </c>
       <c r="P7" t="n">
-        <v>81.20785117706122</v>
+        <v>76.47642102401214</v>
       </c>
       <c r="Q7" t="n">
-        <v>56.22410682440704</v>
+        <v>52.94830983555142</v>
       </c>
       <c r="R7" t="n">
-        <v>30.19047143127968</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S7" t="n">
-        <v>11.70140188713367</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T7" t="n">
-        <v>2.868888308269602</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03662410606301624</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.5333255238464</v>
+        <v>1.490610412996988</v>
       </c>
       <c r="H8" t="n">
-        <v>15.70317002109195</v>
+        <v>15.26571389210541</v>
       </c>
       <c r="I8" t="n">
-        <v>59.11353225808841</v>
+        <v>57.46675794706643</v>
       </c>
       <c r="J8" t="n">
-        <v>130.1390871795585</v>
+        <v>126.5136955401032</v>
       </c>
       <c r="K8" t="n">
-        <v>195.0447566039767</v>
+        <v>189.6112343222658</v>
       </c>
       <c r="L8" t="n">
-        <v>241.970267604391</v>
+        <v>235.2295027490224</v>
       </c>
       <c r="M8" t="n">
-        <v>269.2385453890944</v>
+        <v>261.7381456811576</v>
       </c>
       <c r="N8" t="n">
-        <v>273.5951065337231</v>
+        <v>265.9733425170853</v>
       </c>
       <c r="O8" t="n">
-        <v>258.3481008559754</v>
+        <v>251.1510852228465</v>
       </c>
       <c r="P8" t="n">
-        <v>220.4941269860173</v>
+        <v>214.3516406519833</v>
       </c>
       <c r="Q8" t="n">
-        <v>165.5819066632681</v>
+        <v>160.9691552365286</v>
       </c>
       <c r="R8" t="n">
-        <v>96.31775943731652</v>
+        <v>93.63455635542213</v>
       </c>
       <c r="S8" t="n">
-        <v>34.94065537464989</v>
+        <v>33.9672847861689</v>
       </c>
       <c r="T8" t="n">
-        <v>6.712132480637621</v>
+        <v>6.525147082894319</v>
       </c>
       <c r="U8" t="n">
-        <v>0.122666041907712</v>
+        <v>0.119248833039759</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8204014819334779</v>
+        <v>0.797546882765323</v>
       </c>
       <c r="H9" t="n">
-        <v>7.923351154462802</v>
+        <v>7.702623841444042</v>
       </c>
       <c r="I9" t="n">
-        <v>28.2462790928851</v>
+        <v>27.45939925310433</v>
       </c>
       <c r="J9" t="n">
-        <v>77.50994878214496</v>
+        <v>75.3506903581045</v>
       </c>
       <c r="K9" t="n">
-        <v>132.476848071688</v>
+        <v>128.7863315033811</v>
       </c>
       <c r="L9" t="n">
-        <v>178.1314708908633</v>
+        <v>173.1691159267426</v>
       </c>
       <c r="M9" t="n">
-        <v>207.8710246109518</v>
+        <v>202.0801904269856</v>
       </c>
       <c r="N9" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O9" t="n">
-        <v>195.1943824142341</v>
+        <v>189.7566918832038</v>
       </c>
       <c r="P9" t="n">
-        <v>156.6607005281569</v>
+        <v>152.2964744817396</v>
       </c>
       <c r="Q9" t="n">
-        <v>104.7235295183857</v>
+        <v>101.8061599824647</v>
       </c>
       <c r="R9" t="n">
-        <v>50.93685692215052</v>
+        <v>49.5178669843242</v>
       </c>
       <c r="S9" t="n">
-        <v>15.23859770170297</v>
+        <v>14.81408354610149</v>
       </c>
       <c r="T9" t="n">
-        <v>3.306793692530114</v>
+        <v>3.214673619567244</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.05247018965561338</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6877970433811009</v>
+        <v>0.6686365151742641</v>
       </c>
       <c r="H10" t="n">
-        <v>6.115140985697429</v>
+        <v>5.944786471276643</v>
       </c>
       <c r="I10" t="n">
-        <v>20.68393290458802</v>
+        <v>20.10772356542242</v>
       </c>
       <c r="J10" t="n">
-        <v>48.62725096704384</v>
+        <v>47.27260162282047</v>
       </c>
       <c r="K10" t="n">
-        <v>79.90951104009515</v>
+        <v>77.68340603570086</v>
       </c>
       <c r="L10" t="n">
-        <v>102.2566622495866</v>
+        <v>99.40801426509016</v>
       </c>
       <c r="M10" t="n">
-        <v>107.8153129001847</v>
+        <v>104.811813010453</v>
       </c>
       <c r="N10" t="n">
-        <v>105.2517057384916</v>
+        <v>102.3196223629854</v>
       </c>
       <c r="O10" t="n">
-        <v>97.21698573172148</v>
+        <v>94.50873216299512</v>
       </c>
       <c r="P10" t="n">
-        <v>83.18592604674694</v>
+        <v>80.86854725344006</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.59362333257565</v>
+        <v>55.98919037518316</v>
       </c>
       <c r="R10" t="n">
-        <v>30.92585615057204</v>
+        <v>30.06432912774463</v>
       </c>
       <c r="S10" t="n">
-        <v>11.98642665601427</v>
+        <v>11.65251090535513</v>
       </c>
       <c r="T10" t="n">
-        <v>2.938769185355612</v>
+        <v>2.8569014739264</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03751620236624191</v>
+        <v>0.03647108264586899</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.858299409810117</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H11" t="n">
-        <v>19.03130883071787</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I11" t="n">
-        <v>71.6420879967046</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J11" t="n">
-        <v>157.7208395333716</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K11" t="n">
-        <v>236.3826535506339</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L11" t="n">
-        <v>293.2535841136103</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M11" t="n">
-        <v>326.301116242821</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N11" t="n">
-        <v>331.581009440944</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O11" t="n">
-        <v>313.1025446846446</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P11" t="n">
-        <v>267.2257780049573</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q11" t="n">
-        <v>200.6754303911324</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R11" t="n">
-        <v>116.7314003014849</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S11" t="n">
-        <v>42.34599780104809</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T11" t="n">
-        <v>8.134705666443791</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1486639527848093</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9942778398809516</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H12" t="n">
-        <v>9.602630716744981</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I12" t="n">
-        <v>34.23281159239242</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J12" t="n">
-        <v>93.93745153015607</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K12" t="n">
-        <v>160.5540668021798</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L12" t="n">
         <v>202.635780428066</v>
@@ -31856,22 +31858,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P12" t="n">
-        <v>189.863458740074</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q12" t="n">
-        <v>126.9186940872597</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R12" t="n">
-        <v>61.73244342699455</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S12" t="n">
-        <v>18.46827478901679</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T12" t="n">
-        <v>4.007637433555238</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06541301578164158</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8335691409988421</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H13" t="n">
-        <v>7.411187453607892</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I13" t="n">
-        <v>25.06769744021973</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J13" t="n">
-        <v>58.93333826861813</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K13" t="n">
-        <v>96.84557838150181</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L13" t="n">
-        <v>123.9289975626824</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M13" t="n">
-        <v>130.6657518022094</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N13" t="n">
-        <v>127.5588122766683</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O13" t="n">
-        <v>117.8212091295455</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P13" t="n">
-        <v>100.816398653169</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.80004870673031</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R13" t="n">
-        <v>37.48029973982065</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S13" t="n">
-        <v>14.52683675722527</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T13" t="n">
-        <v>3.561613602449597</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04546740769084598</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.858299409810117</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H14" t="n">
-        <v>19.03130883071787</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I14" t="n">
-        <v>71.6420879967046</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J14" t="n">
-        <v>157.7208395333716</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K14" t="n">
-        <v>236.3826535506339</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L14" t="n">
-        <v>293.2535841136103</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M14" t="n">
-        <v>326.301116242821</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N14" t="n">
-        <v>331.581009440944</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O14" t="n">
-        <v>313.1025446846446</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P14" t="n">
-        <v>267.2257780049573</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q14" t="n">
-        <v>200.6754303911324</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R14" t="n">
-        <v>116.7314003014849</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S14" t="n">
-        <v>42.34599780104809</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T14" t="n">
-        <v>8.134705666443791</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1486639527848093</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9942778398809516</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H15" t="n">
-        <v>9.602630716744981</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I15" t="n">
-        <v>34.23281159239242</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J15" t="n">
-        <v>93.93745153015607</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K15" t="n">
-        <v>160.5540668021798</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L15" t="n">
         <v>202.635780428066</v>
@@ -32093,22 +32095,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P15" t="n">
-        <v>189.863458740074</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q15" t="n">
-        <v>126.9186940872597</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R15" t="n">
-        <v>61.73244342699455</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S15" t="n">
-        <v>18.46827478901679</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T15" t="n">
-        <v>4.007637433555238</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06541301578164158</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8335691409988421</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H16" t="n">
-        <v>7.411187453607892</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I16" t="n">
-        <v>25.06769744021973</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J16" t="n">
-        <v>58.93333826861813</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K16" t="n">
-        <v>96.84557838150181</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L16" t="n">
-        <v>123.9289975626824</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M16" t="n">
-        <v>130.6657518022094</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N16" t="n">
-        <v>127.5588122766683</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O16" t="n">
-        <v>117.8212091295455</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P16" t="n">
-        <v>100.816398653169</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.80004870673031</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R16" t="n">
-        <v>37.48029973982065</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S16" t="n">
-        <v>14.52683675722527</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T16" t="n">
-        <v>3.561613602449597</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04546740769084598</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.858299409810117</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H17" t="n">
-        <v>19.03130883071787</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I17" t="n">
-        <v>71.6420879967046</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J17" t="n">
-        <v>157.7208395333716</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K17" t="n">
-        <v>236.3826535506339</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L17" t="n">
-        <v>293.2535841136103</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M17" t="n">
-        <v>326.301116242821</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N17" t="n">
-        <v>331.581009440944</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O17" t="n">
-        <v>313.1025446846446</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P17" t="n">
-        <v>267.2257780049573</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q17" t="n">
-        <v>200.6754303911324</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R17" t="n">
-        <v>116.7314003014849</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S17" t="n">
-        <v>42.34599780104809</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T17" t="n">
-        <v>8.134705666443791</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1486639527848093</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9942778398809516</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H18" t="n">
-        <v>9.602630716744981</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I18" t="n">
-        <v>34.23281159239242</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J18" t="n">
-        <v>93.93745153015607</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K18" t="n">
-        <v>160.5540668021798</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L18" t="n">
         <v>202.635780428066</v>
@@ -32330,22 +32332,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P18" t="n">
-        <v>189.863458740074</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q18" t="n">
-        <v>126.9186940872597</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R18" t="n">
-        <v>61.73244342699455</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S18" t="n">
-        <v>18.46827478901679</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T18" t="n">
-        <v>4.007637433555238</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06541301578164158</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8335691409988421</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H19" t="n">
-        <v>7.411187453607892</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I19" t="n">
-        <v>25.06769744021973</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J19" t="n">
-        <v>58.93333826861813</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K19" t="n">
-        <v>96.84557838150181</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L19" t="n">
-        <v>123.9289975626824</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M19" t="n">
-        <v>130.6657518022094</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N19" t="n">
-        <v>127.5588122766683</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O19" t="n">
-        <v>117.8212091295455</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P19" t="n">
-        <v>100.816398653169</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.80004870673031</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R19" t="n">
-        <v>37.48029973982065</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S19" t="n">
-        <v>14.52683675722527</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T19" t="n">
-        <v>3.561613602449597</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04546740769084598</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.858299409810117</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H20" t="n">
-        <v>19.03130883071787</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I20" t="n">
-        <v>71.6420879967046</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J20" t="n">
-        <v>157.7208395333716</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K20" t="n">
-        <v>236.3826535506339</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L20" t="n">
-        <v>293.2535841136103</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M20" t="n">
-        <v>326.301116242821</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N20" t="n">
-        <v>331.581009440944</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O20" t="n">
-        <v>313.1025446846446</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P20" t="n">
-        <v>267.2257780049573</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q20" t="n">
-        <v>200.6754303911324</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R20" t="n">
-        <v>116.7314003014849</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S20" t="n">
-        <v>42.34599780104809</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T20" t="n">
-        <v>8.134705666443791</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1486639527848093</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9942778398809516</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H21" t="n">
-        <v>9.602630716744981</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I21" t="n">
-        <v>34.23281159239242</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J21" t="n">
-        <v>93.93745153015607</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K21" t="n">
-        <v>160.5540668021798</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L21" t="n">
         <v>202.635780428066</v>
@@ -32567,22 +32569,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P21" t="n">
-        <v>189.863458740074</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q21" t="n">
-        <v>126.9186940872597</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R21" t="n">
-        <v>61.73244342699455</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S21" t="n">
-        <v>18.46827478901679</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T21" t="n">
-        <v>4.007637433555238</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06541301578164158</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8335691409988421</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H22" t="n">
-        <v>7.411187453607892</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I22" t="n">
-        <v>25.06769744021973</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J22" t="n">
-        <v>58.93333826861813</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K22" t="n">
-        <v>96.84557838150181</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L22" t="n">
-        <v>123.9289975626824</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M22" t="n">
-        <v>130.6657518022094</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N22" t="n">
-        <v>127.5588122766683</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O22" t="n">
-        <v>117.8212091295455</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P22" t="n">
-        <v>100.816398653169</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.80004870673031</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R22" t="n">
-        <v>37.48029973982065</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S22" t="n">
-        <v>14.52683675722527</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T22" t="n">
-        <v>3.561613602449597</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04546740769084598</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.858299409810117</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H23" t="n">
-        <v>19.03130883071787</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I23" t="n">
-        <v>71.6420879967046</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J23" t="n">
-        <v>157.7208395333716</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K23" t="n">
-        <v>236.3826535506339</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L23" t="n">
-        <v>293.2535841136103</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M23" t="n">
-        <v>326.301116242821</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N23" t="n">
-        <v>331.581009440944</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O23" t="n">
-        <v>313.1025446846446</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P23" t="n">
-        <v>267.2257780049573</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q23" t="n">
-        <v>200.6754303911324</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R23" t="n">
-        <v>116.7314003014849</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S23" t="n">
-        <v>42.34599780104809</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T23" t="n">
-        <v>8.134705666443791</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1486639527848093</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9942778398809516</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H24" t="n">
-        <v>9.602630716744981</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I24" t="n">
-        <v>34.23281159239242</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J24" t="n">
-        <v>93.93745153015607</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K24" t="n">
-        <v>160.5540668021798</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L24" t="n">
         <v>202.635780428066</v>
@@ -32804,22 +32806,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P24" t="n">
-        <v>189.863458740074</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q24" t="n">
-        <v>126.9186940872597</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R24" t="n">
-        <v>61.73244342699455</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S24" t="n">
-        <v>18.46827478901679</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T24" t="n">
-        <v>4.007637433555238</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06541301578164158</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8335691409988421</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H25" t="n">
-        <v>7.411187453607892</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I25" t="n">
-        <v>25.06769744021973</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J25" t="n">
-        <v>58.93333826861813</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K25" t="n">
-        <v>96.84557838150181</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L25" t="n">
-        <v>123.9289975626824</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M25" t="n">
-        <v>130.6657518022094</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N25" t="n">
-        <v>127.5588122766683</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O25" t="n">
-        <v>117.8212091295455</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P25" t="n">
-        <v>100.816398653169</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.80004870673031</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R25" t="n">
-        <v>37.48029973982065</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S25" t="n">
-        <v>14.52683675722527</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T25" t="n">
-        <v>3.561613602449597</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04546740769084598</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.858299409810117</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H26" t="n">
-        <v>19.03130883071787</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I26" t="n">
-        <v>71.6420879967046</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J26" t="n">
-        <v>157.7208395333716</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K26" t="n">
-        <v>236.3826535506339</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L26" t="n">
-        <v>293.2535841136103</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M26" t="n">
-        <v>326.301116242821</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N26" t="n">
-        <v>331.581009440944</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O26" t="n">
-        <v>313.1025446846446</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P26" t="n">
-        <v>267.2257780049573</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q26" t="n">
-        <v>200.6754303911324</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R26" t="n">
-        <v>116.7314003014849</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S26" t="n">
-        <v>42.34599780104809</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T26" t="n">
-        <v>8.134705666443791</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1486639527848093</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9942778398809516</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H27" t="n">
-        <v>9.602630716744981</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I27" t="n">
-        <v>34.23281159239242</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J27" t="n">
-        <v>93.93745153015607</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K27" t="n">
-        <v>160.5540668021798</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L27" t="n">
         <v>202.635780428066</v>
@@ -33041,22 +33043,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P27" t="n">
-        <v>189.863458740074</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q27" t="n">
-        <v>126.9186940872597</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R27" t="n">
-        <v>61.73244342699455</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S27" t="n">
-        <v>18.46827478901679</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T27" t="n">
-        <v>4.007637433555238</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06541301578164158</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8335691409988421</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H28" t="n">
-        <v>7.411187453607892</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I28" t="n">
-        <v>25.06769744021973</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J28" t="n">
-        <v>58.93333826861813</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K28" t="n">
-        <v>96.84557838150181</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L28" t="n">
-        <v>123.9289975626824</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M28" t="n">
-        <v>130.6657518022094</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N28" t="n">
-        <v>127.5588122766683</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O28" t="n">
-        <v>117.8212091295455</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P28" t="n">
-        <v>100.816398653169</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.80004870673031</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R28" t="n">
-        <v>37.48029973982065</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S28" t="n">
-        <v>14.52683675722527</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T28" t="n">
-        <v>3.561613602449597</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04546740769084598</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.858299409810117</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H29" t="n">
-        <v>19.03130883071787</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I29" t="n">
-        <v>71.6420879967046</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J29" t="n">
-        <v>157.7208395333716</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K29" t="n">
-        <v>236.3826535506339</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L29" t="n">
-        <v>293.2535841136103</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M29" t="n">
-        <v>326.301116242821</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N29" t="n">
-        <v>331.581009440944</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O29" t="n">
-        <v>313.1025446846446</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P29" t="n">
-        <v>267.2257780049573</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q29" t="n">
-        <v>200.6754303911324</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R29" t="n">
-        <v>116.7314003014849</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S29" t="n">
-        <v>42.34599780104809</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T29" t="n">
-        <v>8.134705666443791</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1486639527848093</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9942778398809516</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H30" t="n">
-        <v>9.602630716744981</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I30" t="n">
-        <v>34.23281159239242</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J30" t="n">
-        <v>93.93745153015607</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K30" t="n">
-        <v>160.5540668021798</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L30" t="n">
         <v>202.635780428066</v>
@@ -33278,22 +33280,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P30" t="n">
-        <v>189.863458740074</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q30" t="n">
-        <v>126.9186940872597</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R30" t="n">
-        <v>61.73244342699455</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S30" t="n">
-        <v>18.46827478901679</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T30" t="n">
-        <v>4.007637433555238</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06541301578164158</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8335691409988421</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H31" t="n">
-        <v>7.411187453607892</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I31" t="n">
-        <v>25.06769744021973</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J31" t="n">
-        <v>58.93333826861813</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K31" t="n">
-        <v>96.84557838150181</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L31" t="n">
-        <v>123.9289975626824</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M31" t="n">
-        <v>130.6657518022094</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N31" t="n">
-        <v>127.5588122766683</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O31" t="n">
-        <v>117.8212091295455</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P31" t="n">
-        <v>100.816398653169</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q31" t="n">
-        <v>69.80004870673031</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R31" t="n">
-        <v>37.48029973982065</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S31" t="n">
-        <v>14.52683675722527</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T31" t="n">
-        <v>3.561613602449597</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04546740769084598</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.858299409810117</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H32" t="n">
-        <v>19.03130883071787</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I32" t="n">
-        <v>71.6420879967046</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J32" t="n">
-        <v>157.7208395333716</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K32" t="n">
-        <v>236.3826535506339</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L32" t="n">
-        <v>293.2535841136103</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M32" t="n">
-        <v>326.301116242821</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N32" t="n">
-        <v>331.581009440944</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O32" t="n">
-        <v>313.1025446846446</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P32" t="n">
-        <v>267.2257780049573</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q32" t="n">
-        <v>200.6754303911324</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R32" t="n">
-        <v>116.7314003014849</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S32" t="n">
-        <v>42.34599780104809</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T32" t="n">
-        <v>8.134705666443791</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1486639527848093</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9942778398809516</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H33" t="n">
-        <v>9.602630716744981</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I33" t="n">
-        <v>34.23281159239242</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J33" t="n">
-        <v>93.93745153015607</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K33" t="n">
-        <v>160.5540668021798</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L33" t="n">
         <v>202.635780428066</v>
@@ -33515,22 +33517,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P33" t="n">
-        <v>189.863458740074</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q33" t="n">
-        <v>126.9186940872597</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R33" t="n">
-        <v>61.73244342699455</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S33" t="n">
-        <v>18.46827478901679</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T33" t="n">
-        <v>4.007637433555238</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06541301578164158</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8335691409988421</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H34" t="n">
-        <v>7.411187453607892</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I34" t="n">
-        <v>25.06769744021973</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J34" t="n">
-        <v>58.93333826861813</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K34" t="n">
-        <v>96.84557838150181</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L34" t="n">
-        <v>123.9289975626824</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M34" t="n">
-        <v>130.6657518022094</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N34" t="n">
-        <v>127.5588122766683</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O34" t="n">
-        <v>117.8212091295455</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P34" t="n">
-        <v>100.816398653169</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.80004870673031</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R34" t="n">
-        <v>37.48029973982065</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S34" t="n">
-        <v>14.52683675722527</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T34" t="n">
-        <v>3.561613602449597</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04546740769084598</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.858299409810117</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H35" t="n">
-        <v>19.03130883071787</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I35" t="n">
-        <v>71.6420879967046</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J35" t="n">
-        <v>157.7208395333716</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K35" t="n">
-        <v>236.3826535506339</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L35" t="n">
-        <v>293.2535841136103</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M35" t="n">
-        <v>326.301116242821</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N35" t="n">
-        <v>331.581009440944</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O35" t="n">
-        <v>313.1025446846446</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P35" t="n">
-        <v>267.2257780049573</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q35" t="n">
-        <v>200.6754303911324</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R35" t="n">
-        <v>116.7314003014849</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S35" t="n">
-        <v>42.34599780104809</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T35" t="n">
-        <v>8.134705666443791</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1486639527848093</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9942778398809516</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H36" t="n">
-        <v>9.602630716744981</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I36" t="n">
-        <v>34.23281159239242</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J36" t="n">
-        <v>93.93745153015607</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K36" t="n">
-        <v>160.5540668021798</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L36" t="n">
         <v>202.635780428066</v>
@@ -33752,22 +33754,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P36" t="n">
-        <v>189.863458740074</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q36" t="n">
-        <v>126.9186940872597</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R36" t="n">
-        <v>61.73244342699455</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S36" t="n">
-        <v>18.46827478901679</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T36" t="n">
-        <v>4.007637433555238</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06541301578164158</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8335691409988421</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H37" t="n">
-        <v>7.411187453607892</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I37" t="n">
-        <v>25.06769744021973</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J37" t="n">
-        <v>58.93333826861813</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K37" t="n">
-        <v>96.84557838150181</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L37" t="n">
-        <v>123.9289975626824</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M37" t="n">
-        <v>130.6657518022094</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N37" t="n">
-        <v>127.5588122766683</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O37" t="n">
-        <v>117.8212091295455</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P37" t="n">
-        <v>100.816398653169</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q37" t="n">
-        <v>69.80004870673031</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R37" t="n">
-        <v>37.48029973982065</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S37" t="n">
-        <v>14.52683675722527</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T37" t="n">
-        <v>3.561613602449597</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04546740769084598</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.858299409810117</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H38" t="n">
-        <v>19.03130883071787</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I38" t="n">
-        <v>71.6420879967046</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J38" t="n">
-        <v>157.7208395333716</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K38" t="n">
-        <v>236.3826535506339</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L38" t="n">
-        <v>293.2535841136103</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M38" t="n">
-        <v>326.301116242821</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N38" t="n">
-        <v>331.581009440944</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O38" t="n">
-        <v>313.1025446846446</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P38" t="n">
-        <v>267.2257780049573</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q38" t="n">
-        <v>200.6754303911324</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R38" t="n">
-        <v>116.7314003014849</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S38" t="n">
-        <v>42.34599780104809</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T38" t="n">
-        <v>8.134705666443791</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1486639527848093</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9942778398809516</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H39" t="n">
-        <v>9.602630716744981</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I39" t="n">
-        <v>34.23281159239242</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J39" t="n">
-        <v>93.93745153015607</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K39" t="n">
-        <v>160.5540668021798</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L39" t="n">
         <v>202.635780428066</v>
@@ -33989,22 +33991,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P39" t="n">
-        <v>189.863458740074</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q39" t="n">
-        <v>126.9186940872597</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R39" t="n">
-        <v>61.73244342699455</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S39" t="n">
-        <v>18.46827478901679</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T39" t="n">
-        <v>4.007637433555238</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06541301578164158</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8335691409988421</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H40" t="n">
-        <v>7.411187453607892</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I40" t="n">
-        <v>25.06769744021973</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J40" t="n">
-        <v>58.93333826861813</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K40" t="n">
-        <v>96.84557838150181</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L40" t="n">
-        <v>123.9289975626824</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M40" t="n">
-        <v>130.6657518022094</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N40" t="n">
-        <v>127.5588122766683</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O40" t="n">
-        <v>117.8212091295455</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P40" t="n">
-        <v>100.816398653169</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q40" t="n">
-        <v>69.80004870673031</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R40" t="n">
-        <v>37.48029973982065</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S40" t="n">
-        <v>14.52683675722527</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T40" t="n">
-        <v>3.561613602449597</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04546740769084598</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.858299409810117</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H41" t="n">
-        <v>19.03130883071787</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I41" t="n">
-        <v>71.6420879967046</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J41" t="n">
-        <v>157.7208395333716</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K41" t="n">
-        <v>236.3826535506339</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L41" t="n">
-        <v>293.2535841136103</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M41" t="n">
-        <v>326.301116242821</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N41" t="n">
-        <v>331.581009440944</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O41" t="n">
-        <v>313.1025446846446</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P41" t="n">
-        <v>267.2257780049573</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q41" t="n">
-        <v>200.6754303911324</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R41" t="n">
-        <v>116.7314003014849</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S41" t="n">
-        <v>42.34599780104809</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T41" t="n">
-        <v>8.134705666443791</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1486639527848093</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9942778398809516</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H42" t="n">
-        <v>9.602630716744981</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I42" t="n">
-        <v>34.23281159239242</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J42" t="n">
-        <v>93.93745153015607</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K42" t="n">
-        <v>160.5540668021798</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L42" t="n">
         <v>202.635780428066</v>
@@ -34226,22 +34228,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P42" t="n">
-        <v>189.863458740074</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q42" t="n">
-        <v>126.9186940872597</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R42" t="n">
-        <v>61.73244342699455</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S42" t="n">
-        <v>18.46827478901679</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T42" t="n">
-        <v>4.007637433555238</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06541301578164158</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8335691409988421</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H43" t="n">
-        <v>7.411187453607892</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I43" t="n">
-        <v>25.06769744021973</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J43" t="n">
-        <v>58.93333826861813</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K43" t="n">
-        <v>96.84557838150181</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L43" t="n">
-        <v>123.9289975626824</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M43" t="n">
-        <v>130.6657518022094</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N43" t="n">
-        <v>127.5588122766683</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O43" t="n">
-        <v>117.8212091295455</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P43" t="n">
-        <v>100.816398653169</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q43" t="n">
-        <v>69.80004870673031</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R43" t="n">
-        <v>37.48029973982065</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S43" t="n">
-        <v>14.52683675722527</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T43" t="n">
-        <v>3.561613602449597</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04546740769084598</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.858299409810117</v>
+        <v>1.88035590775231</v>
       </c>
       <c r="H44" t="n">
-        <v>19.03130883071787</v>
+        <v>19.25719494026835</v>
       </c>
       <c r="I44" t="n">
-        <v>71.6420879967046</v>
+        <v>72.49242113362098</v>
       </c>
       <c r="J44" t="n">
-        <v>157.7208395333716</v>
+        <v>159.5928572255927</v>
       </c>
       <c r="K44" t="n">
-        <v>236.3826535506339</v>
+        <v>239.188322800748</v>
       </c>
       <c r="L44" t="n">
-        <v>293.2535841136103</v>
+        <v>296.7342649126228</v>
       </c>
       <c r="M44" t="n">
-        <v>326.301116242821</v>
+        <v>330.174044287113</v>
       </c>
       <c r="N44" t="n">
-        <v>331.581009440944</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O44" t="n">
-        <v>313.1025446846446</v>
+        <v>316.8188164523022</v>
       </c>
       <c r="P44" t="n">
-        <v>267.2257780049573</v>
+        <v>270.397529979667</v>
       </c>
       <c r="Q44" t="n">
-        <v>200.6754303911324</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R44" t="n">
-        <v>116.7314003014849</v>
+        <v>118.1169067903461</v>
       </c>
       <c r="S44" t="n">
-        <v>42.34599780104809</v>
+        <v>42.8486102479058</v>
       </c>
       <c r="T44" t="n">
-        <v>8.134705666443791</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1486639527848093</v>
+        <v>0.1504284726201847</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9942778398809516</v>
+        <v>1.006079106680871</v>
       </c>
       <c r="H45" t="n">
-        <v>9.602630716744981</v>
+        <v>9.716606109259992</v>
       </c>
       <c r="I45" t="n">
-        <v>34.23281159239242</v>
+        <v>34.63912713791596</v>
       </c>
       <c r="J45" t="n">
-        <v>93.93745153015607</v>
+        <v>95.05241244303791</v>
       </c>
       <c r="K45" t="n">
-        <v>160.5540668021798</v>
+        <v>162.4597125906563</v>
       </c>
       <c r="L45" t="n">
         <v>202.635780428066</v>
@@ -34463,22 +34465,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P45" t="n">
-        <v>189.863458740074</v>
+        <v>192.1169830994376</v>
       </c>
       <c r="Q45" t="n">
-        <v>126.9186940872597</v>
+        <v>128.425115442281</v>
       </c>
       <c r="R45" t="n">
-        <v>61.73244342699455</v>
+        <v>62.46515716743164</v>
       </c>
       <c r="S45" t="n">
-        <v>18.46827478901679</v>
+        <v>18.68747814383108</v>
       </c>
       <c r="T45" t="n">
-        <v>4.007637433555238</v>
+        <v>4.055204820349649</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06541301578164158</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8335691409988421</v>
+        <v>0.8434629266536492</v>
       </c>
       <c r="H46" t="n">
-        <v>7.411187453607892</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I46" t="n">
-        <v>25.06769744021973</v>
+        <v>25.36523055791157</v>
       </c>
       <c r="J46" t="n">
-        <v>58.93333826861813</v>
+        <v>59.632828914413</v>
       </c>
       <c r="K46" t="n">
-        <v>96.84557838150181</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L46" t="n">
-        <v>123.9289975626824</v>
+        <v>125.3999336590344</v>
       </c>
       <c r="M46" t="n">
-        <v>130.6657518022094</v>
+        <v>132.2166476753534</v>
       </c>
       <c r="N46" t="n">
-        <v>127.5588122766683</v>
+        <v>129.0728313123717</v>
       </c>
       <c r="O46" t="n">
-        <v>117.8212091295455</v>
+        <v>119.2196507600995</v>
       </c>
       <c r="P46" t="n">
-        <v>100.816398653169</v>
+        <v>102.013007056365</v>
       </c>
       <c r="Q46" t="n">
-        <v>69.80004870673031</v>
+        <v>70.62851834006149</v>
       </c>
       <c r="R46" t="n">
-        <v>37.48029973982065</v>
+        <v>37.92516032026317</v>
       </c>
       <c r="S46" t="n">
-        <v>14.52683675722527</v>
+        <v>14.69925845813677</v>
       </c>
       <c r="T46" t="n">
-        <v>3.561613602449597</v>
+        <v>3.60388705024741</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04546740769084598</v>
+        <v>0.04600706872656274</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_8_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_8_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>271007.1763900022</v>
+        <v>135611.425753733</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1781239.998976292</v>
+        <v>1766813.742108906</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24017305.13912855</v>
+        <v>23979880.64533448</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5141003.289675864</v>
+        <v>5154335.830581998</v>
       </c>
     </row>
     <row r="11">
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2.141413534016697</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>2.141413534016697</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2.141413534016697</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.886157040761906</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>2.141413534016697</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1982,13 +1982,13 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>2.141413534016697</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>2.141413534016697</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1.886157040761906</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2125,16 +2125,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.886157040761902</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2204,13 +2204,13 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1.886157040761902</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.772314081523808</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
     </row>
     <row r="24">
@@ -2453,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>3.772314081523808</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
     </row>
     <row r="25">
@@ -2557,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>3.772314081523808</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2684,19 +2684,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>3.77231408152381</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>3.77231408152381</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>3.77231408152381</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2915,16 +2915,16 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>3.77231408152381</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3128,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>3.77231408152381</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3310,13 +3310,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>3.77231408152381</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3389,16 +3389,16 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>3.772314081523808</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>3.772314081523808</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>3.772314081523808</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,10 +3638,10 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
     </row>
     <row r="40">
@@ -3784,16 +3784,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1.886157040761902</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1.886157040761902</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3866,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4033,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>1.886157040761902</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.886157040761902</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4100,16 +4100,16 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.334357056475575</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2.334357056475575</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>2.291312481397865</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>2.291312481397865</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>2.291312481397865</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>4.411311880074395</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>6.531311278750925</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>8.565654136066787</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>8.565654136066787</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>6.402610162312548</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>4.239566188558308</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>4.239566188558308</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>4.239566188558308</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>2.334357056475575</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.334357056475575</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>2.334357056475575</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>2.334357056475575</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>2.205655940037197</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>4.325655338713727</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>6.445654737390257</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>8.565654136066787</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>8.565654136066787</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>8.565654136066787</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>8.565654136066787</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>6.402610162312548</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>6.402610162312548</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>6.402610162312548</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>4.239566188558308</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>2.076522214804069</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>0.1713130827213357</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>2.291312481397861</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>4.411311880074386</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>6.445654737390244</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>8.565654136066769</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>8.565654136066769</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>8.565654136066769</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>6.660445003984039</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.497401030229804</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>2.33435705647557</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>2.205655940037194</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>4.32565533871372</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>6.445654737390244</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>8.565654136066769</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>8.565654136066769</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.660445003984039</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>4.497401030229804</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>2.33435705647557</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>2.33435705647557</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>2.33435705647557</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>2.33435705647557</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>4.668714112951145</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>4.668714112951145</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>4.668714112951145</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>4.668714112951145</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>3.422840165109882</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>4.411311880074392</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>8.651310677427446</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>12.8913094747805</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>12.80522032462508</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>12.80522032462508</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>12.80522032462508</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>12.80522032462508</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>8.994802060459619</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>8.994802060459619</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>8.994802060459619</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>8.994802060459619</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>4.668714112951145</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>4.582624962795726</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>8.82262376014878</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>12.8913094747805</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>13.32089000796809</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>8.994802060459619</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>8.994802060459619</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>4.668714112951145</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>13.32089000796809</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>8.994802060459619</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>4.668714112951145</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>4.668714112951145</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>4.411311880074392</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>8.651310677427446</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>12.8913094747805</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>4.582624962795726</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>8.82262376014878</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>13.06262255750183</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>12.80522032462508</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>12.80522032462508</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>8.47913237711661</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>4.668714112951145</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>4.582624962795726</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>8.82262376014878</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>13.06262255750183</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>12.80522032462508</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>8.47913237711661</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>8.47913237711661</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>4.668714112951145</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>4.153044429608136</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>4.582624962795726</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>8.82262376014878</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>13.06262255750183</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>12.80522032462508</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>12.80522032462508</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>8.47913237711661</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>4.153044429608136</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>4.153044429608136</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>4.153044429608136</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>4.153044429608136</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>4.153044429608136</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>4.153044429608136</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>8.47913237711661</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>8.47913237711661</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>8.47913237711661</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>8.47913237711661</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>4.153044429608136</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>3.422840165109882</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>4.411311880074392</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>8.651310677427446</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>12.8913094747805</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>12.80522032462508</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>8.47913237711661</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>8.47913237711661</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>8.47913237711661</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>8.47913237711661</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>8.47913237711661</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>8.47913237711661</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>8.47913237711661</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>8.47913237711661</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>8.47913237711661</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>8.47913237711661</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>8.47913237711661</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>8.47913237711661</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>4.153044429608136</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>4.582624962795726</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>8.82262376014878</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>12.8913094747805</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>12.80522032462508</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>12.80522032462508</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>12.80522032462508</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>8.47913237711661</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>8.47913237711661</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>8.47913237711661</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>8.47913237711661</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>8.47913237711661</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>8.47913237711661</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>4.411311880074392</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>8.651310677427446</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>12.8913094747805</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>12.80522032462508</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>8.47913237711661</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>4.153044429608136</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>4.153044429608136</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>4.153044429608136</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>4.153044429608136</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>4.411311880074392</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>8.651310677427446</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>12.8913094747805</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>13.32089000796809</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>8.994802060459619</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>4.668714112951145</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>12.80522032462508</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>12.80522032462508</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>12.80522032462508</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>8.994802060459619</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>4.668714112951145</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>4.668714112951145</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>4.411311880074392</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>8.651310677427446</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>12.8913094747805</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>4.411311880074392</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>8.651310677427446</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>12.8913094747805</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>17.13130827213356</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>13.32089000796809</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>13.32089000796809</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>13.32089000796809</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>8.994802060459619</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>4.668714112951145</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>4.668714112951145</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>4.668714112951145</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>0.3426261654426711</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>2.291312481397861</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>2.291312481397861</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>2.291312481397861</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>4.411311880074386</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>6.445654737390244</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>8.565654136066769</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>6.402610162312534</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.2395661885583</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>2.076522214804065</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>2.076522214804065</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>2.076522214804065</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>2.076522214804065</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>2.076522214804065</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>2.076522214804065</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>2.205655940037194</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>4.32565533871372</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>6.445654737390244</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>8.565654136066769</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>8.565654136066769</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>8.565654136066769</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>6.402610162312534</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>4.2395661885583</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>2.076522214804065</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>2.076522214804065</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>2.076522214804065</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>2.076522214804065</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>2.076522214804065</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>2.076522214804065</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>2.205655940037194</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>4.32565533871372</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>6.445654737390244</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>8.565654136066769</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>6.402610162312534</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>6.402610162312534</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>6.402610162312534</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>6.402610162312534</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>4.2395661885583</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>2.076522214804065</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>2.076522214804065</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>2.076522214804065</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>2.076522214804065</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>2.076522214804065</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>2.076522214804065</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>2.076522214804065</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>2.076522214804065</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>2.076522214804065</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2.076522214804065</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>2.291312481397861</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>4.411311880074386</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>6.445654737390244</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>8.565654136066769</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>8.565654136066769</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.402610162312534</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>6.402610162312534</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>4.2395661885583</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>2.076522214804065</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>2.076522214804065</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>2.076522214804065</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>2.076522214804065</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>2.076522214804065</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>2.076522214804065</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>0.1713130827213354</v>
       </c>
     </row>
   </sheetData>
@@ -8224,10 +8224,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M5" t="n">
-        <v>89.35872216232903</v>
+        <v>89.35872216232906</v>
       </c>
       <c r="N5" t="n">
-        <v>83.98878642167108</v>
+        <v>83.98878642167111</v>
       </c>
       <c r="O5" t="n">
         <v>99.00804712831379</v>
@@ -8300,10 +8300,10 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L6" t="n">
-        <v>38.8718120156598</v>
+        <v>38.87181201565983</v>
       </c>
       <c r="M6" t="n">
-        <v>16.76619772104769</v>
+        <v>16.76619772104772</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8461,13 +8461,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M8" t="n">
-        <v>75.14322041372878</v>
+        <v>89.35872216232906</v>
       </c>
       <c r="N8" t="n">
-        <v>69.54326299292899</v>
+        <v>83.98878642167111</v>
       </c>
       <c r="O8" t="n">
-        <v>85.36754898137042</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P8" t="n">
         <v>83.66766412458549</v>
@@ -8537,19 +8537,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L9" t="n">
-        <v>29.46666450132338</v>
+        <v>38.87181201565983</v>
       </c>
       <c r="M9" t="n">
-        <v>5.790834183966268</v>
+        <v>16.76619772104772</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>18.79031561679614</v>
+        <v>29.09636626239171</v>
       </c>
       <c r="P9" t="n">
-        <v>43.64109636171835</v>
+        <v>51.91261060228356</v>
       </c>
       <c r="Q9" t="n">
         <v>54.62009481132077</v>
@@ -9166,22 +9166,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>82.693084352536</v>
+        <v>83.30789353012841</v>
       </c>
       <c r="L17" t="n">
-        <v>48.07411698098349</v>
+        <v>46.18022928524789</v>
       </c>
       <c r="M17" t="n">
-        <v>6.707321807773383</v>
+        <v>4.600006833175655</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>19.69981775191468</v>
+        <v>19.81915520909809</v>
       </c>
       <c r="P17" t="n">
-        <v>67.78072631241469</v>
+        <v>68.10982293828746</v>
       </c>
       <c r="Q17" t="n">
         <v>55.20189757157522</v>
@@ -9245,7 +9245,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>39.13339190934374</v>
+        <v>38.09650305925163</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>3.820587744020429</v>
+        <v>2.594413238892059</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9403,22 +9403,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>82.693084352536</v>
+        <v>83.30789353012841</v>
       </c>
       <c r="L20" t="n">
-        <v>48.07411698098349</v>
+        <v>48.32164281926458</v>
       </c>
       <c r="M20" t="n">
-        <v>6.707321807773383</v>
+        <v>6.654898608242178</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>19.69981775191468</v>
+        <v>17.67774167508139</v>
       </c>
       <c r="P20" t="n">
-        <v>67.78072631241469</v>
+        <v>66.05493116322094</v>
       </c>
       <c r="Q20" t="n">
         <v>55.20189757157522</v>
@@ -9482,7 +9482,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>39.13339190934374</v>
+        <v>38.09650305925163</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>3.820587744020429</v>
+        <v>2.594413238892059</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9640,22 +9640,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>82.693084352536</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L23" t="n">
-        <v>48.07411698098349</v>
+        <v>47.17868556298982</v>
       </c>
       <c r="M23" t="n">
-        <v>6.707321807773383</v>
+        <v>8.88283390120904</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="O23" t="n">
-        <v>19.69981775191468</v>
+        <v>21.96056874311478</v>
       </c>
       <c r="P23" t="n">
-        <v>67.78072631241469</v>
+        <v>66.05493116322094</v>
       </c>
       <c r="Q23" t="n">
         <v>55.20189757157522</v>
@@ -9719,7 +9719,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>39.13339190934374</v>
+        <v>38.09650305925163</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>3.820587744020429</v>
+        <v>2.594413238892059</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9877,22 +9877,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>82.693084352536</v>
+        <v>81.16647999611172</v>
       </c>
       <c r="L26" t="n">
-        <v>48.07411698098349</v>
+        <v>46.18022928524789</v>
       </c>
       <c r="M26" t="n">
-        <v>6.707321807773383</v>
+        <v>8.709790383308707</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="O26" t="n">
-        <v>19.69981775191468</v>
+        <v>21.96056874311478</v>
       </c>
       <c r="P26" t="n">
-        <v>67.78072631241469</v>
+        <v>70.33775823125433</v>
       </c>
       <c r="Q26" t="n">
         <v>55.20189757157522</v>
@@ -9956,7 +9956,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>39.13339190934374</v>
+        <v>38.09650305925163</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>3.820587744020429</v>
+        <v>2.594413238892059</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10114,22 +10114,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>82.693084352536</v>
+        <v>81.16647999611172</v>
       </c>
       <c r="L29" t="n">
-        <v>48.07411698098349</v>
+        <v>50.46305635328128</v>
       </c>
       <c r="M29" t="n">
-        <v>6.707321807773383</v>
+        <v>8.882833901209043</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>2.141413534016697</v>
       </c>
       <c r="O29" t="n">
-        <v>19.69981775191468</v>
+        <v>21.78752522521444</v>
       </c>
       <c r="P29" t="n">
-        <v>67.78072631241469</v>
+        <v>66.05493116322094</v>
       </c>
       <c r="Q29" t="n">
         <v>55.20189757157522</v>
@@ -10193,7 +10193,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>39.13339190934374</v>
+        <v>38.09650305925163</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>3.820587744020429</v>
+        <v>2.594413238892059</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10351,22 +10351,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>82.693084352536</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L32" t="n">
-        <v>48.07411698098349</v>
+        <v>47.17868556298982</v>
       </c>
       <c r="M32" t="n">
-        <v>6.707321807773383</v>
+        <v>8.88283390120904</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="O32" t="n">
-        <v>19.69981775191468</v>
+        <v>21.96056874311478</v>
       </c>
       <c r="P32" t="n">
-        <v>67.78072631241469</v>
+        <v>66.05493116322094</v>
       </c>
       <c r="Q32" t="n">
         <v>55.20189757157522</v>
@@ -10430,7 +10430,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>39.13339190934374</v>
+        <v>38.09650305925163</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>3.820587744020429</v>
+        <v>2.594413238892059</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10588,22 +10588,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>82.693084352536</v>
+        <v>81.16647999611172</v>
       </c>
       <c r="L35" t="n">
-        <v>48.07411698098349</v>
+        <v>46.18022928524789</v>
       </c>
       <c r="M35" t="n">
-        <v>6.707321807773383</v>
+        <v>8.709790383308707</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="O35" t="n">
-        <v>19.69981775191468</v>
+        <v>21.96056874311478</v>
       </c>
       <c r="P35" t="n">
-        <v>67.78072631241469</v>
+        <v>70.33775823125433</v>
       </c>
       <c r="Q35" t="n">
         <v>55.20189757157522</v>
@@ -10667,7 +10667,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>39.13339190934374</v>
+        <v>38.09650305925163</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>3.820587744020429</v>
+        <v>2.594413238892059</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10825,22 +10825,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>82.693084352536</v>
+        <v>81.16647999611172</v>
       </c>
       <c r="L38" t="n">
-        <v>48.07411698098349</v>
+        <v>46.18022928524789</v>
       </c>
       <c r="M38" t="n">
-        <v>6.707321807773383</v>
+        <v>8.709790383308707</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="O38" t="n">
-        <v>19.69981775191468</v>
+        <v>21.96056874311478</v>
       </c>
       <c r="P38" t="n">
-        <v>67.78072631241469</v>
+        <v>70.33775823125433</v>
       </c>
       <c r="Q38" t="n">
         <v>55.20189757157522</v>
@@ -10904,7 +10904,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>39.13339190934374</v>
+        <v>38.09650305925163</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>3.820587744020429</v>
+        <v>2.594413238892059</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11062,22 +11062,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>82.693084352536</v>
+        <v>83.30789353012841</v>
       </c>
       <c r="L41" t="n">
-        <v>48.07411698098349</v>
+        <v>46.18022928524789</v>
       </c>
       <c r="M41" t="n">
-        <v>6.707321807773383</v>
+        <v>4.600006833175655</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>19.69981775191468</v>
+        <v>19.73263345014792</v>
       </c>
       <c r="P41" t="n">
-        <v>67.78072631241469</v>
+        <v>68.19634469723763</v>
       </c>
       <c r="Q41" t="n">
         <v>55.20189757157522</v>
@@ -11141,7 +11141,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>39.13339190934374</v>
+        <v>38.09650305925163</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>3.820587744020429</v>
+        <v>2.594413238892059</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11299,22 +11299,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>82.693084352536</v>
+        <v>81.16647999611172</v>
       </c>
       <c r="L44" t="n">
-        <v>48.07411698098349</v>
+        <v>46.18022928524789</v>
       </c>
       <c r="M44" t="n">
-        <v>6.707321807773383</v>
+        <v>6.654898608242179</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>19.69981775191468</v>
+        <v>19.81915520909808</v>
       </c>
       <c r="P44" t="n">
-        <v>67.78072631241469</v>
+        <v>68.19634469723763</v>
       </c>
       <c r="Q44" t="n">
         <v>55.20189757157522</v>
@@ -11378,7 +11378,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>39.13339190934374</v>
+        <v>38.09650305925163</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>3.820587744020429</v>
+        <v>2.594413238892059</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -22810,10 +22810,10 @@
         <v>101.17202184758</v>
       </c>
       <c r="K5" t="n">
-        <v>58.29051612840928</v>
+        <v>58.29051612840931</v>
       </c>
       <c r="L5" t="n">
-        <v>13.76272976322227</v>
+        <v>13.7627297632223</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22825,7 +22825,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>51.80080109985099</v>
+        <v>51.80080109985101</v>
       </c>
       <c r="Q5" t="n">
         <v>117.6935628343943</v>
@@ -22889,7 +22889,7 @@
         <v>81.45811026959613</v>
       </c>
       <c r="K6" t="n">
-        <v>11.04044456262879</v>
+        <v>11.04044456262881</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22968,22 +22968,22 @@
         <v>132.2802453397308</v>
       </c>
       <c r="K7" t="n">
-        <v>87.46423987719797</v>
+        <v>87.46423987719798</v>
       </c>
       <c r="L7" t="n">
         <v>61.01644271081538</v>
       </c>
       <c r="M7" t="n">
-        <v>57.6471651877402</v>
+        <v>57.64716518774021</v>
       </c>
       <c r="N7" t="n">
-        <v>45.30505538511905</v>
+        <v>45.30505538511906</v>
       </c>
       <c r="O7" t="n">
         <v>70.7260729557852</v>
       </c>
       <c r="P7" t="n">
-        <v>89.84907843621555</v>
+        <v>89.84907843621556</v>
       </c>
       <c r="Q7" t="n">
         <v>151.6385858692978</v>
@@ -23035,22 +23035,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G8" t="n">
-        <v>422.099611161265</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H8" t="n">
-        <v>348.8307146845167</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I8" t="n">
-        <v>250.1633931155539</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J8" t="n">
-        <v>94.3008198854363</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K8" t="n">
-        <v>47.99236556251543</v>
+        <v>58.29051612840931</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9869633614668771</v>
+        <v>13.7627297632223</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -23062,22 +23062,22 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>40.15895151551294</v>
+        <v>51.80080109985101</v>
       </c>
       <c r="Q8" t="n">
-        <v>108.9510186332786</v>
+        <v>117.6935628343943</v>
       </c>
       <c r="R8" t="n">
-        <v>204.5730235307706</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S8" t="n">
-        <v>233.4224652601393</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T8" t="n">
-        <v>218.9892512838904</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U8" t="n">
-        <v>248.7823567037002</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V8" t="n">
         <v>313.3044420010231</v>
@@ -23114,19 +23114,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G9" t="n">
-        <v>160.9716490065592</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H9" t="n">
-        <v>137.3320016107803</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I9" t="n">
-        <v>115.4593872382636</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J9" t="n">
-        <v>77.36566945338926</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K9" t="n">
-        <v>4.045811373348414</v>
+        <v>11.04044456262881</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23144,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>48.29708980702097</v>
+        <v>53.82637802552915</v>
       </c>
       <c r="R9" t="n">
-        <v>151.7027734120297</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S9" t="n">
-        <v>207.2178957243147</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T9" t="n">
-        <v>229.9206956264836</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U9" t="n">
-        <v>249.6467046461305</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V9" t="n">
         <v>249.2999251801724</v>
@@ -23193,49 +23193,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G10" t="n">
-        <v>169.1980657677725</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H10" t="n">
-        <v>167.254745258834</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I10" t="n">
-        <v>166.6434217641473</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J10" t="n">
-        <v>129.7127794883883</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K10" t="n">
-        <v>83.24510478909748</v>
+        <v>87.46423987719798</v>
       </c>
       <c r="L10" t="n">
-        <v>55.61740239541668</v>
+        <v>61.01644271081538</v>
       </c>
       <c r="M10" t="n">
-        <v>51.95463417646347</v>
+        <v>57.64716518774021</v>
       </c>
       <c r="N10" t="n">
-        <v>39.74788003785805</v>
+        <v>45.30505538511906</v>
       </c>
       <c r="O10" t="n">
-        <v>65.59312206769549</v>
+        <v>70.7260729557852</v>
       </c>
       <c r="P10" t="n">
-        <v>85.45695220678763</v>
+        <v>89.84907843621556</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.597705329666</v>
+        <v>151.6385858692978</v>
       </c>
       <c r="R10" t="n">
-        <v>219.4205708360879</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S10" t="n">
-        <v>243.059122029287</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T10" t="n">
-        <v>217.9314715346705</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U10" t="n">
-        <v>291.2175991342377</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V10" t="n">
         <v>237.3615500762718</v>
@@ -23737,7 +23737,7 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D17" t="n">
-        <v>319.1317556432476</v>
+        <v>316.9903421092309</v>
       </c>
       <c r="E17" t="n">
         <v>359.9585549362873</v>
@@ -23746,16 +23746,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>421.7098656665098</v>
+        <v>421.6978644137446</v>
       </c>
       <c r="H17" t="n">
-        <v>344.8392336363538</v>
+        <v>344.7163258064727</v>
       </c>
       <c r="I17" t="n">
-        <v>235.1377299289993</v>
+        <v>234.6750516317711</v>
       </c>
       <c r="J17" t="n">
-        <v>61.2216581999468</v>
+        <v>60.20306687307109</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>66.8628898365198</v>
+        <v>65.56688955197779</v>
       </c>
       <c r="R17" t="n">
-        <v>180.0906730958467</v>
+        <v>177.1953858678214</v>
       </c>
       <c r="S17" t="n">
-        <v>224.5411397984024</v>
+        <v>222.126247717</v>
       </c>
       <c r="T17" t="n">
-        <v>217.2831403805989</v>
+        <v>217.2306048966195</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7502169638986</v>
       </c>
       <c r="V17" t="n">
-        <v>313.3044420010231</v>
+        <v>311.4182849602612</v>
       </c>
       <c r="W17" t="n">
         <v>325.3917254792934</v>
@@ -23825,16 +23825,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7566955463175</v>
       </c>
       <c r="H18" t="n">
-        <v>135.3180193429644</v>
+        <v>135.2560037184457</v>
       </c>
       <c r="I18" t="n">
-        <v>108.279659353452</v>
+        <v>108.0585773132742</v>
       </c>
       <c r="J18" t="n">
-        <v>57.66394736845585</v>
+        <v>57.05728135221784</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,28 +23855,28 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>21.67813434720469</v>
+        <v>20.85846916283114</v>
       </c>
       <c r="R18" t="n">
-        <v>138.7554832289223</v>
+        <v>138.3568033103546</v>
       </c>
       <c r="S18" t="n">
-        <v>203.3445011265852</v>
+        <v>201.0838159441414</v>
       </c>
       <c r="T18" t="n">
-        <v>229.0801644257012</v>
+        <v>229.0542823371759</v>
       </c>
       <c r="U18" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6325629711146</v>
       </c>
       <c r="V18" t="n">
-        <v>249.2999251801724</v>
+        <v>247.1585116461557</v>
       </c>
       <c r="W18" t="n">
-        <v>283.2492567629311</v>
+        <v>281.1078432289144</v>
       </c>
       <c r="X18" t="n">
-        <v>230.033063710963</v>
+        <v>228.1469066702011</v>
       </c>
       <c r="Y18" t="n">
         <v>242.8962664135933</v>
@@ -23904,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0178560074606</v>
       </c>
       <c r="H19" t="n">
-        <v>165.7003795276809</v>
+        <v>165.652516662606</v>
       </c>
       <c r="I19" t="n">
-        <v>161.3859147716582</v>
+        <v>161.2240227904026</v>
       </c>
       <c r="J19" t="n">
-        <v>117.3525521967958</v>
+        <v>116.9719494343337</v>
       </c>
       <c r="K19" t="n">
-        <v>62.93345443721984</v>
+        <v>62.30800718194584</v>
       </c>
       <c r="L19" t="n">
-        <v>29.62548300147245</v>
+        <v>28.82512584867503</v>
       </c>
       <c r="M19" t="n">
-        <v>24.54979951156312</v>
+        <v>23.70593511229163</v>
       </c>
       <c r="N19" t="n">
-        <v>12.99467108847176</v>
+        <v>12.17087189848527</v>
       </c>
       <c r="O19" t="n">
-        <v>40.88220347059112</v>
+        <v>40.12129158287593</v>
       </c>
       <c r="P19" t="n">
-        <v>64.31249240386273</v>
+        <v>63.66140083233179</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.9583773647877</v>
+        <v>133.5075953093629</v>
       </c>
       <c r="R19" t="n">
-        <v>211.5597396435694</v>
+        <v>211.3176847042434</v>
       </c>
       <c r="S19" t="n">
-        <v>240.0123744765054</v>
+        <v>239.9185573882143</v>
       </c>
       <c r="T19" t="n">
-        <v>217.1844859583495</v>
+        <v>217.161484376974</v>
       </c>
       <c r="U19" t="n">
-        <v>291.208063148157</v>
+        <v>291.2077695109479</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23983,16 +23983,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>421.7098656665098</v>
+        <v>421.6978644137446</v>
       </c>
       <c r="H20" t="n">
-        <v>344.8392336363538</v>
+        <v>344.7163258064727</v>
       </c>
       <c r="I20" t="n">
-        <v>235.1377299289993</v>
+        <v>234.6750516317711</v>
       </c>
       <c r="J20" t="n">
-        <v>61.2216581999468</v>
+        <v>60.20306687307109</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>66.8628898365198</v>
+        <v>63.68073251121589</v>
       </c>
       <c r="R20" t="n">
-        <v>180.0906730958467</v>
+        <v>177.1953858678214</v>
       </c>
       <c r="S20" t="n">
-        <v>224.5411397984024</v>
+        <v>222.126247717</v>
       </c>
       <c r="T20" t="n">
-        <v>217.2831403805989</v>
+        <v>215.0891913626028</v>
       </c>
       <c r="U20" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7502169638986</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24062,16 +24062,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7566955463175</v>
       </c>
       <c r="H21" t="n">
-        <v>135.3180193429644</v>
+        <v>135.2560037184457</v>
       </c>
       <c r="I21" t="n">
-        <v>108.279659353452</v>
+        <v>108.0585773132742</v>
       </c>
       <c r="J21" t="n">
-        <v>57.66394736845585</v>
+        <v>57.05728135221784</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24092,25 +24092,25 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>21.67813434720469</v>
+        <v>18.97231212206924</v>
       </c>
       <c r="R21" t="n">
-        <v>138.7554832289223</v>
+        <v>136.2153897763379</v>
       </c>
       <c r="S21" t="n">
-        <v>203.3445011265852</v>
+        <v>201.0838159441414</v>
       </c>
       <c r="T21" t="n">
-        <v>229.0801644257012</v>
+        <v>229.0542823371759</v>
       </c>
       <c r="U21" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6325629711146</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W21" t="n">
-        <v>283.2492567629311</v>
+        <v>281.1078432289144</v>
       </c>
       <c r="X21" t="n">
         <v>230.033063710963</v>
@@ -24141,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0178560074606</v>
       </c>
       <c r="H22" t="n">
-        <v>165.7003795276809</v>
+        <v>165.652516662606</v>
       </c>
       <c r="I22" t="n">
-        <v>161.3859147716582</v>
+        <v>161.2240227904026</v>
       </c>
       <c r="J22" t="n">
-        <v>117.3525521967958</v>
+        <v>116.9719494343337</v>
       </c>
       <c r="K22" t="n">
-        <v>62.93345443721984</v>
+        <v>62.30800718194584</v>
       </c>
       <c r="L22" t="n">
-        <v>29.62548300147245</v>
+        <v>28.82512584867503</v>
       </c>
       <c r="M22" t="n">
-        <v>24.54979951156312</v>
+        <v>23.70593511229163</v>
       </c>
       <c r="N22" t="n">
-        <v>12.99467108847176</v>
+        <v>12.17087189848527</v>
       </c>
       <c r="O22" t="n">
-        <v>40.88220347059112</v>
+        <v>40.12129158287593</v>
       </c>
       <c r="P22" t="n">
-        <v>64.31249240386273</v>
+        <v>63.66140083233179</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.9583773647877</v>
+        <v>133.5075953093629</v>
       </c>
       <c r="R22" t="n">
-        <v>211.5597396435694</v>
+        <v>211.3176847042434</v>
       </c>
       <c r="S22" t="n">
-        <v>240.0123744765054</v>
+        <v>239.9185573882143</v>
       </c>
       <c r="T22" t="n">
-        <v>217.1844859583495</v>
+        <v>217.161484376974</v>
       </c>
       <c r="U22" t="n">
-        <v>291.208063148157</v>
+        <v>291.2077695109479</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24217,19 +24217,19 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F23" t="n">
-        <v>399.146417573369</v>
+        <v>394.8635905053357</v>
       </c>
       <c r="G23" t="n">
-        <v>421.7098656665098</v>
+        <v>421.6978644137446</v>
       </c>
       <c r="H23" t="n">
-        <v>344.8392336363538</v>
+        <v>344.7163258064727</v>
       </c>
       <c r="I23" t="n">
-        <v>235.1377299289993</v>
+        <v>234.6750516317711</v>
       </c>
       <c r="J23" t="n">
-        <v>61.2216581999468</v>
+        <v>60.20306687307109</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>66.8628898365198</v>
+        <v>61.2840624839444</v>
       </c>
       <c r="R23" t="n">
-        <v>180.0906730958467</v>
+        <v>179.3367994018381</v>
       </c>
       <c r="S23" t="n">
-        <v>224.5411397984024</v>
+        <v>224.2676612510166</v>
       </c>
       <c r="T23" t="n">
-        <v>217.2831403805989</v>
+        <v>217.2306048966195</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7511770641198</v>
+        <v>244.9779028823748</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24274,7 +24274,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y23" t="n">
-        <v>377.9289763951821</v>
+        <v>373.6461493271487</v>
       </c>
     </row>
     <row r="24">
@@ -24299,16 +24299,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7566955463175</v>
       </c>
       <c r="H24" t="n">
-        <v>135.3180193429644</v>
+        <v>135.2560037184457</v>
       </c>
       <c r="I24" t="n">
-        <v>108.279659353452</v>
+        <v>108.0585773132742</v>
       </c>
       <c r="J24" t="n">
-        <v>57.66394736845585</v>
+        <v>57.05728135221784</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,31 +24329,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>21.67813434720469</v>
+        <v>20.85846916283114</v>
       </c>
       <c r="R24" t="n">
-        <v>138.7554832289223</v>
+        <v>138.3568033103546</v>
       </c>
       <c r="S24" t="n">
-        <v>203.3445011265852</v>
+        <v>203.2252294781581</v>
       </c>
       <c r="T24" t="n">
-        <v>229.0801644257012</v>
+        <v>229.0542823371759</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6329854208729</v>
+        <v>245.8602488895908</v>
       </c>
       <c r="V24" t="n">
-        <v>249.2999251801724</v>
+        <v>245.017098112139</v>
       </c>
       <c r="W24" t="n">
         <v>283.2492567629311</v>
       </c>
       <c r="X24" t="n">
-        <v>230.033063710963</v>
+        <v>225.7502366429296</v>
       </c>
       <c r="Y24" t="n">
-        <v>242.8962664135933</v>
+        <v>238.61343934556</v>
       </c>
     </row>
     <row r="25">
@@ -24378,49 +24378,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G25" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0178560074606</v>
       </c>
       <c r="H25" t="n">
-        <v>165.7003795276809</v>
+        <v>165.652516662606</v>
       </c>
       <c r="I25" t="n">
-        <v>161.3859147716582</v>
+        <v>161.2240227904026</v>
       </c>
       <c r="J25" t="n">
-        <v>117.3525521967958</v>
+        <v>116.9719494343337</v>
       </c>
       <c r="K25" t="n">
-        <v>62.93345443721984</v>
+        <v>62.30800718194584</v>
       </c>
       <c r="L25" t="n">
-        <v>29.62548300147245</v>
+        <v>28.82512584867503</v>
       </c>
       <c r="M25" t="n">
-        <v>24.54979951156312</v>
+        <v>23.70593511229163</v>
       </c>
       <c r="N25" t="n">
-        <v>12.99467108847176</v>
+        <v>12.17087189848527</v>
       </c>
       <c r="O25" t="n">
-        <v>40.88220347059112</v>
+        <v>40.12129158287593</v>
       </c>
       <c r="P25" t="n">
-        <v>64.31249240386273</v>
+        <v>63.66140083233179</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.9583773647877</v>
+        <v>133.5075953093629</v>
       </c>
       <c r="R25" t="n">
-        <v>211.5597396435694</v>
+        <v>211.3176847042434</v>
       </c>
       <c r="S25" t="n">
-        <v>240.0123744765054</v>
+        <v>239.9185573882143</v>
       </c>
       <c r="T25" t="n">
-        <v>217.1844859583495</v>
+        <v>217.161484376974</v>
       </c>
       <c r="U25" t="n">
-        <v>291.208063148157</v>
+        <v>291.2077695109479</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24445,28 +24445,28 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C26" t="n">
-        <v>333.5971194742085</v>
+        <v>329.8248053926847</v>
       </c>
       <c r="D26" t="n">
-        <v>319.1317556432476</v>
+        <v>314.8489285752142</v>
       </c>
       <c r="E26" t="n">
-        <v>359.9585549362873</v>
+        <v>355.6757278682539</v>
       </c>
       <c r="F26" t="n">
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>421.7098656665098</v>
+        <v>417.4150373457112</v>
       </c>
       <c r="H26" t="n">
-        <v>344.8392336363538</v>
+        <v>344.7163258064727</v>
       </c>
       <c r="I26" t="n">
-        <v>235.1377299289993</v>
+        <v>234.6750516317711</v>
       </c>
       <c r="J26" t="n">
-        <v>61.2216581999468</v>
+        <v>60.20306687307109</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>66.8628898365198</v>
+        <v>65.56688955197779</v>
       </c>
       <c r="R26" t="n">
-        <v>180.0906730958467</v>
+        <v>179.3367994018381</v>
       </c>
       <c r="S26" t="n">
-        <v>224.5411397984024</v>
+        <v>224.2676612510166</v>
       </c>
       <c r="T26" t="n">
-        <v>217.2831403805989</v>
+        <v>217.2306048966195</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7502169638986</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24536,16 +24536,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7566955463175</v>
       </c>
       <c r="H27" t="n">
-        <v>135.3180193429644</v>
+        <v>135.2560037184457</v>
       </c>
       <c r="I27" t="n">
-        <v>108.279659353452</v>
+        <v>108.0585773132742</v>
       </c>
       <c r="J27" t="n">
-        <v>57.66394736845585</v>
+        <v>57.05728135221784</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,25 +24566,25 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>21.67813434720469</v>
+        <v>20.85846916283114</v>
       </c>
       <c r="R27" t="n">
-        <v>138.7554832289223</v>
+        <v>138.3568033103546</v>
       </c>
       <c r="S27" t="n">
-        <v>203.3445011265852</v>
+        <v>198.9424024101247</v>
       </c>
       <c r="T27" t="n">
-        <v>229.0801644257012</v>
+        <v>229.0542823371759</v>
       </c>
       <c r="U27" t="n">
-        <v>249.6329854208729</v>
+        <v>245.3497359030812</v>
       </c>
       <c r="V27" t="n">
-        <v>249.2999251801724</v>
+        <v>245.5276110986486</v>
       </c>
       <c r="W27" t="n">
-        <v>283.2492567629311</v>
+        <v>278.9664296948977</v>
       </c>
       <c r="X27" t="n">
         <v>230.033063710963</v>
@@ -24615,49 +24615,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0178560074606</v>
       </c>
       <c r="H28" t="n">
-        <v>165.7003795276809</v>
+        <v>165.652516662606</v>
       </c>
       <c r="I28" t="n">
-        <v>161.3859147716582</v>
+        <v>161.2240227904026</v>
       </c>
       <c r="J28" t="n">
-        <v>117.3525521967958</v>
+        <v>116.9719494343337</v>
       </c>
       <c r="K28" t="n">
-        <v>62.93345443721984</v>
+        <v>62.30800718194584</v>
       </c>
       <c r="L28" t="n">
-        <v>29.62548300147245</v>
+        <v>28.82512584867503</v>
       </c>
       <c r="M28" t="n">
-        <v>24.54979951156312</v>
+        <v>23.70593511229163</v>
       </c>
       <c r="N28" t="n">
-        <v>12.99467108847176</v>
+        <v>12.17087189848527</v>
       </c>
       <c r="O28" t="n">
-        <v>40.88220347059112</v>
+        <v>40.12129158287593</v>
       </c>
       <c r="P28" t="n">
-        <v>64.31249240386273</v>
+        <v>63.66140083233179</v>
       </c>
       <c r="Q28" t="n">
-        <v>133.9583773647877</v>
+        <v>133.5075953093629</v>
       </c>
       <c r="R28" t="n">
-        <v>211.5597396435694</v>
+        <v>211.3176847042434</v>
       </c>
       <c r="S28" t="n">
-        <v>240.0123744765054</v>
+        <v>239.9185573882143</v>
       </c>
       <c r="T28" t="n">
-        <v>217.1844859583495</v>
+        <v>217.161484376974</v>
       </c>
       <c r="U28" t="n">
-        <v>291.208063148157</v>
+        <v>291.2077695109479</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
@@ -24694,16 +24694,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>421.7098656665098</v>
+        <v>421.6978644137446</v>
       </c>
       <c r="H29" t="n">
-        <v>344.8392336363538</v>
+        <v>344.7163258064727</v>
       </c>
       <c r="I29" t="n">
-        <v>235.1377299289993</v>
+        <v>234.6750516317711</v>
       </c>
       <c r="J29" t="n">
-        <v>61.2216581999468</v>
+        <v>60.20306687307109</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,22 +24724,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>66.8628898365198</v>
+        <v>65.56688955197779</v>
       </c>
       <c r="R29" t="n">
-        <v>180.0906730958467</v>
+        <v>175.0539723338048</v>
       </c>
       <c r="S29" t="n">
-        <v>224.5411397984024</v>
+        <v>219.9848341829833</v>
       </c>
       <c r="T29" t="n">
-        <v>217.2831403805989</v>
+        <v>217.2306048966195</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7511770641198</v>
+        <v>244.9779028823748</v>
       </c>
       <c r="V29" t="n">
-        <v>313.3044420010231</v>
+        <v>309.0216149329897</v>
       </c>
       <c r="W29" t="n">
         <v>325.3917254792934</v>
@@ -24761,7 +24761,7 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C30" t="n">
-        <v>203.8424276152394</v>
+        <v>200.0701135337156</v>
       </c>
       <c r="D30" t="n">
         <v>172.0989423795122</v>
@@ -24773,16 +24773,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7566955463175</v>
       </c>
       <c r="H30" t="n">
-        <v>135.3180193429644</v>
+        <v>135.2560037184457</v>
       </c>
       <c r="I30" t="n">
-        <v>108.279659353452</v>
+        <v>108.0585773132742</v>
       </c>
       <c r="J30" t="n">
-        <v>57.66394736845585</v>
+        <v>57.05728135221784</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24803,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>21.67813434720469</v>
+        <v>16.57564209479775</v>
       </c>
       <c r="R30" t="n">
-        <v>138.7554832289223</v>
+        <v>138.3568033103546</v>
       </c>
       <c r="S30" t="n">
-        <v>203.3445011265852</v>
+        <v>198.9424024101247</v>
       </c>
       <c r="T30" t="n">
-        <v>229.0801644257012</v>
+        <v>224.7714552691425</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6325629711146</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
@@ -24852,49 +24852,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0178560074606</v>
       </c>
       <c r="H31" t="n">
-        <v>165.7003795276809</v>
+        <v>165.652516662606</v>
       </c>
       <c r="I31" t="n">
-        <v>161.3859147716582</v>
+        <v>161.2240227904026</v>
       </c>
       <c r="J31" t="n">
-        <v>117.3525521967958</v>
+        <v>116.9719494343337</v>
       </c>
       <c r="K31" t="n">
-        <v>62.93345443721984</v>
+        <v>62.30800718194584</v>
       </c>
       <c r="L31" t="n">
-        <v>29.62548300147245</v>
+        <v>28.82512584867503</v>
       </c>
       <c r="M31" t="n">
-        <v>24.54979951156312</v>
+        <v>23.70593511229163</v>
       </c>
       <c r="N31" t="n">
-        <v>12.99467108847176</v>
+        <v>12.17087189848527</v>
       </c>
       <c r="O31" t="n">
-        <v>40.88220347059112</v>
+        <v>40.12129158287593</v>
       </c>
       <c r="P31" t="n">
-        <v>64.31249240386273</v>
+        <v>63.66140083233179</v>
       </c>
       <c r="Q31" t="n">
-        <v>133.9583773647877</v>
+        <v>133.5075953093629</v>
       </c>
       <c r="R31" t="n">
-        <v>211.5597396435694</v>
+        <v>211.3176847042434</v>
       </c>
       <c r="S31" t="n">
-        <v>240.0123744765054</v>
+        <v>239.9185573882143</v>
       </c>
       <c r="T31" t="n">
-        <v>217.1844859583495</v>
+        <v>217.161484376974</v>
       </c>
       <c r="U31" t="n">
-        <v>291.208063148157</v>
+        <v>291.2077695109479</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24928,19 +24928,19 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F32" t="n">
-        <v>399.146417573369</v>
+        <v>394.8635905053357</v>
       </c>
       <c r="G32" t="n">
-        <v>421.7098656665098</v>
+        <v>417.9255503322208</v>
       </c>
       <c r="H32" t="n">
-        <v>344.8392336363538</v>
+        <v>344.7163258064727</v>
       </c>
       <c r="I32" t="n">
-        <v>235.1377299289993</v>
+        <v>234.6750516317711</v>
       </c>
       <c r="J32" t="n">
-        <v>61.2216581999468</v>
+        <v>60.20306687307109</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>66.8628898365198</v>
+        <v>65.56688955197779</v>
       </c>
       <c r="R32" t="n">
-        <v>180.0906730958467</v>
+        <v>179.3367994018381</v>
       </c>
       <c r="S32" t="n">
-        <v>224.5411397984024</v>
+        <v>224.2676612510166</v>
       </c>
       <c r="T32" t="n">
-        <v>217.2831403805989</v>
+        <v>212.9477778285861</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7511770641198</v>
+        <v>244.4673898958652</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -25010,16 +25010,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7566955463175</v>
       </c>
       <c r="H33" t="n">
-        <v>135.3180193429644</v>
+        <v>135.2560037184457</v>
       </c>
       <c r="I33" t="n">
-        <v>108.279659353452</v>
+        <v>103.7757502452409</v>
       </c>
       <c r="J33" t="n">
-        <v>57.66394736845585</v>
+        <v>53.28496727069403</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25040,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>21.67813434720469</v>
+        <v>16.57564209479775</v>
       </c>
       <c r="R33" t="n">
-        <v>138.7554832289223</v>
+        <v>138.3568033103546</v>
       </c>
       <c r="S33" t="n">
-        <v>203.3445011265852</v>
+        <v>203.2252294781581</v>
       </c>
       <c r="T33" t="n">
-        <v>229.0801644257012</v>
+        <v>224.7714552691425</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6325629711146</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25089,49 +25089,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0178560074606</v>
       </c>
       <c r="H34" t="n">
-        <v>165.7003795276809</v>
+        <v>165.652516662606</v>
       </c>
       <c r="I34" t="n">
-        <v>161.3859147716582</v>
+        <v>161.2240227904026</v>
       </c>
       <c r="J34" t="n">
-        <v>117.3525521967958</v>
+        <v>116.9719494343337</v>
       </c>
       <c r="K34" t="n">
-        <v>62.93345443721984</v>
+        <v>62.30800718194584</v>
       </c>
       <c r="L34" t="n">
-        <v>29.62548300147245</v>
+        <v>28.82512584867503</v>
       </c>
       <c r="M34" t="n">
-        <v>24.54979951156312</v>
+        <v>23.70593511229163</v>
       </c>
       <c r="N34" t="n">
-        <v>12.99467108847176</v>
+        <v>12.17087189848527</v>
       </c>
       <c r="O34" t="n">
-        <v>40.88220347059112</v>
+        <v>40.12129158287593</v>
       </c>
       <c r="P34" t="n">
-        <v>64.31249240386273</v>
+        <v>63.66140083233179</v>
       </c>
       <c r="Q34" t="n">
-        <v>133.9583773647877</v>
+        <v>133.5075953093629</v>
       </c>
       <c r="R34" t="n">
-        <v>211.5597396435694</v>
+        <v>211.3176847042434</v>
       </c>
       <c r="S34" t="n">
-        <v>240.0123744765054</v>
+        <v>239.9185573882143</v>
       </c>
       <c r="T34" t="n">
-        <v>217.1844859583495</v>
+        <v>217.161484376974</v>
       </c>
       <c r="U34" t="n">
-        <v>291.208063148157</v>
+        <v>291.2077695109479</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25168,16 +25168,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>421.7098656665098</v>
+        <v>421.6978644137446</v>
       </c>
       <c r="H35" t="n">
-        <v>344.8392336363538</v>
+        <v>344.7163258064727</v>
       </c>
       <c r="I35" t="n">
-        <v>235.1377299289993</v>
+        <v>234.6750516317711</v>
       </c>
       <c r="J35" t="n">
-        <v>61.2216581999468</v>
+        <v>60.20306687307109</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,25 +25198,25 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>66.8628898365198</v>
+        <v>61.2840624839444</v>
       </c>
       <c r="R35" t="n">
-        <v>180.0906730958467</v>
+        <v>175.0539723338048</v>
       </c>
       <c r="S35" t="n">
-        <v>224.5411397984024</v>
+        <v>219.9848341829833</v>
       </c>
       <c r="T35" t="n">
-        <v>217.2831403805989</v>
+        <v>217.2306048966195</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7502169638986</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W35" t="n">
-        <v>325.3917254792934</v>
+        <v>321.6194113977696</v>
       </c>
       <c r="X35" t="n">
         <v>348.8168793035129</v>
@@ -25247,16 +25247,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7566955463175</v>
       </c>
       <c r="H36" t="n">
-        <v>135.3180193429644</v>
+        <v>135.2560037184457</v>
       </c>
       <c r="I36" t="n">
-        <v>108.279659353452</v>
+        <v>108.0585773132742</v>
       </c>
       <c r="J36" t="n">
-        <v>57.66394736845585</v>
+        <v>57.05728135221784</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>21.67813434720469</v>
+        <v>17.08615508130733</v>
       </c>
       <c r="R36" t="n">
-        <v>138.7554832289223</v>
+        <v>134.0739762423212</v>
       </c>
       <c r="S36" t="n">
-        <v>203.3445011265852</v>
+        <v>198.9424024101247</v>
       </c>
       <c r="T36" t="n">
-        <v>229.0801644257012</v>
+        <v>224.7714552691425</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6325629711146</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
@@ -25326,49 +25326,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0178560074606</v>
       </c>
       <c r="H37" t="n">
-        <v>165.7003795276809</v>
+        <v>165.652516662606</v>
       </c>
       <c r="I37" t="n">
-        <v>161.3859147716582</v>
+        <v>161.2240227904026</v>
       </c>
       <c r="J37" t="n">
-        <v>117.3525521967958</v>
+        <v>116.9719494343337</v>
       </c>
       <c r="K37" t="n">
-        <v>62.93345443721984</v>
+        <v>62.30800718194584</v>
       </c>
       <c r="L37" t="n">
-        <v>29.62548300147245</v>
+        <v>28.82512584867503</v>
       </c>
       <c r="M37" t="n">
-        <v>24.54979951156312</v>
+        <v>23.70593511229163</v>
       </c>
       <c r="N37" t="n">
-        <v>12.99467108847176</v>
+        <v>12.17087189848527</v>
       </c>
       <c r="O37" t="n">
-        <v>40.88220347059112</v>
+        <v>40.12129158287593</v>
       </c>
       <c r="P37" t="n">
-        <v>64.31249240386273</v>
+        <v>63.66140083233179</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.9583773647877</v>
+        <v>133.5075953093629</v>
       </c>
       <c r="R37" t="n">
-        <v>211.5597396435694</v>
+        <v>211.3176847042434</v>
       </c>
       <c r="S37" t="n">
-        <v>240.0123744765054</v>
+        <v>239.9185573882143</v>
       </c>
       <c r="T37" t="n">
-        <v>217.1844859583495</v>
+        <v>217.161484376974</v>
       </c>
       <c r="U37" t="n">
-        <v>291.208063148157</v>
+        <v>291.2077695109479</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25393,7 +25393,7 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C38" t="n">
-        <v>333.5971194742085</v>
+        <v>329.3142924061751</v>
       </c>
       <c r="D38" t="n">
         <v>319.1317556432476</v>
@@ -25402,19 +25402,19 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F38" t="n">
-        <v>399.146417573369</v>
+        <v>395.3741034918452</v>
       </c>
       <c r="G38" t="n">
-        <v>421.7098656665098</v>
+        <v>417.4150373457112</v>
       </c>
       <c r="H38" t="n">
-        <v>344.8392336363538</v>
+        <v>344.7163258064727</v>
       </c>
       <c r="I38" t="n">
-        <v>235.1377299289993</v>
+        <v>230.3922245637377</v>
       </c>
       <c r="J38" t="n">
-        <v>61.2216581999468</v>
+        <v>60.20306687307109</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>66.8628898365198</v>
+        <v>65.56688955197779</v>
       </c>
       <c r="R38" t="n">
-        <v>180.0906730958467</v>
+        <v>179.3367994018381</v>
       </c>
       <c r="S38" t="n">
-        <v>224.5411397984024</v>
+        <v>224.2676612510166</v>
       </c>
       <c r="T38" t="n">
-        <v>217.2831403805989</v>
+        <v>217.2306048966195</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7502169638986</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25484,16 +25484,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7566955463175</v>
       </c>
       <c r="H39" t="n">
-        <v>135.3180193429644</v>
+        <v>135.2560037184457</v>
       </c>
       <c r="I39" t="n">
-        <v>108.279659353452</v>
+        <v>108.0585773132742</v>
       </c>
       <c r="J39" t="n">
-        <v>57.66394736845585</v>
+        <v>57.05728135221784</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,22 +25514,22 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>21.67813434720469</v>
+        <v>20.85846916283114</v>
       </c>
       <c r="R39" t="n">
-        <v>138.7554832289223</v>
+        <v>134.5844892288308</v>
       </c>
       <c r="S39" t="n">
-        <v>203.3445011265852</v>
+        <v>203.2252294781581</v>
       </c>
       <c r="T39" t="n">
-        <v>229.0801644257012</v>
+        <v>229.0542823371759</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6329854208729</v>
+        <v>245.3497359030812</v>
       </c>
       <c r="V39" t="n">
-        <v>249.2999251801724</v>
+        <v>245.017098112139</v>
       </c>
       <c r="W39" t="n">
         <v>283.2492567629311</v>
@@ -25538,7 +25538,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y39" t="n">
-        <v>242.8962664135933</v>
+        <v>238.61343934556</v>
       </c>
     </row>
     <row r="40">
@@ -25563,49 +25563,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0178560074606</v>
       </c>
       <c r="H40" t="n">
-        <v>165.7003795276809</v>
+        <v>165.652516662606</v>
       </c>
       <c r="I40" t="n">
-        <v>161.3859147716582</v>
+        <v>161.2240227904026</v>
       </c>
       <c r="J40" t="n">
-        <v>117.3525521967958</v>
+        <v>116.9719494343337</v>
       </c>
       <c r="K40" t="n">
-        <v>62.93345443721984</v>
+        <v>62.30800718194584</v>
       </c>
       <c r="L40" t="n">
-        <v>29.62548300147245</v>
+        <v>28.82512584867503</v>
       </c>
       <c r="M40" t="n">
-        <v>24.54979951156312</v>
+        <v>23.70593511229163</v>
       </c>
       <c r="N40" t="n">
-        <v>12.99467108847176</v>
+        <v>12.17087189848527</v>
       </c>
       <c r="O40" t="n">
-        <v>40.88220347059112</v>
+        <v>40.12129158287593</v>
       </c>
       <c r="P40" t="n">
-        <v>64.31249240386273</v>
+        <v>63.66140083233179</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.9583773647877</v>
+        <v>133.5075953093629</v>
       </c>
       <c r="R40" t="n">
-        <v>211.5597396435694</v>
+        <v>211.3176847042434</v>
       </c>
       <c r="S40" t="n">
-        <v>240.0123744765054</v>
+        <v>239.9185573882143</v>
       </c>
       <c r="T40" t="n">
-        <v>217.1844859583495</v>
+        <v>217.161484376974</v>
       </c>
       <c r="U40" t="n">
-        <v>291.208063148157</v>
+        <v>291.2077695109479</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25642,16 +25642,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>421.7098656665098</v>
+        <v>421.6978644137446</v>
       </c>
       <c r="H41" t="n">
-        <v>344.8392336363538</v>
+        <v>344.7163258064727</v>
       </c>
       <c r="I41" t="n">
-        <v>235.1377299289993</v>
+        <v>234.6750516317711</v>
       </c>
       <c r="J41" t="n">
-        <v>61.2216581999468</v>
+        <v>60.20306687307109</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>66.8628898365198</v>
+        <v>63.4254760179611</v>
       </c>
       <c r="R41" t="n">
-        <v>180.0906730958467</v>
+        <v>177.1953858678214</v>
       </c>
       <c r="S41" t="n">
-        <v>224.5411397984024</v>
+        <v>222.126247717</v>
       </c>
       <c r="T41" t="n">
-        <v>217.2831403805989</v>
+        <v>215.3444478558576</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7502169638986</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25721,16 +25721,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>160.7631167826437</v>
+        <v>158.8705385055556</v>
       </c>
       <c r="H42" t="n">
-        <v>135.3180193429644</v>
+        <v>135.2560037184457</v>
       </c>
       <c r="I42" t="n">
-        <v>108.279659353452</v>
+        <v>108.0585773132742</v>
       </c>
       <c r="J42" t="n">
-        <v>57.66394736845585</v>
+        <v>57.05728135221784</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>21.67813434720469</v>
+        <v>20.85846916283114</v>
       </c>
       <c r="R42" t="n">
-        <v>138.7554832289223</v>
+        <v>136.2153897763379</v>
       </c>
       <c r="S42" t="n">
-        <v>203.3445011265852</v>
+        <v>201.0838159441414</v>
       </c>
       <c r="T42" t="n">
-        <v>229.0801644257012</v>
+        <v>226.9128688031592</v>
       </c>
       <c r="U42" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6325629711146</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
@@ -25800,49 +25800,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0178560074606</v>
       </c>
       <c r="H43" t="n">
-        <v>165.7003795276809</v>
+        <v>165.652516662606</v>
       </c>
       <c r="I43" t="n">
-        <v>161.3859147716582</v>
+        <v>161.2240227904026</v>
       </c>
       <c r="J43" t="n">
-        <v>117.3525521967958</v>
+        <v>116.9719494343337</v>
       </c>
       <c r="K43" t="n">
-        <v>62.93345443721984</v>
+        <v>62.30800718194584</v>
       </c>
       <c r="L43" t="n">
-        <v>29.62548300147245</v>
+        <v>28.82512584867503</v>
       </c>
       <c r="M43" t="n">
-        <v>24.54979951156312</v>
+        <v>23.70593511229163</v>
       </c>
       <c r="N43" t="n">
-        <v>12.99467108847176</v>
+        <v>12.17087189848527</v>
       </c>
       <c r="O43" t="n">
-        <v>40.88220347059112</v>
+        <v>40.12129158287593</v>
       </c>
       <c r="P43" t="n">
-        <v>64.31249240386273</v>
+        <v>63.66140083233179</v>
       </c>
       <c r="Q43" t="n">
-        <v>133.9583773647877</v>
+        <v>133.5075953093629</v>
       </c>
       <c r="R43" t="n">
-        <v>211.5597396435694</v>
+        <v>211.3176847042434</v>
       </c>
       <c r="S43" t="n">
-        <v>240.0123744765054</v>
+        <v>239.9185573882143</v>
       </c>
       <c r="T43" t="n">
-        <v>217.1844859583495</v>
+        <v>217.161484376974</v>
       </c>
       <c r="U43" t="n">
-        <v>291.208063148157</v>
+        <v>291.2077695109479</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25879,16 +25879,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>421.7098656665098</v>
+        <v>421.6978644137446</v>
       </c>
       <c r="H44" t="n">
-        <v>344.8392336363538</v>
+        <v>344.7163258064727</v>
       </c>
       <c r="I44" t="n">
-        <v>235.1377299289993</v>
+        <v>234.6750516317711</v>
       </c>
       <c r="J44" t="n">
-        <v>61.2216581999468</v>
+        <v>60.20306687307109</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,22 +25909,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>66.8628898365198</v>
+        <v>63.4254760179611</v>
       </c>
       <c r="R44" t="n">
-        <v>180.0906730958467</v>
+        <v>179.3367994018381</v>
       </c>
       <c r="S44" t="n">
-        <v>224.5411397984024</v>
+        <v>224.2676612510166</v>
       </c>
       <c r="T44" t="n">
-        <v>217.2831403805989</v>
+        <v>217.2306048966195</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7511770641198</v>
+        <v>246.6088034298819</v>
       </c>
       <c r="V44" t="n">
-        <v>313.3044420010231</v>
+        <v>311.1630284670064</v>
       </c>
       <c r="W44" t="n">
         <v>325.3917254792934</v>
@@ -25933,7 +25933,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y44" t="n">
-        <v>377.9289763951821</v>
+        <v>376.0428193544202</v>
       </c>
     </row>
     <row r="45">
@@ -25958,16 +25958,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7566955463175</v>
       </c>
       <c r="H45" t="n">
-        <v>135.3180193429644</v>
+        <v>135.2560037184457</v>
       </c>
       <c r="I45" t="n">
-        <v>108.279659353452</v>
+        <v>106.1724202725123</v>
       </c>
       <c r="J45" t="n">
-        <v>57.66394736845585</v>
+        <v>57.05728135221784</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>21.67813434720469</v>
+        <v>18.71705562881445</v>
       </c>
       <c r="R45" t="n">
-        <v>138.7554832289223</v>
+        <v>138.3568033103546</v>
       </c>
       <c r="S45" t="n">
-        <v>203.3445011265852</v>
+        <v>201.0838159441414</v>
       </c>
       <c r="T45" t="n">
-        <v>229.0801644257012</v>
+        <v>226.9128688031592</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6325629711146</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
@@ -26037,49 +26037,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G46" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0178560074606</v>
       </c>
       <c r="H46" t="n">
-        <v>165.7003795276809</v>
+        <v>165.652516662606</v>
       </c>
       <c r="I46" t="n">
-        <v>161.3859147716582</v>
+        <v>161.2240227904026</v>
       </c>
       <c r="J46" t="n">
-        <v>117.3525521967958</v>
+        <v>116.9719494343337</v>
       </c>
       <c r="K46" t="n">
-        <v>62.93345443721984</v>
+        <v>62.30800718194584</v>
       </c>
       <c r="L46" t="n">
-        <v>29.62548300147245</v>
+        <v>28.82512584867503</v>
       </c>
       <c r="M46" t="n">
-        <v>24.54979951156312</v>
+        <v>23.70593511229163</v>
       </c>
       <c r="N46" t="n">
-        <v>12.99467108847176</v>
+        <v>12.17087189848527</v>
       </c>
       <c r="O46" t="n">
-        <v>40.88220347059112</v>
+        <v>40.12129158287593</v>
       </c>
       <c r="P46" t="n">
-        <v>64.31249240386273</v>
+        <v>63.66140083233179</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.9583773647877</v>
+        <v>133.5075953093629</v>
       </c>
       <c r="R46" t="n">
-        <v>211.5597396435694</v>
+        <v>211.3176847042434</v>
       </c>
       <c r="S46" t="n">
-        <v>240.0123744765054</v>
+        <v>239.9185573882143</v>
       </c>
       <c r="T46" t="n">
-        <v>217.1844859583495</v>
+        <v>217.161484376974</v>
       </c>
       <c r="U46" t="n">
-        <v>291.208063148157</v>
+        <v>291.2077695109479</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>423933.1832192759</v>
+        <v>415406.4713352767</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>453834.0145197529</v>
+        <v>455965.2251926585</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>453834.0145197529</v>
+        <v>455965.2251926587</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>453834.0145197529</v>
+        <v>457519.6288974948</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>453834.0145197529</v>
+        <v>457519.6288974948</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>453834.0145197529</v>
+        <v>457519.6288974946</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>453834.0145197529</v>
+        <v>457519.6288974948</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>453834.0145197529</v>
+        <v>457519.6288974945</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>453834.0145197529</v>
+        <v>457519.6288974946</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>453834.0145197529</v>
+        <v>455965.2251926587</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>453834.0145197529</v>
+        <v>455965.2251926587</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         <v>100235.7312921728</v>
       </c>
       <c r="D2" t="n">
-        <v>102618.3604469909</v>
+        <v>100235.7312921728</v>
       </c>
       <c r="E2" t="n">
         <v>111476.2922468809</v>
@@ -26328,34 +26328,34 @@
         <v>111476.2922468809</v>
       </c>
       <c r="G2" t="n">
-        <v>111476.2922468809</v>
+        <v>112025.585687871</v>
       </c>
       <c r="H2" t="n">
-        <v>111476.2922468809</v>
+        <v>112025.585687871</v>
       </c>
       <c r="I2" t="n">
-        <v>111476.2922468809</v>
+        <v>112380.4396672191</v>
       </c>
       <c r="J2" t="n">
-        <v>111476.2922468809</v>
+        <v>112380.4396672191</v>
       </c>
       <c r="K2" t="n">
-        <v>111476.2922468809</v>
+        <v>112380.4396672191</v>
       </c>
       <c r="L2" t="n">
-        <v>111476.2922468809</v>
+        <v>112380.4396672191</v>
       </c>
       <c r="M2" t="n">
-        <v>111476.2922468809</v>
+        <v>112380.4396672191</v>
       </c>
       <c r="N2" t="n">
-        <v>111476.2922468809</v>
+        <v>112380.4396672191</v>
       </c>
       <c r="O2" t="n">
-        <v>111476.2922468809</v>
+        <v>112025.585687871</v>
       </c>
       <c r="P2" t="n">
-        <v>111476.2922468809</v>
+        <v>112025.585687871</v>
       </c>
     </row>
     <row r="3">
@@ -26368,25 +26368,25 @@
         <v>330871.7541851042</v>
       </c>
       <c r="C3" t="n">
-        <v>6633.965728588497</v>
+        <v>6633.965728588445</v>
       </c>
       <c r="D3" t="n">
-        <v>17246.70640045144</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>77889.27155607384</v>
+        <v>94068.42750429735</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2907.970308113724</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>569.4468283792539</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>14748.12504095569</v>
       </c>
       <c r="C4" t="n">
-        <v>14463.54616658559</v>
+        <v>14463.5461665856</v>
       </c>
       <c r="D4" t="n">
-        <v>13459.7414313123</v>
+        <v>14463.5461665856</v>
       </c>
       <c r="E4" t="n">
-        <v>7928.845532229341</v>
+        <v>7928.845532229343</v>
       </c>
       <c r="F4" t="n">
-        <v>7928.845532229341</v>
+        <v>7928.845532229343</v>
       </c>
       <c r="G4" t="n">
-        <v>7928.845532229341</v>
+        <v>7864.434122399904</v>
       </c>
       <c r="H4" t="n">
-        <v>7928.845532229341</v>
+        <v>7864.434122399903</v>
       </c>
       <c r="I4" t="n">
-        <v>7928.845532229341</v>
+        <v>8000.973591068612</v>
       </c>
       <c r="J4" t="n">
-        <v>7928.845532229341</v>
+        <v>8000.973591068613</v>
       </c>
       <c r="K4" t="n">
-        <v>7928.845532229341</v>
+        <v>8000.973591068613</v>
       </c>
       <c r="L4" t="n">
-        <v>7928.845532229341</v>
+        <v>8000.973591068612</v>
       </c>
       <c r="M4" t="n">
-        <v>7928.845532229341</v>
+        <v>8000.973591068613</v>
       </c>
       <c r="N4" t="n">
-        <v>7928.845532229341</v>
+        <v>8000.973591068613</v>
       </c>
       <c r="O4" t="n">
-        <v>7928.845532229341</v>
+        <v>7864.434122399904</v>
       </c>
       <c r="P4" t="n">
-        <v>7928.845532229341</v>
+        <v>7864.434122399904</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>41271.79307559616</v>
       </c>
       <c r="D5" t="n">
-        <v>41710.80761707942</v>
+        <v>41271.79307559616</v>
       </c>
       <c r="E5" t="n">
         <v>10196.69999876384</v>
@@ -26484,34 +26484,34 @@
         <v>10196.69999876384</v>
       </c>
       <c r="G5" t="n">
-        <v>10196.69999876384</v>
+        <v>10391.97773506425</v>
       </c>
       <c r="H5" t="n">
-        <v>10196.69999876384</v>
+        <v>10391.97773506425</v>
       </c>
       <c r="I5" t="n">
-        <v>10196.69999876384</v>
+        <v>10522.17567793246</v>
       </c>
       <c r="J5" t="n">
-        <v>10196.69999876384</v>
+        <v>10522.17567793246</v>
       </c>
       <c r="K5" t="n">
-        <v>10196.69999876384</v>
+        <v>10522.17567793246</v>
       </c>
       <c r="L5" t="n">
-        <v>10196.69999876384</v>
+        <v>10522.17567793246</v>
       </c>
       <c r="M5" t="n">
-        <v>10196.69999876384</v>
+        <v>10522.17567793246</v>
       </c>
       <c r="N5" t="n">
-        <v>10196.69999876384</v>
+        <v>10522.17567793246</v>
       </c>
       <c r="O5" t="n">
-        <v>10196.69999876384</v>
+        <v>10391.97773506425</v>
       </c>
       <c r="P5" t="n">
-        <v>10196.69999876384</v>
+        <v>10391.97773506425</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-287496.5438410318</v>
+        <v>-304228.372311849</v>
       </c>
       <c r="C6" t="n">
-        <v>37866.42632140255</v>
+        <v>21205.98508927061</v>
       </c>
       <c r="D6" t="n">
-        <v>30201.10499814777</v>
+        <v>27839.95081785905</v>
       </c>
       <c r="E6" t="n">
-        <v>15461.47515981388</v>
+        <v>-16575.224809491</v>
       </c>
       <c r="F6" t="n">
-        <v>93350.74671588773</v>
+        <v>77493.20269480636</v>
       </c>
       <c r="G6" t="n">
-        <v>93350.74671588773</v>
+        <v>75042.89474699675</v>
       </c>
       <c r="H6" t="n">
-        <v>93350.74671588773</v>
+        <v>77950.86505511051</v>
       </c>
       <c r="I6" t="n">
-        <v>93350.74671588773</v>
+        <v>77494.88150735295</v>
       </c>
       <c r="J6" t="n">
-        <v>93350.74671588773</v>
+        <v>78064.32833573222</v>
       </c>
       <c r="K6" t="n">
-        <v>93350.74671588773</v>
+        <v>78064.32833573222</v>
       </c>
       <c r="L6" t="n">
-        <v>93350.74671588773</v>
+        <v>78064.32833573221</v>
       </c>
       <c r="M6" t="n">
-        <v>93350.74671588773</v>
+        <v>78064.32833573222</v>
       </c>
       <c r="N6" t="n">
-        <v>93350.74671588773</v>
+        <v>78064.32833573222</v>
       </c>
       <c r="O6" t="n">
-        <v>93350.74671588773</v>
+        <v>77950.86505511048</v>
       </c>
       <c r="P6" t="n">
-        <v>93350.74671588773</v>
+        <v>77950.86505511048</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>350.6510585135856</v>
       </c>
       <c r="D3" t="n">
-        <v>370.789340233001</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="E3" t="n">
         <v>467.7385320533874</v>
@@ -26752,34 +26752,34 @@
         <v>467.7385320533874</v>
       </c>
       <c r="G3" t="n">
-        <v>467.7385320533874</v>
+        <v>470.7238436787171</v>
       </c>
       <c r="H3" t="n">
-        <v>467.7385320533874</v>
+        <v>470.7238436787171</v>
       </c>
       <c r="I3" t="n">
-        <v>467.7385320533874</v>
+        <v>470.7238436787171</v>
       </c>
       <c r="J3" t="n">
-        <v>467.7385320533874</v>
+        <v>470.7238436787171</v>
       </c>
       <c r="K3" t="n">
-        <v>467.7385320533874</v>
+        <v>470.7238436787171</v>
       </c>
       <c r="L3" t="n">
-        <v>467.7385320533874</v>
+        <v>470.7238436787171</v>
       </c>
       <c r="M3" t="n">
-        <v>467.7385320533874</v>
+        <v>470.7238436787171</v>
       </c>
       <c r="N3" t="n">
-        <v>467.7385320533874</v>
+        <v>470.7238436787171</v>
       </c>
       <c r="O3" t="n">
-        <v>467.7385320533874</v>
+        <v>470.7238436787171</v>
       </c>
       <c r="P3" t="n">
-        <v>467.7385320533874</v>
+        <v>470.7238436787171</v>
       </c>
     </row>
     <row r="4">
@@ -26804,34 +26804,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2.141413534016697</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
     </row>
   </sheetData>
@@ -26962,19 +26962,19 @@
         <v>343.3658057592666</v>
       </c>
       <c r="C3" t="n">
-        <v>7.285252754319117</v>
+        <v>7.28525275431906</v>
       </c>
       <c r="D3" t="n">
-        <v>20.13828171941542</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>96.94919182038633</v>
+        <v>117.0874735398017</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.985311625329757</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2.141413534016697</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2.141413534016697</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2.141413534016697</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.409652496537027</v>
+        <v>1.409652496537026</v>
       </c>
       <c r="H5" t="n">
-        <v>14.43660363015983</v>
+        <v>14.43660363015982</v>
       </c>
       <c r="I5" t="n">
-        <v>54.34562787274376</v>
+        <v>54.34562787274375</v>
       </c>
       <c r="J5" t="n">
         <v>119.6424935779595</v>
@@ -31299,7 +31299,7 @@
         <v>247.5226439325573</v>
       </c>
       <c r="N5" t="n">
-        <v>251.5278190883432</v>
+        <v>251.5278190883431</v>
       </c>
       <c r="O5" t="n">
         <v>237.5105870759031</v>
@@ -31363,7 +31363,7 @@
         <v>7.284279536291656</v>
       </c>
       <c r="I6" t="n">
-        <v>25.96802650312875</v>
+        <v>25.96802650312874</v>
       </c>
       <c r="J6" t="n">
         <v>71.25824954189763</v>
@@ -31390,7 +31390,7 @@
         <v>96.27687176395656</v>
       </c>
       <c r="R6" t="n">
-        <v>46.82845645583321</v>
+        <v>46.8284564558332</v>
       </c>
       <c r="S6" t="n">
         <v>14.00950219627391</v>
@@ -31399,7 +31399,7 @@
         <v>3.040078516735708</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04962043280852629</v>
+        <v>0.04962043280852628</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6323215809261379</v>
+        <v>0.6323215809261378</v>
       </c>
       <c r="H7" t="n">
         <v>5.621913692234211</v>
@@ -31445,25 +31445,25 @@
         <v>19.0156344518515</v>
       </c>
       <c r="J7" t="n">
-        <v>44.70513577147795</v>
+        <v>44.70513577147794</v>
       </c>
       <c r="K7" t="n">
-        <v>73.46427094760037</v>
+        <v>73.46427094760035</v>
       </c>
       <c r="L7" t="n">
         <v>94.00897394969145</v>
       </c>
       <c r="M7" t="n">
-        <v>99.11928199917631</v>
+        <v>99.11928199917629</v>
       </c>
       <c r="N7" t="n">
-        <v>96.76244701572442</v>
+        <v>96.7624470157244</v>
       </c>
       <c r="O7" t="n">
         <v>89.37578127490541</v>
       </c>
       <c r="P7" t="n">
-        <v>76.47642102401214</v>
+        <v>76.47642102401213</v>
       </c>
       <c r="Q7" t="n">
         <v>52.94830983555142</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.490610412996988</v>
+        <v>1.409652496537026</v>
       </c>
       <c r="H8" t="n">
-        <v>15.26571389210541</v>
+        <v>14.43660363015982</v>
       </c>
       <c r="I8" t="n">
-        <v>57.46675794706643</v>
+        <v>54.34562787274375</v>
       </c>
       <c r="J8" t="n">
-        <v>126.5136955401032</v>
+        <v>119.6424935779595</v>
       </c>
       <c r="K8" t="n">
-        <v>189.6112343222658</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L8" t="n">
-        <v>235.2295027490224</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M8" t="n">
-        <v>261.7381456811576</v>
+        <v>247.5226439325573</v>
       </c>
       <c r="N8" t="n">
-        <v>265.9733425170853</v>
+        <v>251.5278190883431</v>
       </c>
       <c r="O8" t="n">
-        <v>251.1510852228465</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P8" t="n">
-        <v>214.3516406519833</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q8" t="n">
-        <v>160.9691552365286</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R8" t="n">
-        <v>93.63455635542213</v>
+        <v>88.54908363559406</v>
       </c>
       <c r="S8" t="n">
-        <v>33.9672847861689</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T8" t="n">
-        <v>6.525147082894319</v>
+        <v>6.170753803590836</v>
       </c>
       <c r="U8" t="n">
-        <v>0.119248833039759</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.797546882765323</v>
+        <v>0.7542305786895992</v>
       </c>
       <c r="H9" t="n">
-        <v>7.702623841444042</v>
+        <v>7.284279536291656</v>
       </c>
       <c r="I9" t="n">
-        <v>27.45939925310433</v>
+        <v>25.96802650312874</v>
       </c>
       <c r="J9" t="n">
-        <v>75.3506903581045</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K9" t="n">
-        <v>128.7863315033811</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L9" t="n">
-        <v>173.1691159267426</v>
+        <v>163.7639684124062</v>
       </c>
       <c r="M9" t="n">
-        <v>202.0801904269856</v>
+        <v>191.1048268899041</v>
       </c>
       <c r="N9" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O9" t="n">
-        <v>189.7566918832038</v>
+        <v>179.4506412376083</v>
       </c>
       <c r="P9" t="n">
-        <v>152.2964744817396</v>
+        <v>144.0249602411744</v>
       </c>
       <c r="Q9" t="n">
-        <v>101.8061599824647</v>
+        <v>96.27687176395656</v>
       </c>
       <c r="R9" t="n">
-        <v>49.5178669843242</v>
+        <v>46.8284564558332</v>
       </c>
       <c r="S9" t="n">
-        <v>14.81408354610149</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T9" t="n">
-        <v>3.214673619567244</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05247018965561338</v>
+        <v>0.04962043280852628</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6686365151742641</v>
+        <v>0.6323215809261378</v>
       </c>
       <c r="H10" t="n">
-        <v>5.944786471276643</v>
+        <v>5.621913692234211</v>
       </c>
       <c r="I10" t="n">
-        <v>20.10772356542242</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J10" t="n">
-        <v>47.27260162282047</v>
+        <v>44.70513577147794</v>
       </c>
       <c r="K10" t="n">
-        <v>77.68340603570086</v>
+        <v>73.46427094760035</v>
       </c>
       <c r="L10" t="n">
-        <v>99.40801426509016</v>
+        <v>94.00897394969145</v>
       </c>
       <c r="M10" t="n">
-        <v>104.811813010453</v>
+        <v>99.11928199917629</v>
       </c>
       <c r="N10" t="n">
-        <v>102.3196223629854</v>
+        <v>96.7624470157244</v>
       </c>
       <c r="O10" t="n">
-        <v>94.50873216299512</v>
+        <v>89.37578127490541</v>
       </c>
       <c r="P10" t="n">
-        <v>80.86854725344006</v>
+        <v>76.47642102401213</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.98919037518316</v>
+        <v>52.94830983555142</v>
       </c>
       <c r="R10" t="n">
-        <v>30.06432912774463</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S10" t="n">
-        <v>11.65251090535513</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T10" t="n">
-        <v>2.8569014739264</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03647108264586899</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.88035590775231</v>
+        <v>1.892357160517454</v>
       </c>
       <c r="H17" t="n">
-        <v>19.25719494026835</v>
+        <v>19.38010277014939</v>
       </c>
       <c r="I17" t="n">
-        <v>72.49242113362098</v>
+        <v>72.95509943084923</v>
       </c>
       <c r="J17" t="n">
-        <v>159.5928572255927</v>
+        <v>160.6114485524684</v>
       </c>
       <c r="K17" t="n">
-        <v>239.188322800748</v>
+        <v>240.7149271571723</v>
       </c>
       <c r="L17" t="n">
-        <v>296.7342649126228</v>
+        <v>298.6281526083584</v>
       </c>
       <c r="M17" t="n">
-        <v>330.174044287113</v>
+        <v>332.2813592617107</v>
       </c>
       <c r="N17" t="n">
-        <v>335.5166055100142</v>
+        <v>337.6580190440309</v>
       </c>
       <c r="O17" t="n">
-        <v>316.8188164523022</v>
+        <v>318.8408925291355</v>
       </c>
       <c r="P17" t="n">
-        <v>270.397529979667</v>
+        <v>272.1233251288608</v>
       </c>
       <c r="Q17" t="n">
-        <v>203.0572840332874</v>
+        <v>204.3532843178294</v>
       </c>
       <c r="R17" t="n">
-        <v>118.1169067903461</v>
+        <v>118.8707804843546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.8486102479058</v>
+        <v>43.12208879529153</v>
       </c>
       <c r="T17" t="n">
-        <v>8.231257986185739</v>
+        <v>8.283793470165161</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1513885728413963</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.006079106680871</v>
+        <v>1.012500343007052</v>
       </c>
       <c r="H18" t="n">
-        <v>9.716606109259992</v>
+        <v>9.778621733778635</v>
       </c>
       <c r="I18" t="n">
-        <v>34.63912713791596</v>
+        <v>34.86020917809368</v>
       </c>
       <c r="J18" t="n">
-        <v>95.05241244303791</v>
+        <v>95.65907845927592</v>
       </c>
       <c r="K18" t="n">
-        <v>162.4597125906563</v>
+        <v>163.4966014407484</v>
       </c>
       <c r="L18" t="n">
-        <v>202.635780428066</v>
+        <v>204.6906722031325</v>
       </c>
       <c r="M18" t="n">
-        <v>207.8710246109518</v>
+        <v>210.0124381449685</v>
       </c>
       <c r="N18" t="n">
-        <v>192.087253921875</v>
+        <v>194.2286674558917</v>
       </c>
       <c r="O18" t="n">
-        <v>208.5470075</v>
+        <v>210.6884210340167</v>
       </c>
       <c r="P18" t="n">
-        <v>192.1169830994376</v>
+        <v>193.3431576045659</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.425115442281</v>
+        <v>129.2447806266546</v>
       </c>
       <c r="R18" t="n">
-        <v>62.46515716743164</v>
+        <v>62.86383708599926</v>
       </c>
       <c r="S18" t="n">
-        <v>18.68747814383108</v>
+        <v>18.80674979225817</v>
       </c>
       <c r="T18" t="n">
-        <v>4.055204820349649</v>
+        <v>4.081086908874914</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.0666118646715166</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8488462754862111</v>
       </c>
       <c r="H19" t="n">
-        <v>7.499152202429723</v>
+        <v>7.547015067504683</v>
       </c>
       <c r="I19" t="n">
-        <v>25.36523055791157</v>
+        <v>25.52712253916716</v>
       </c>
       <c r="J19" t="n">
-        <v>59.632828914413</v>
+        <v>60.01343167687512</v>
       </c>
       <c r="K19" t="n">
-        <v>97.9950563875785</v>
+        <v>98.6205036428525</v>
       </c>
       <c r="L19" t="n">
-        <v>125.3999336590344</v>
+        <v>126.2002908118318</v>
       </c>
       <c r="M19" t="n">
-        <v>132.2166476753534</v>
+        <v>133.0605120746249</v>
       </c>
       <c r="N19" t="n">
-        <v>129.0728313123717</v>
+        <v>129.8966305023582</v>
       </c>
       <c r="O19" t="n">
-        <v>119.2196507600995</v>
+        <v>119.9805626478147</v>
       </c>
       <c r="P19" t="n">
-        <v>102.013007056365</v>
+        <v>102.6640986278959</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.62851834006149</v>
+        <v>71.07930039548629</v>
       </c>
       <c r="R19" t="n">
-        <v>37.92516032026317</v>
+        <v>38.16721525958909</v>
       </c>
       <c r="S19" t="n">
-        <v>14.69925845813677</v>
+        <v>14.79307554642787</v>
       </c>
       <c r="T19" t="n">
-        <v>3.60388705024741</v>
+        <v>3.626888631622901</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04630070593561156</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.88035590775231</v>
+        <v>1.892357160517454</v>
       </c>
       <c r="H20" t="n">
-        <v>19.25719494026835</v>
+        <v>19.38010277014939</v>
       </c>
       <c r="I20" t="n">
-        <v>72.49242113362098</v>
+        <v>72.95509943084923</v>
       </c>
       <c r="J20" t="n">
-        <v>159.5928572255927</v>
+        <v>160.6114485524684</v>
       </c>
       <c r="K20" t="n">
-        <v>239.188322800748</v>
+        <v>240.7149271571723</v>
       </c>
       <c r="L20" t="n">
-        <v>296.7342649126228</v>
+        <v>298.6281526083584</v>
       </c>
       <c r="M20" t="n">
-        <v>330.174044287113</v>
+        <v>332.2813592617107</v>
       </c>
       <c r="N20" t="n">
-        <v>335.5166055100142</v>
+        <v>337.6580190440309</v>
       </c>
       <c r="O20" t="n">
-        <v>316.8188164523022</v>
+        <v>318.8408925291355</v>
       </c>
       <c r="P20" t="n">
-        <v>270.397529979667</v>
+        <v>272.1233251288608</v>
       </c>
       <c r="Q20" t="n">
-        <v>203.0572840332874</v>
+        <v>204.3532843178294</v>
       </c>
       <c r="R20" t="n">
-        <v>118.1169067903461</v>
+        <v>118.8707804843546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.8486102479058</v>
+        <v>43.12208879529153</v>
       </c>
       <c r="T20" t="n">
-        <v>8.231257986185739</v>
+        <v>8.283793470165161</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1513885728413963</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.006079106680871</v>
+        <v>1.012500343007052</v>
       </c>
       <c r="H21" t="n">
-        <v>9.716606109259992</v>
+        <v>9.778621733778635</v>
       </c>
       <c r="I21" t="n">
-        <v>34.63912713791596</v>
+        <v>34.86020917809368</v>
       </c>
       <c r="J21" t="n">
-        <v>95.05241244303791</v>
+        <v>95.65907845927592</v>
       </c>
       <c r="K21" t="n">
-        <v>162.4597125906563</v>
+        <v>163.4966014407484</v>
       </c>
       <c r="L21" t="n">
-        <v>202.635780428066</v>
+        <v>204.6906722031325</v>
       </c>
       <c r="M21" t="n">
-        <v>207.8710246109518</v>
+        <v>210.0124381449685</v>
       </c>
       <c r="N21" t="n">
-        <v>192.087253921875</v>
+        <v>194.2286674558917</v>
       </c>
       <c r="O21" t="n">
-        <v>208.5470075</v>
+        <v>210.6884210340167</v>
       </c>
       <c r="P21" t="n">
-        <v>192.1169830994376</v>
+        <v>193.3431576045659</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.425115442281</v>
+        <v>129.2447806266546</v>
       </c>
       <c r="R21" t="n">
-        <v>62.46515716743164</v>
+        <v>62.86383708599926</v>
       </c>
       <c r="S21" t="n">
-        <v>18.68747814383108</v>
+        <v>18.80674979225817</v>
       </c>
       <c r="T21" t="n">
-        <v>4.055204820349649</v>
+        <v>4.081086908874914</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.0666118646715166</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8488462754862111</v>
       </c>
       <c r="H22" t="n">
-        <v>7.499152202429723</v>
+        <v>7.547015067504683</v>
       </c>
       <c r="I22" t="n">
-        <v>25.36523055791157</v>
+        <v>25.52712253916716</v>
       </c>
       <c r="J22" t="n">
-        <v>59.632828914413</v>
+        <v>60.01343167687512</v>
       </c>
       <c r="K22" t="n">
-        <v>97.9950563875785</v>
+        <v>98.6205036428525</v>
       </c>
       <c r="L22" t="n">
-        <v>125.3999336590344</v>
+        <v>126.2002908118318</v>
       </c>
       <c r="M22" t="n">
-        <v>132.2166476753534</v>
+        <v>133.0605120746249</v>
       </c>
       <c r="N22" t="n">
-        <v>129.0728313123717</v>
+        <v>129.8966305023582</v>
       </c>
       <c r="O22" t="n">
-        <v>119.2196507600995</v>
+        <v>119.9805626478147</v>
       </c>
       <c r="P22" t="n">
-        <v>102.013007056365</v>
+        <v>102.6640986278959</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.62851834006149</v>
+        <v>71.07930039548629</v>
       </c>
       <c r="R22" t="n">
-        <v>37.92516032026317</v>
+        <v>38.16721525958909</v>
       </c>
       <c r="S22" t="n">
-        <v>14.69925845813677</v>
+        <v>14.79307554642787</v>
       </c>
       <c r="T22" t="n">
-        <v>3.60388705024741</v>
+        <v>3.626888631622901</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04630070593561156</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.88035590775231</v>
+        <v>1.892357160517454</v>
       </c>
       <c r="H23" t="n">
-        <v>19.25719494026835</v>
+        <v>19.38010277014939</v>
       </c>
       <c r="I23" t="n">
-        <v>72.49242113362098</v>
+        <v>72.95509943084923</v>
       </c>
       <c r="J23" t="n">
-        <v>159.5928572255927</v>
+        <v>160.6114485524684</v>
       </c>
       <c r="K23" t="n">
-        <v>239.188322800748</v>
+        <v>240.7149271571723</v>
       </c>
       <c r="L23" t="n">
-        <v>296.7342649126228</v>
+        <v>298.6281526083584</v>
       </c>
       <c r="M23" t="n">
-        <v>330.174044287113</v>
+        <v>332.2813592617107</v>
       </c>
       <c r="N23" t="n">
-        <v>335.5166055100142</v>
+        <v>337.6580190440309</v>
       </c>
       <c r="O23" t="n">
-        <v>316.8188164523022</v>
+        <v>318.8408925291355</v>
       </c>
       <c r="P23" t="n">
-        <v>270.397529979667</v>
+        <v>272.1233251288608</v>
       </c>
       <c r="Q23" t="n">
-        <v>203.0572840332874</v>
+        <v>204.3532843178294</v>
       </c>
       <c r="R23" t="n">
-        <v>118.1169067903461</v>
+        <v>118.8707804843546</v>
       </c>
       <c r="S23" t="n">
-        <v>42.8486102479058</v>
+        <v>43.12208879529153</v>
       </c>
       <c r="T23" t="n">
-        <v>8.231257986185739</v>
+        <v>8.283793470165161</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1513885728413963</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.006079106680871</v>
+        <v>1.012500343007052</v>
       </c>
       <c r="H24" t="n">
-        <v>9.716606109259992</v>
+        <v>9.778621733778635</v>
       </c>
       <c r="I24" t="n">
-        <v>34.63912713791596</v>
+        <v>34.86020917809368</v>
       </c>
       <c r="J24" t="n">
-        <v>95.05241244303791</v>
+        <v>95.65907845927592</v>
       </c>
       <c r="K24" t="n">
-        <v>162.4597125906563</v>
+        <v>163.4966014407484</v>
       </c>
       <c r="L24" t="n">
-        <v>202.635780428066</v>
+        <v>206.9186074960994</v>
       </c>
       <c r="M24" t="n">
-        <v>207.8710246109518</v>
+        <v>212.1538516789852</v>
       </c>
       <c r="N24" t="n">
-        <v>192.087253921875</v>
+        <v>196.197037472008</v>
       </c>
       <c r="O24" t="n">
-        <v>208.5470075</v>
+        <v>212.8298345680334</v>
       </c>
       <c r="P24" t="n">
-        <v>192.1169830994376</v>
+        <v>193.3431576045659</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.425115442281</v>
+        <v>129.2447806266546</v>
       </c>
       <c r="R24" t="n">
-        <v>62.46515716743164</v>
+        <v>62.86383708599926</v>
       </c>
       <c r="S24" t="n">
-        <v>18.68747814383108</v>
+        <v>18.80674979225817</v>
       </c>
       <c r="T24" t="n">
-        <v>4.055204820349649</v>
+        <v>4.081086908874914</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.0666118646715166</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8488462754862111</v>
       </c>
       <c r="H25" t="n">
-        <v>7.499152202429723</v>
+        <v>7.547015067504683</v>
       </c>
       <c r="I25" t="n">
-        <v>25.36523055791157</v>
+        <v>25.52712253916716</v>
       </c>
       <c r="J25" t="n">
-        <v>59.632828914413</v>
+        <v>60.01343167687512</v>
       </c>
       <c r="K25" t="n">
-        <v>97.9950563875785</v>
+        <v>98.6205036428525</v>
       </c>
       <c r="L25" t="n">
-        <v>125.3999336590344</v>
+        <v>126.2002908118318</v>
       </c>
       <c r="M25" t="n">
-        <v>132.2166476753534</v>
+        <v>133.0605120746249</v>
       </c>
       <c r="N25" t="n">
-        <v>129.0728313123717</v>
+        <v>129.8966305023582</v>
       </c>
       <c r="O25" t="n">
-        <v>119.2196507600995</v>
+        <v>119.9805626478147</v>
       </c>
       <c r="P25" t="n">
-        <v>102.013007056365</v>
+        <v>102.6640986278959</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.62851834006149</v>
+        <v>71.07930039548629</v>
       </c>
       <c r="R25" t="n">
-        <v>37.92516032026317</v>
+        <v>38.16721525958909</v>
       </c>
       <c r="S25" t="n">
-        <v>14.69925845813677</v>
+        <v>14.79307554642787</v>
       </c>
       <c r="T25" t="n">
-        <v>3.60388705024741</v>
+        <v>3.626888631622901</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04630070593561156</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.88035590775231</v>
+        <v>1.892357160517454</v>
       </c>
       <c r="H26" t="n">
-        <v>19.25719494026835</v>
+        <v>19.38010277014939</v>
       </c>
       <c r="I26" t="n">
-        <v>72.49242113362098</v>
+        <v>72.95509943084923</v>
       </c>
       <c r="J26" t="n">
-        <v>159.5928572255927</v>
+        <v>160.6114485524684</v>
       </c>
       <c r="K26" t="n">
-        <v>239.188322800748</v>
+        <v>240.7149271571723</v>
       </c>
       <c r="L26" t="n">
-        <v>296.7342649126228</v>
+        <v>298.6281526083584</v>
       </c>
       <c r="M26" t="n">
-        <v>330.174044287113</v>
+        <v>332.2813592617107</v>
       </c>
       <c r="N26" t="n">
-        <v>335.5166055100142</v>
+        <v>337.6580190440309</v>
       </c>
       <c r="O26" t="n">
-        <v>316.8188164523022</v>
+        <v>318.8408925291355</v>
       </c>
       <c r="P26" t="n">
-        <v>270.397529979667</v>
+        <v>272.1233251288608</v>
       </c>
       <c r="Q26" t="n">
-        <v>203.0572840332874</v>
+        <v>204.3532843178294</v>
       </c>
       <c r="R26" t="n">
-        <v>118.1169067903461</v>
+        <v>118.8707804843546</v>
       </c>
       <c r="S26" t="n">
-        <v>42.8486102479058</v>
+        <v>43.12208879529153</v>
       </c>
       <c r="T26" t="n">
-        <v>8.231257986185739</v>
+        <v>8.283793470165161</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1513885728413963</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.006079106680871</v>
+        <v>1.012500343007052</v>
       </c>
       <c r="H27" t="n">
-        <v>9.716606109259992</v>
+        <v>9.778621733778635</v>
       </c>
       <c r="I27" t="n">
-        <v>34.63912713791596</v>
+        <v>34.86020917809368</v>
       </c>
       <c r="J27" t="n">
-        <v>95.05241244303791</v>
+        <v>95.65907845927592</v>
       </c>
       <c r="K27" t="n">
-        <v>162.4597125906563</v>
+        <v>163.4966014407484</v>
       </c>
       <c r="L27" t="n">
-        <v>202.635780428066</v>
+        <v>206.9186074960994</v>
       </c>
       <c r="M27" t="n">
-        <v>207.8710246109518</v>
+        <v>212.1538516789852</v>
       </c>
       <c r="N27" t="n">
-        <v>192.087253921875</v>
+        <v>196.3700809899084</v>
       </c>
       <c r="O27" t="n">
-        <v>208.5470075</v>
+        <v>212.656791050133</v>
       </c>
       <c r="P27" t="n">
-        <v>192.1169830994376</v>
+        <v>193.3431576045659</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.425115442281</v>
+        <v>129.2447806266546</v>
       </c>
       <c r="R27" t="n">
-        <v>62.46515716743164</v>
+        <v>62.86383708599926</v>
       </c>
       <c r="S27" t="n">
-        <v>18.68747814383108</v>
+        <v>18.80674979225817</v>
       </c>
       <c r="T27" t="n">
-        <v>4.055204820349649</v>
+        <v>4.081086908874914</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.0666118646715166</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8488462754862111</v>
       </c>
       <c r="H28" t="n">
-        <v>7.499152202429723</v>
+        <v>7.547015067504683</v>
       </c>
       <c r="I28" t="n">
-        <v>25.36523055791157</v>
+        <v>25.52712253916716</v>
       </c>
       <c r="J28" t="n">
-        <v>59.632828914413</v>
+        <v>60.01343167687512</v>
       </c>
       <c r="K28" t="n">
-        <v>97.9950563875785</v>
+        <v>98.6205036428525</v>
       </c>
       <c r="L28" t="n">
-        <v>125.3999336590344</v>
+        <v>126.2002908118318</v>
       </c>
       <c r="M28" t="n">
-        <v>132.2166476753534</v>
+        <v>133.0605120746249</v>
       </c>
       <c r="N28" t="n">
-        <v>129.0728313123717</v>
+        <v>129.8966305023582</v>
       </c>
       <c r="O28" t="n">
-        <v>119.2196507600995</v>
+        <v>119.9805626478147</v>
       </c>
       <c r="P28" t="n">
-        <v>102.013007056365</v>
+        <v>102.6640986278959</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.62851834006149</v>
+        <v>71.07930039548629</v>
       </c>
       <c r="R28" t="n">
-        <v>37.92516032026317</v>
+        <v>38.16721525958909</v>
       </c>
       <c r="S28" t="n">
-        <v>14.69925845813677</v>
+        <v>14.79307554642787</v>
       </c>
       <c r="T28" t="n">
-        <v>3.60388705024741</v>
+        <v>3.626888631622901</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04630070593561156</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.88035590775231</v>
+        <v>1.892357160517454</v>
       </c>
       <c r="H29" t="n">
-        <v>19.25719494026835</v>
+        <v>19.38010277014939</v>
       </c>
       <c r="I29" t="n">
-        <v>72.49242113362098</v>
+        <v>72.95509943084923</v>
       </c>
       <c r="J29" t="n">
-        <v>159.5928572255927</v>
+        <v>160.6114485524684</v>
       </c>
       <c r="K29" t="n">
-        <v>239.188322800748</v>
+        <v>240.7149271571723</v>
       </c>
       <c r="L29" t="n">
-        <v>296.7342649126228</v>
+        <v>298.6281526083584</v>
       </c>
       <c r="M29" t="n">
-        <v>330.174044287113</v>
+        <v>332.2813592617107</v>
       </c>
       <c r="N29" t="n">
-        <v>335.5166055100142</v>
+        <v>337.6580190440309</v>
       </c>
       <c r="O29" t="n">
-        <v>316.8188164523022</v>
+        <v>318.8408925291355</v>
       </c>
       <c r="P29" t="n">
-        <v>270.397529979667</v>
+        <v>272.1233251288608</v>
       </c>
       <c r="Q29" t="n">
-        <v>203.0572840332874</v>
+        <v>204.3532843178294</v>
       </c>
       <c r="R29" t="n">
-        <v>118.1169067903461</v>
+        <v>118.8707804843546</v>
       </c>
       <c r="S29" t="n">
-        <v>42.8486102479058</v>
+        <v>43.12208879529153</v>
       </c>
       <c r="T29" t="n">
-        <v>8.231257986185739</v>
+        <v>8.283793470165161</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1513885728413963</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.006079106680871</v>
+        <v>1.012500343007052</v>
       </c>
       <c r="H30" t="n">
-        <v>9.716606109259992</v>
+        <v>9.778621733778635</v>
       </c>
       <c r="I30" t="n">
-        <v>34.63912713791596</v>
+        <v>34.86020917809368</v>
       </c>
       <c r="J30" t="n">
-        <v>95.05241244303791</v>
+        <v>95.65907845927592</v>
       </c>
       <c r="K30" t="n">
-        <v>162.4597125906563</v>
+        <v>163.4966014407484</v>
       </c>
       <c r="L30" t="n">
-        <v>202.635780428066</v>
+        <v>206.9186074960994</v>
       </c>
       <c r="M30" t="n">
-        <v>207.8710246109518</v>
+        <v>212.1538516789852</v>
       </c>
       <c r="N30" t="n">
-        <v>192.087253921875</v>
+        <v>196.3700809899084</v>
       </c>
       <c r="O30" t="n">
-        <v>208.5470075</v>
+        <v>212.656791050133</v>
       </c>
       <c r="P30" t="n">
-        <v>192.1169830994376</v>
+        <v>193.3431576045659</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.425115442281</v>
+        <v>129.2447806266546</v>
       </c>
       <c r="R30" t="n">
-        <v>62.46515716743164</v>
+        <v>62.86383708599926</v>
       </c>
       <c r="S30" t="n">
-        <v>18.68747814383108</v>
+        <v>18.80674979225817</v>
       </c>
       <c r="T30" t="n">
-        <v>4.055204820349649</v>
+        <v>4.081086908874914</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.0666118646715166</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8488462754862111</v>
       </c>
       <c r="H31" t="n">
-        <v>7.499152202429723</v>
+        <v>7.547015067504683</v>
       </c>
       <c r="I31" t="n">
-        <v>25.36523055791157</v>
+        <v>25.52712253916716</v>
       </c>
       <c r="J31" t="n">
-        <v>59.632828914413</v>
+        <v>60.01343167687512</v>
       </c>
       <c r="K31" t="n">
-        <v>97.9950563875785</v>
+        <v>98.6205036428525</v>
       </c>
       <c r="L31" t="n">
-        <v>125.3999336590344</v>
+        <v>126.2002908118318</v>
       </c>
       <c r="M31" t="n">
-        <v>132.2166476753534</v>
+        <v>133.0605120746249</v>
       </c>
       <c r="N31" t="n">
-        <v>129.0728313123717</v>
+        <v>129.8966305023582</v>
       </c>
       <c r="O31" t="n">
-        <v>119.2196507600995</v>
+        <v>119.9805626478147</v>
       </c>
       <c r="P31" t="n">
-        <v>102.013007056365</v>
+        <v>102.6640986278959</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.62851834006149</v>
+        <v>71.07930039548629</v>
       </c>
       <c r="R31" t="n">
-        <v>37.92516032026317</v>
+        <v>38.16721525958909</v>
       </c>
       <c r="S31" t="n">
-        <v>14.69925845813677</v>
+        <v>14.79307554642787</v>
       </c>
       <c r="T31" t="n">
-        <v>3.60388705024741</v>
+        <v>3.626888631622901</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04630070593561156</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.88035590775231</v>
+        <v>1.892357160517454</v>
       </c>
       <c r="H32" t="n">
-        <v>19.25719494026835</v>
+        <v>19.38010277014939</v>
       </c>
       <c r="I32" t="n">
-        <v>72.49242113362098</v>
+        <v>72.95509943084923</v>
       </c>
       <c r="J32" t="n">
-        <v>159.5928572255927</v>
+        <v>160.6114485524684</v>
       </c>
       <c r="K32" t="n">
-        <v>239.188322800748</v>
+        <v>240.7149271571723</v>
       </c>
       <c r="L32" t="n">
-        <v>296.7342649126228</v>
+        <v>298.6281526083584</v>
       </c>
       <c r="M32" t="n">
-        <v>330.174044287113</v>
+        <v>332.2813592617107</v>
       </c>
       <c r="N32" t="n">
-        <v>335.5166055100142</v>
+        <v>337.6580190440309</v>
       </c>
       <c r="O32" t="n">
-        <v>316.8188164523022</v>
+        <v>318.8408925291355</v>
       </c>
       <c r="P32" t="n">
-        <v>270.397529979667</v>
+        <v>272.1233251288608</v>
       </c>
       <c r="Q32" t="n">
-        <v>203.0572840332874</v>
+        <v>204.3532843178294</v>
       </c>
       <c r="R32" t="n">
-        <v>118.1169067903461</v>
+        <v>118.8707804843546</v>
       </c>
       <c r="S32" t="n">
-        <v>42.8486102479058</v>
+        <v>43.12208879529153</v>
       </c>
       <c r="T32" t="n">
-        <v>8.231257986185739</v>
+        <v>8.283793470165161</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1513885728413963</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.006079106680871</v>
+        <v>1.012500343007052</v>
       </c>
       <c r="H33" t="n">
-        <v>9.716606109259992</v>
+        <v>9.778621733778635</v>
       </c>
       <c r="I33" t="n">
-        <v>34.63912713791596</v>
+        <v>34.86020917809368</v>
       </c>
       <c r="J33" t="n">
-        <v>95.05241244303791</v>
+        <v>95.65907845927592</v>
       </c>
       <c r="K33" t="n">
-        <v>162.4597125906563</v>
+        <v>163.4966014407484</v>
       </c>
       <c r="L33" t="n">
-        <v>202.635780428066</v>
+        <v>206.9186074960994</v>
       </c>
       <c r="M33" t="n">
-        <v>207.8710246109518</v>
+        <v>212.1538516789852</v>
       </c>
       <c r="N33" t="n">
-        <v>192.087253921875</v>
+        <v>196.197037472008</v>
       </c>
       <c r="O33" t="n">
-        <v>208.5470075</v>
+        <v>212.8298345680334</v>
       </c>
       <c r="P33" t="n">
-        <v>192.1169830994376</v>
+        <v>193.3431576045659</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.425115442281</v>
+        <v>129.2447806266546</v>
       </c>
       <c r="R33" t="n">
-        <v>62.46515716743164</v>
+        <v>62.86383708599926</v>
       </c>
       <c r="S33" t="n">
-        <v>18.68747814383108</v>
+        <v>18.80674979225817</v>
       </c>
       <c r="T33" t="n">
-        <v>4.055204820349649</v>
+        <v>4.081086908874914</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.0666118646715166</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8488462754862111</v>
       </c>
       <c r="H34" t="n">
-        <v>7.499152202429723</v>
+        <v>7.547015067504683</v>
       </c>
       <c r="I34" t="n">
-        <v>25.36523055791157</v>
+        <v>25.52712253916716</v>
       </c>
       <c r="J34" t="n">
-        <v>59.632828914413</v>
+        <v>60.01343167687512</v>
       </c>
       <c r="K34" t="n">
-        <v>97.9950563875785</v>
+        <v>98.6205036428525</v>
       </c>
       <c r="L34" t="n">
-        <v>125.3999336590344</v>
+        <v>126.2002908118318</v>
       </c>
       <c r="M34" t="n">
-        <v>132.2166476753534</v>
+        <v>133.0605120746249</v>
       </c>
       <c r="N34" t="n">
-        <v>129.0728313123717</v>
+        <v>129.8966305023582</v>
       </c>
       <c r="O34" t="n">
-        <v>119.2196507600995</v>
+        <v>119.9805626478147</v>
       </c>
       <c r="P34" t="n">
-        <v>102.013007056365</v>
+        <v>102.6640986278959</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.62851834006149</v>
+        <v>71.07930039548629</v>
       </c>
       <c r="R34" t="n">
-        <v>37.92516032026317</v>
+        <v>38.16721525958909</v>
       </c>
       <c r="S34" t="n">
-        <v>14.69925845813677</v>
+        <v>14.79307554642787</v>
       </c>
       <c r="T34" t="n">
-        <v>3.60388705024741</v>
+        <v>3.626888631622901</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04630070593561156</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.88035590775231</v>
+        <v>1.892357160517454</v>
       </c>
       <c r="H35" t="n">
-        <v>19.25719494026835</v>
+        <v>19.38010277014939</v>
       </c>
       <c r="I35" t="n">
-        <v>72.49242113362098</v>
+        <v>72.95509943084923</v>
       </c>
       <c r="J35" t="n">
-        <v>159.5928572255927</v>
+        <v>160.6114485524684</v>
       </c>
       <c r="K35" t="n">
-        <v>239.188322800748</v>
+        <v>240.7149271571723</v>
       </c>
       <c r="L35" t="n">
-        <v>296.7342649126228</v>
+        <v>298.6281526083584</v>
       </c>
       <c r="M35" t="n">
-        <v>330.174044287113</v>
+        <v>332.2813592617107</v>
       </c>
       <c r="N35" t="n">
-        <v>335.5166055100142</v>
+        <v>337.6580190440309</v>
       </c>
       <c r="O35" t="n">
-        <v>316.8188164523022</v>
+        <v>318.8408925291355</v>
       </c>
       <c r="P35" t="n">
-        <v>270.397529979667</v>
+        <v>272.1233251288608</v>
       </c>
       <c r="Q35" t="n">
-        <v>203.0572840332874</v>
+        <v>204.3532843178294</v>
       </c>
       <c r="R35" t="n">
-        <v>118.1169067903461</v>
+        <v>118.8707804843546</v>
       </c>
       <c r="S35" t="n">
-        <v>42.8486102479058</v>
+        <v>43.12208879529153</v>
       </c>
       <c r="T35" t="n">
-        <v>8.231257986185739</v>
+        <v>8.283793470165161</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1513885728413963</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.006079106680871</v>
+        <v>1.012500343007052</v>
       </c>
       <c r="H36" t="n">
-        <v>9.716606109259992</v>
+        <v>9.778621733778635</v>
       </c>
       <c r="I36" t="n">
-        <v>34.63912713791596</v>
+        <v>34.86020917809368</v>
       </c>
       <c r="J36" t="n">
-        <v>95.05241244303791</v>
+        <v>95.65907845927592</v>
       </c>
       <c r="K36" t="n">
-        <v>162.4597125906563</v>
+        <v>163.4966014407484</v>
       </c>
       <c r="L36" t="n">
-        <v>202.635780428066</v>
+        <v>206.745563978199</v>
       </c>
       <c r="M36" t="n">
-        <v>207.8710246109518</v>
+        <v>212.1538516789852</v>
       </c>
       <c r="N36" t="n">
-        <v>192.087253921875</v>
+        <v>196.3700809899084</v>
       </c>
       <c r="O36" t="n">
-        <v>208.5470075</v>
+        <v>212.8298345680334</v>
       </c>
       <c r="P36" t="n">
-        <v>192.1169830994376</v>
+        <v>193.3431576045659</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.425115442281</v>
+        <v>129.2447806266546</v>
       </c>
       <c r="R36" t="n">
-        <v>62.46515716743164</v>
+        <v>62.86383708599926</v>
       </c>
       <c r="S36" t="n">
-        <v>18.68747814383108</v>
+        <v>18.80674979225817</v>
       </c>
       <c r="T36" t="n">
-        <v>4.055204820349649</v>
+        <v>4.081086908874914</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.0666118646715166</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8488462754862111</v>
       </c>
       <c r="H37" t="n">
-        <v>7.499152202429723</v>
+        <v>7.547015067504683</v>
       </c>
       <c r="I37" t="n">
-        <v>25.36523055791157</v>
+        <v>25.52712253916716</v>
       </c>
       <c r="J37" t="n">
-        <v>59.632828914413</v>
+        <v>60.01343167687512</v>
       </c>
       <c r="K37" t="n">
-        <v>97.9950563875785</v>
+        <v>98.6205036428525</v>
       </c>
       <c r="L37" t="n">
-        <v>125.3999336590344</v>
+        <v>126.2002908118318</v>
       </c>
       <c r="M37" t="n">
-        <v>132.2166476753534</v>
+        <v>133.0605120746249</v>
       </c>
       <c r="N37" t="n">
-        <v>129.0728313123717</v>
+        <v>129.8966305023582</v>
       </c>
       <c r="O37" t="n">
-        <v>119.2196507600995</v>
+        <v>119.9805626478147</v>
       </c>
       <c r="P37" t="n">
-        <v>102.013007056365</v>
+        <v>102.6640986278959</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.62851834006149</v>
+        <v>71.07930039548629</v>
       </c>
       <c r="R37" t="n">
-        <v>37.92516032026317</v>
+        <v>38.16721525958909</v>
       </c>
       <c r="S37" t="n">
-        <v>14.69925845813677</v>
+        <v>14.79307554642787</v>
       </c>
       <c r="T37" t="n">
-        <v>3.60388705024741</v>
+        <v>3.626888631622901</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04630070593561156</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.88035590775231</v>
+        <v>1.892357160517454</v>
       </c>
       <c r="H38" t="n">
-        <v>19.25719494026835</v>
+        <v>19.38010277014939</v>
       </c>
       <c r="I38" t="n">
-        <v>72.49242113362098</v>
+        <v>72.95509943084923</v>
       </c>
       <c r="J38" t="n">
-        <v>159.5928572255927</v>
+        <v>160.6114485524684</v>
       </c>
       <c r="K38" t="n">
-        <v>239.188322800748</v>
+        <v>240.7149271571723</v>
       </c>
       <c r="L38" t="n">
-        <v>296.7342649126228</v>
+        <v>298.6281526083584</v>
       </c>
       <c r="M38" t="n">
-        <v>330.174044287113</v>
+        <v>332.2813592617107</v>
       </c>
       <c r="N38" t="n">
-        <v>335.5166055100142</v>
+        <v>337.6580190440309</v>
       </c>
       <c r="O38" t="n">
-        <v>316.8188164523022</v>
+        <v>318.8408925291355</v>
       </c>
       <c r="P38" t="n">
-        <v>270.397529979667</v>
+        <v>272.1233251288608</v>
       </c>
       <c r="Q38" t="n">
-        <v>203.0572840332874</v>
+        <v>204.3532843178294</v>
       </c>
       <c r="R38" t="n">
-        <v>118.1169067903461</v>
+        <v>118.8707804843546</v>
       </c>
       <c r="S38" t="n">
-        <v>42.8486102479058</v>
+        <v>43.12208879529153</v>
       </c>
       <c r="T38" t="n">
-        <v>8.231257986185739</v>
+        <v>8.283793470165161</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1513885728413963</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.006079106680871</v>
+        <v>1.012500343007052</v>
       </c>
       <c r="H39" t="n">
-        <v>9.716606109259992</v>
+        <v>9.778621733778635</v>
       </c>
       <c r="I39" t="n">
-        <v>34.63912713791596</v>
+        <v>34.86020917809368</v>
       </c>
       <c r="J39" t="n">
-        <v>95.05241244303791</v>
+        <v>95.65907845927592</v>
       </c>
       <c r="K39" t="n">
-        <v>162.4597125906563</v>
+        <v>163.4966014407484</v>
       </c>
       <c r="L39" t="n">
-        <v>202.635780428066</v>
+        <v>206.745563978199</v>
       </c>
       <c r="M39" t="n">
-        <v>207.8710246109518</v>
+        <v>212.1538516789852</v>
       </c>
       <c r="N39" t="n">
-        <v>192.087253921875</v>
+        <v>196.3700809899084</v>
       </c>
       <c r="O39" t="n">
-        <v>208.5470075</v>
+        <v>212.8298345680334</v>
       </c>
       <c r="P39" t="n">
-        <v>192.1169830994376</v>
+        <v>193.3431576045659</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.425115442281</v>
+        <v>129.2447806266546</v>
       </c>
       <c r="R39" t="n">
-        <v>62.46515716743164</v>
+        <v>62.86383708599926</v>
       </c>
       <c r="S39" t="n">
-        <v>18.68747814383108</v>
+        <v>18.80674979225817</v>
       </c>
       <c r="T39" t="n">
-        <v>4.055204820349649</v>
+        <v>4.081086908874914</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.0666118646715166</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8488462754862111</v>
       </c>
       <c r="H40" t="n">
-        <v>7.499152202429723</v>
+        <v>7.547015067504683</v>
       </c>
       <c r="I40" t="n">
-        <v>25.36523055791157</v>
+        <v>25.52712253916716</v>
       </c>
       <c r="J40" t="n">
-        <v>59.632828914413</v>
+        <v>60.01343167687512</v>
       </c>
       <c r="K40" t="n">
-        <v>97.9950563875785</v>
+        <v>98.6205036428525</v>
       </c>
       <c r="L40" t="n">
-        <v>125.3999336590344</v>
+        <v>126.2002908118318</v>
       </c>
       <c r="M40" t="n">
-        <v>132.2166476753534</v>
+        <v>133.0605120746249</v>
       </c>
       <c r="N40" t="n">
-        <v>129.0728313123717</v>
+        <v>129.8966305023582</v>
       </c>
       <c r="O40" t="n">
-        <v>119.2196507600995</v>
+        <v>119.9805626478147</v>
       </c>
       <c r="P40" t="n">
-        <v>102.013007056365</v>
+        <v>102.6640986278959</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.62851834006149</v>
+        <v>71.07930039548629</v>
       </c>
       <c r="R40" t="n">
-        <v>37.92516032026317</v>
+        <v>38.16721525958909</v>
       </c>
       <c r="S40" t="n">
-        <v>14.69925845813677</v>
+        <v>14.79307554642787</v>
       </c>
       <c r="T40" t="n">
-        <v>3.60388705024741</v>
+        <v>3.626888631622901</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04630070593561156</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.88035590775231</v>
+        <v>1.892357160517454</v>
       </c>
       <c r="H41" t="n">
-        <v>19.25719494026835</v>
+        <v>19.38010277014939</v>
       </c>
       <c r="I41" t="n">
-        <v>72.49242113362098</v>
+        <v>72.95509943084923</v>
       </c>
       <c r="J41" t="n">
-        <v>159.5928572255927</v>
+        <v>160.6114485524684</v>
       </c>
       <c r="K41" t="n">
-        <v>239.188322800748</v>
+        <v>240.7149271571723</v>
       </c>
       <c r="L41" t="n">
-        <v>296.7342649126228</v>
+        <v>298.6281526083584</v>
       </c>
       <c r="M41" t="n">
-        <v>330.174044287113</v>
+        <v>332.2813592617107</v>
       </c>
       <c r="N41" t="n">
-        <v>335.5166055100142</v>
+        <v>337.6580190440309</v>
       </c>
       <c r="O41" t="n">
-        <v>316.8188164523022</v>
+        <v>318.8408925291355</v>
       </c>
       <c r="P41" t="n">
-        <v>270.397529979667</v>
+        <v>272.1233251288608</v>
       </c>
       <c r="Q41" t="n">
-        <v>203.0572840332874</v>
+        <v>204.3532843178294</v>
       </c>
       <c r="R41" t="n">
-        <v>118.1169067903461</v>
+        <v>118.8707804843546</v>
       </c>
       <c r="S41" t="n">
-        <v>42.8486102479058</v>
+        <v>43.12208879529153</v>
       </c>
       <c r="T41" t="n">
-        <v>8.231257986185739</v>
+        <v>8.283793470165161</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1513885728413963</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.006079106680871</v>
+        <v>1.012500343007052</v>
       </c>
       <c r="H42" t="n">
-        <v>9.716606109259992</v>
+        <v>9.778621733778635</v>
       </c>
       <c r="I42" t="n">
-        <v>34.63912713791596</v>
+        <v>34.86020917809368</v>
       </c>
       <c r="J42" t="n">
-        <v>95.05241244303791</v>
+        <v>95.65907845927592</v>
       </c>
       <c r="K42" t="n">
-        <v>162.4597125906563</v>
+        <v>163.4966014407484</v>
       </c>
       <c r="L42" t="n">
-        <v>202.635780428066</v>
+        <v>204.6906722031325</v>
       </c>
       <c r="M42" t="n">
-        <v>207.8710246109518</v>
+        <v>210.0124381449685</v>
       </c>
       <c r="N42" t="n">
-        <v>192.087253921875</v>
+        <v>194.2286674558917</v>
       </c>
       <c r="O42" t="n">
-        <v>208.5470075</v>
+        <v>210.6884210340167</v>
       </c>
       <c r="P42" t="n">
-        <v>192.1169830994376</v>
+        <v>193.3431576045659</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.425115442281</v>
+        <v>129.2447806266546</v>
       </c>
       <c r="R42" t="n">
-        <v>62.46515716743164</v>
+        <v>62.86383708599926</v>
       </c>
       <c r="S42" t="n">
-        <v>18.68747814383108</v>
+        <v>18.80674979225817</v>
       </c>
       <c r="T42" t="n">
-        <v>4.055204820349649</v>
+        <v>4.081086908874914</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.0666118646715166</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8488462754862111</v>
       </c>
       <c r="H43" t="n">
-        <v>7.499152202429723</v>
+        <v>7.547015067504683</v>
       </c>
       <c r="I43" t="n">
-        <v>25.36523055791157</v>
+        <v>25.52712253916716</v>
       </c>
       <c r="J43" t="n">
-        <v>59.632828914413</v>
+        <v>60.01343167687512</v>
       </c>
       <c r="K43" t="n">
-        <v>97.9950563875785</v>
+        <v>98.6205036428525</v>
       </c>
       <c r="L43" t="n">
-        <v>125.3999336590344</v>
+        <v>126.2002908118318</v>
       </c>
       <c r="M43" t="n">
-        <v>132.2166476753534</v>
+        <v>133.0605120746249</v>
       </c>
       <c r="N43" t="n">
-        <v>129.0728313123717</v>
+        <v>129.8966305023582</v>
       </c>
       <c r="O43" t="n">
-        <v>119.2196507600995</v>
+        <v>119.9805626478147</v>
       </c>
       <c r="P43" t="n">
-        <v>102.013007056365</v>
+        <v>102.6640986278959</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.62851834006149</v>
+        <v>71.07930039548629</v>
       </c>
       <c r="R43" t="n">
-        <v>37.92516032026317</v>
+        <v>38.16721525958909</v>
       </c>
       <c r="S43" t="n">
-        <v>14.69925845813677</v>
+        <v>14.79307554642787</v>
       </c>
       <c r="T43" t="n">
-        <v>3.60388705024741</v>
+        <v>3.626888631622901</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04630070593561156</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.88035590775231</v>
+        <v>1.892357160517454</v>
       </c>
       <c r="H44" t="n">
-        <v>19.25719494026835</v>
+        <v>19.38010277014939</v>
       </c>
       <c r="I44" t="n">
-        <v>72.49242113362098</v>
+        <v>72.95509943084923</v>
       </c>
       <c r="J44" t="n">
-        <v>159.5928572255927</v>
+        <v>160.6114485524684</v>
       </c>
       <c r="K44" t="n">
-        <v>239.188322800748</v>
+        <v>240.7149271571723</v>
       </c>
       <c r="L44" t="n">
-        <v>296.7342649126228</v>
+        <v>298.6281526083584</v>
       </c>
       <c r="M44" t="n">
-        <v>330.174044287113</v>
+        <v>332.2813592617107</v>
       </c>
       <c r="N44" t="n">
-        <v>335.5166055100142</v>
+        <v>337.6580190440309</v>
       </c>
       <c r="O44" t="n">
-        <v>316.8188164523022</v>
+        <v>318.8408925291355</v>
       </c>
       <c r="P44" t="n">
-        <v>270.397529979667</v>
+        <v>272.1233251288608</v>
       </c>
       <c r="Q44" t="n">
-        <v>203.0572840332874</v>
+        <v>204.3532843178294</v>
       </c>
       <c r="R44" t="n">
-        <v>118.1169067903461</v>
+        <v>118.8707804843546</v>
       </c>
       <c r="S44" t="n">
-        <v>42.8486102479058</v>
+        <v>43.12208879529153</v>
       </c>
       <c r="T44" t="n">
-        <v>8.231257986185739</v>
+        <v>8.283793470165161</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1513885728413963</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.006079106680871</v>
+        <v>1.012500343007052</v>
       </c>
       <c r="H45" t="n">
-        <v>9.716606109259992</v>
+        <v>9.778621733778635</v>
       </c>
       <c r="I45" t="n">
-        <v>34.63912713791596</v>
+        <v>34.86020917809368</v>
       </c>
       <c r="J45" t="n">
-        <v>95.05241244303791</v>
+        <v>95.65907845927592</v>
       </c>
       <c r="K45" t="n">
-        <v>162.4597125906563</v>
+        <v>163.4966014407484</v>
       </c>
       <c r="L45" t="n">
-        <v>202.635780428066</v>
+        <v>204.7771939620827</v>
       </c>
       <c r="M45" t="n">
-        <v>207.8710246109518</v>
+        <v>210.0124381449685</v>
       </c>
       <c r="N45" t="n">
-        <v>192.087253921875</v>
+        <v>194.1421456969415</v>
       </c>
       <c r="O45" t="n">
-        <v>208.5470075</v>
+        <v>210.6884210340167</v>
       </c>
       <c r="P45" t="n">
-        <v>192.1169830994376</v>
+        <v>193.3431576045659</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.425115442281</v>
+        <v>129.2447806266546</v>
       </c>
       <c r="R45" t="n">
-        <v>62.46515716743164</v>
+        <v>62.86383708599926</v>
       </c>
       <c r="S45" t="n">
-        <v>18.68747814383108</v>
+        <v>18.80674979225817</v>
       </c>
       <c r="T45" t="n">
-        <v>4.055204820349649</v>
+        <v>4.081086908874914</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.0666118646715166</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8488462754862111</v>
       </c>
       <c r="H46" t="n">
-        <v>7.499152202429723</v>
+        <v>7.547015067504683</v>
       </c>
       <c r="I46" t="n">
-        <v>25.36523055791157</v>
+        <v>25.52712253916716</v>
       </c>
       <c r="J46" t="n">
-        <v>59.632828914413</v>
+        <v>60.01343167687512</v>
       </c>
       <c r="K46" t="n">
-        <v>97.9950563875785</v>
+        <v>98.6205036428525</v>
       </c>
       <c r="L46" t="n">
-        <v>125.3999336590344</v>
+        <v>126.2002908118318</v>
       </c>
       <c r="M46" t="n">
-        <v>132.2166476753534</v>
+        <v>133.0605120746249</v>
       </c>
       <c r="N46" t="n">
-        <v>129.0728313123717</v>
+        <v>129.8966305023582</v>
       </c>
       <c r="O46" t="n">
-        <v>119.2196507600995</v>
+        <v>119.9805626478147</v>
       </c>
       <c r="P46" t="n">
-        <v>102.013007056365</v>
+        <v>102.6640986278959</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.62851834006149</v>
+        <v>71.07930039548629</v>
       </c>
       <c r="R46" t="n">
-        <v>37.92516032026317</v>
+        <v>38.16721525958909</v>
       </c>
       <c r="S46" t="n">
-        <v>14.69925845813677</v>
+        <v>14.79307554642787</v>
       </c>
       <c r="T46" t="n">
-        <v>3.60388705024741</v>
+        <v>3.626888631622901</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04630070593561156</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>2.141413534016697</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -35895,13 +35895,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2.141413534016697</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>2.141413534016697</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>2.054891775066527</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>2.054891775066527</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>2.141413534016697</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>2.141413534016697</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>2.141413534016697</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36123,16 +36123,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>2.054891775066523</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>2.054891775066524</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36360,19 +36360,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>3.111327272391122</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>0.9984562777419288</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>4.109783550133052</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36603,16 +36603,16 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>4.109783550133051</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>4.109783550133052</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36837,16 +36837,16 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>4.109783550133052</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>4.109783550133052</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37071,19 +37071,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>3.111327272391122</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>0.9984562777419288</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37153,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>4.109783550133052</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37314,16 +37314,16 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>4.109783550133051</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37390,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>4.109783550133051</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37551,16 +37551,16 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>4.109783550133051</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37627,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>4.109783550133051</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>4.282827068033389</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -37791,13 +37791,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>2.054891775066523</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>2.054891775066524</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38025,16 +38025,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>2.054891775066524</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>2.054891775066523</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>2.141413534016692</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
